--- a/target/classes/companies/consumer_defense/Unilever/UL_Unilever.xlsx
+++ b/target/classes/companies/consumer_defense/Unilever/UL_Unilever.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EFB9248-22D8-45A9-8DCF-AE85B50F969F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D2C41D-A74C-45FB-8ED9-E98810C63079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="165">
   <si>
     <t>WACC</t>
   </si>
@@ -497,6 +497,15 @@
   </si>
   <si>
     <t>EPS Growth esitmation (%)</t>
+  </si>
+  <si>
+    <t>CE_Celanese</t>
+  </si>
+  <si>
+    <t>sector median (19.16)</t>
+  </si>
+  <si>
+    <t>sector median (14.4)</t>
   </si>
   <si>
     <t>Long Term Debt</t>
@@ -1244,7 +1253,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="9" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="12" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="12" fillId="8" borderId="0" xfId="0" applyNumberFormat="true" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="10" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="12" fillId="7" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1354,7 +1363,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="12" fillId="3" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1363,7 +1372,7 @@
     <xf numFmtId="2" fontId="5" fillId="3" borderId="5" xfId="6" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="4" applyNumberFormat="true" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1378,11 +1387,11 @@
     <xf numFmtId="166" fontId="16" fillId="2" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="12" fillId="8" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="4" applyNumberFormat="true" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="12" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1404,18 +1413,18 @@
     <xf numFmtId="2" fontId="12" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="25" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="11" fillId="3" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1424,7 +1433,7 @@
     <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1746,34 +1755,34 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.10568905718407791</c:v>
+                  <c:v>0.16912442396313365</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.11386145491714761</c:v>
+                  <c:v>9.1737724198765067E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.2149721680965607E-2</c:v>
+                  <c:v>5.3577722946774764E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.8343842575720986E-2</c:v>
+                  <c:v>0.16700686583781776</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.11268734479549018</c:v>
+                  <c:v>0.13729641693811076</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.18416306851317202</c:v>
+                  <c:v>0.16869322152341021</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.10821469505638397</c:v>
+                  <c:v>0.13530252501191042</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.11002681357717713</c:v>
+                  <c:v>0.35101679929266139</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.11534207050105566</c:v>
+                  <c:v>0.22138924680801217</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.12721189182116752</c:v>
+                  <c:v>0.1958027499224646</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1911,34 +1920,34 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.17406665658785311</c:v>
+                  <c:v>0.28064516129032258</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.19431811921852152</c:v>
+                  <c:v>0.15524845633637166</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.16566546300353704</c:v>
+                  <c:v>0.1214310891787099</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.17576310285255936</c:v>
+                  <c:v>0.22805715346075339</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.19352124092964207</c:v>
+                  <c:v>0.19006514657980456</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.28013805646706469</c:v>
+                  <c:v>0.23522012578616353</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.20565601267228434</c:v>
+                  <c:v>0.18897887883118947</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.20347374466541412</c:v>
+                  <c:v>0.18037135278514588</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.19954614117536848</c:v>
+                  <c:v>0.2722267775565187</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.21142604279396668</c:v>
+                  <c:v>0.19187428925876149</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2076,34 +2085,34 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>5.8295857666679857E-2</c:v>
+                  <c:v>5.9139784946236562E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.8147136094772204E-2</c:v>
+                  <c:v>4.1752425757130257E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.1074649037241181E-2</c:v>
+                  <c:v>6.0274938315121609E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.2321583955477007E-2</c:v>
+                  <c:v>0.12005938021896456</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.8200329940572475E-2</c:v>
+                  <c:v>8.7296416938110744E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.2411917766884293E-2</c:v>
+                  <c:v>0.17064989517819706</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.11474193063121348</c:v>
+                  <c:v>0.17214546609496587</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.14024364469411332</c:v>
+                  <c:v>0.17312113174182139</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.10851538765280878</c:v>
+                  <c:v>0.15110694623404006</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.934650004304763E-2</c:v>
+                  <c:v>0.13191357386539854</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2634,34 +2643,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>18.190000534057617</c:v>
+                  <c:v>17.280000686645508</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.489999771118164</c:v>
+                  <c:v>6.9099998474121094</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23.340000152587891</c:v>
+                  <c:v>19.739999771118164</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22.25</c:v>
+                  <c:v>25.079999923706055</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22.840000152587891</c:v>
+                  <c:v>18.399999618530273</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21.049999237060547</c:v>
+                  <c:v>9.2899999618530273</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14.539999961853027</c:v>
+                  <c:v>16.959999084472656</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>21.809999465942383</c:v>
+                  <c:v>26.139999389648438</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>23.059999465942383</c:v>
+                  <c:v>6.8400001525878906</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20.899999618530273</c:v>
+                  <c:v>6.7399997711181641</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2848,34 +2857,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>13.609999656677246</c:v>
+                  <c:v>13.220000267028809</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16.370000839233398</c:v>
+                  <c:v>9.8900003433227539</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18.620000839233398</c:v>
+                  <c:v>11.619999885559082</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.930000305175781</c:v>
+                  <c:v>10.770000457763672</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17.819999694824219</c:v>
+                  <c:v>21.469999313354492</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16.780000686645508</c:v>
+                  <c:v>9.7899999618530273</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>20.870000839233398</c:v>
+                  <c:v>10.529999732971191</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13.949999809265137</c:v>
+                  <c:v>11.140000343322754</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>14.569999694824219</c:v>
+                  <c:v>13.199999809265137</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15.270000457763672</c:v>
+                  <c:v>6.0100002288818359</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3303,34 +3312,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.2400000095367432</c:v>
+                  <c:v>6.9099998474121094</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0799999237060547</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.9099999666213989</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.0139999389648438</c:v>
+                  <c:v>6.179999828338623</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.4300999641418457</c:v>
+                  <c:v>6.0900001525878906</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.1335000991821289</c:v>
+                  <c:v>8.9099998474121094</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.3968000411987305</c:v>
+                  <c:v>6.8400001525878906</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.4217000007629395</c:v>
+                  <c:v>16.75</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.7448000907897949</c:v>
+                  <c:v>16.860000610351563</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.1500000953674316</c:v>
+                  <c:v>17.340000152587891</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3758,34 +3767,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>66145.3515625</c:v>
+                  <c:v>6510</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>64385.96875</c:v>
+                  <c:v>6802</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>59155.359375</c:v>
+                  <c:v>5674</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>58332.2109375</c:v>
+                  <c:v>5389</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>60714.05859375</c:v>
+                  <c:v>6140</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>60209.73828125</c:v>
+                  <c:v>7155</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>58217.6015625</c:v>
+                  <c:v>6297</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>57942.01953125</c:v>
+                  <c:v>5655</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>62046.5</c:v>
+                  <c:v>8537</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>63292.91015625</c:v>
+                  <c:v>9673</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4192,34 +4201,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>17688</c:v>
+                  <c:v>2887</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18772</c:v>
+                  <c:v>2586</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17986</c:v>
+                  <c:v>2468</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20907</c:v>
+                  <c:v>2890</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25682</c:v>
+                  <c:v>3315</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32350</c:v>
+                  <c:v>2970</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>33535</c:v>
+                  <c:v>3409</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>33597</c:v>
+                  <c:v>3227</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>36169</c:v>
+                  <c:v>3176</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>32338</c:v>
+                  <c:v>13373</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4329,34 +4338,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>11513.7001953125</c:v>
+                  <c:v>1827</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12511.3603515625</c:v>
+                  <c:v>1056</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9800</c:v>
+                  <c:v>689</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10252.650390625</c:v>
+                  <c:v>1229</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11749.4599609375</c:v>
+                  <c:v>1167</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16867.0390625</c:v>
+                  <c:v>1683</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11972.7998046875</c:v>
+                  <c:v>1190</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11789.6796875</c:v>
+                  <c:v>1020</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12381.1396484375</c:v>
+                  <c:v>2324</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13381.76953125</c:v>
+                  <c:v>1856</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4452,34 +4461,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.5362567810477821</c:v>
+                  <c:v>1.5801860974274768</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.500396397555253</c:v>
+                  <c:v>2.4488636363636362</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.8353061224489795</c:v>
+                  <c:v>3.5820029027576199</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.039180036716878</c:v>
+                  <c:v>2.3515052888527257</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.1858025888324155</c:v>
+                  <c:v>2.8406169665809768</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.9179418438605991</c:v>
+                  <c:v>1.7647058823529411</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.8009321584806446</c:v>
+                  <c:v>2.8647058823529412</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.8496957415748283</c:v>
+                  <c:v>3.1637254901960783</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.9212981217415255</c:v>
+                  <c:v>1.3666092943201378</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.416571285619749</c:v>
+                  <c:v>7.2052801724137927</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4948,34 +4957,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3856</c:v>
+                  <c:v>385</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3100</c:v>
+                  <c:v>284</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4796</c:v>
+                  <c:v>342</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4802</c:v>
+                  <c:v>647</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5355</c:v>
+                  <c:v>536</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4962</c:v>
+                  <c:v>1221</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6680</c:v>
+                  <c:v>1084</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8126</c:v>
+                  <c:v>979</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6733</c:v>
+                  <c:v>1290</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5655</c:v>
+                  <c:v>1276</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5085,34 +5094,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3976</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4239</c:v>
+                  <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4600</c:v>
+                  <c:v>174</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3994</c:v>
+                  <c:v>201</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4426</c:v>
+                  <c:v>241</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4802</c:v>
+                  <c:v>280</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4714</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4888</c:v>
+                  <c:v>293</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5304</c:v>
+                  <c:v>304</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4561</c:v>
+                  <c:v>297</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5224,34 +5233,34 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.0311203319502074</c:v>
+                  <c:v>0.21558441558441557</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3674193548387097</c:v>
+                  <c:v>0.50704225352112675</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.95913261050875731</c:v>
+                  <c:v>0.50877192982456143</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.83173677634319032</c:v>
+                  <c:v>0.31066460587326122</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.82651727357609706</c:v>
+                  <c:v>0.44962686567164178</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.96775493752519148</c:v>
+                  <c:v>0.22932022932022933</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.70568862275449107</c:v>
+                  <c:v>0.2767527675276753</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.60152596603494957</c:v>
+                  <c:v>0.2992849846782431</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.78776177038467254</c:v>
+                  <c:v>0.23565891472868217</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.80654288240495142</c:v>
+                  <c:v>0.23275862068965517</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5744,34 +5753,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>44353.23828125</c:v>
+                  <c:v>5836</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>47429.37890625</c:v>
+                  <c:v>6098</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43986.75</c:v>
+                  <c:v>5799</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>47080.30078125</c:v>
+                  <c:v>5885</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>48944.25</c:v>
+                  <c:v>6746</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>51934.48046875</c:v>
+                  <c:v>6439</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>54181.12109375</c:v>
+                  <c:v>6711</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>58830.73046875</c:v>
+                  <c:v>7146</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>68257.7734375</c:v>
+                  <c:v>8168</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>61808.390625</c:v>
+                  <c:v>19661</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5881,34 +5890,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>16101.650390625</c:v>
+                  <c:v>3182</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16412.859375</c:v>
+                  <c:v>2698</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14087.0400390625</c:v>
+                  <c:v>2787</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15364.0302734375</c:v>
+                  <c:v>2472</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19195.880859375</c:v>
+                  <c:v>2792</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18283.060546875</c:v>
+                  <c:v>2874</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18401.599609375</c:v>
+                  <c:v>2765</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18456.140625</c:v>
+                  <c:v>3763</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20587.119140625</c:v>
+                  <c:v>3807</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20183.810546875</c:v>
+                  <c:v>6611</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6310,34 +6319,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>23088.509765625</c:v>
+                  <c:v>1545</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26110.109375</c:v>
+                  <c:v>1338</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22229.900390625</c:v>
+                  <c:v>1550</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22747.26953125</c:v>
+                  <c:v>1077</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>26196.9609375</c:v>
+                  <c:v>1559</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23350.73046875</c:v>
+                  <c:v>1779</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>23495.359375</c:v>
+                  <c:v>1754</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>23522.240234375</c:v>
+                  <c:v>1973</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>29314.849609375</c:v>
+                  <c:v>2505</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>26789.890625</c:v>
+                  <c:v>4068</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6447,34 +6456,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>17687.619140625</c:v>
+                  <c:v>4774</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18772.349609375</c:v>
+                  <c:v>4380</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17985.80078125</c:v>
+                  <c:v>4207</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20906.990234375</c:v>
+                  <c:v>4259</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25681.55078125</c:v>
+                  <c:v>4680</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32349.94921875</c:v>
+                  <c:v>4155</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>33535.0390625</c:v>
+                  <c:v>4824</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>33597.328125</c:v>
+                  <c:v>5041</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>36168.55078125</c:v>
+                  <c:v>4933</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>32338.150390625</c:v>
+                  <c:v>16099</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6876,34 +6885,34 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>19678.759765625</c:v>
+                  <c:v>2699</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18959.779296875</c:v>
+                  <c:v>3078</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17858.0888671875</c:v>
+                  <c:v>2829</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18790.0712890625</c:v>
+                  <c:v>3021</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16261.619140625</c:v>
+                  <c:v>3299</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14516.861328125</c:v>
+                  <c:v>3379</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15552.322265625</c:v>
+                  <c:v>2898</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20167.302734375</c:v>
+                  <c:v>3895</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>23361.4921875</c:v>
+                  <c:v>4537</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>22864.16015625</c:v>
+                  <c:v>6105</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6993,34 +7002,34 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>40776.12890625</c:v>
+                  <c:v>6319</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44882.458984375</c:v>
+                  <c:v>5718</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40215.701171875</c:v>
+                  <c:v>5757</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43654.259765625</c:v>
+                  <c:v>5336</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>51878.51171875</c:v>
+                  <c:v>6239</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>55700.6796875</c:v>
+                  <c:v>5934</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>57030.3984375</c:v>
+                  <c:v>6578</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>57119.568359375</c:v>
+                  <c:v>7014</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>65483.400390625</c:v>
+                  <c:v>7438</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>59128.041015625</c:v>
+                  <c:v>20167</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7132,34 +7141,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.0720883527161114</c:v>
+                  <c:v>2.341237495368655</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.3672458566947898</c:v>
+                  <c:v>1.8576998050682261</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.2519599645271917</c:v>
+                  <c:v>2.0349946977730649</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.3232620618653894</c:v>
+                  <c:v>1.7663025488248925</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.1902426978594272</c:v>
+                  <c:v>1.8911791451955138</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.8369643704996599</c:v>
+                  <c:v>1.7561408700799053</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.6670021019017334</c:v>
+                  <c:v>2.2698412698412698</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.8322859586976481</c:v>
+                  <c:v>1.8007702182284981</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.803048703612482</c:v>
+                  <c:v>1.6394093013004187</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.5860578569933668</c:v>
+                  <c:v>3.3033579033579032</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7595,34 +7604,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>16101.650390625</c:v>
+                  <c:v>3182</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16412.859375</c:v>
+                  <c:v>2698</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14087.0400390625</c:v>
+                  <c:v>2787</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15364.0302734375</c:v>
+                  <c:v>2472</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19195.880859375</c:v>
+                  <c:v>2792</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18283.060546875</c:v>
+                  <c:v>2874</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18401.599609375</c:v>
+                  <c:v>2765</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18456.140625</c:v>
+                  <c:v>3763</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20587.119140625</c:v>
+                  <c:v>3807</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20183.810546875</c:v>
+                  <c:v>6611</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7712,34 +7721,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>23088.509765625</c:v>
+                  <c:v>1545</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26110.109375</c:v>
+                  <c:v>1338</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22229.900390625</c:v>
+                  <c:v>1550</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22747.26953125</c:v>
+                  <c:v>1077</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>26196.9609375</c:v>
+                  <c:v>1559</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23350.73046875</c:v>
+                  <c:v>1779</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>23495.359375</c:v>
+                  <c:v>1754</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>23522.240234375</c:v>
+                  <c:v>1973</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>29314.849609375</c:v>
+                  <c:v>2505</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>26789.890625</c:v>
+                  <c:v>4068</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7890,34 +7899,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.69738803214565692</c:v>
+                  <c:v>2.0595469255663432</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.62860170898843659</c:v>
+                  <c:v>2.0164424514200299</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.63369784801210438</c:v>
+                  <c:v>1.7980645161290323</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.67542305472445952</c:v>
+                  <c:v>2.2952646239554317</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.73275220378317973</c:v>
+                  <c:v>1.790891597177678</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.78297595749062321</c:v>
+                  <c:v>1.615514333895447</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.78320145334550773</c:v>
+                  <c:v>1.5763968072976056</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.78462512248423144</c:v>
+                  <c:v>1.9072478459199189</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.70227613018492718</c:v>
+                  <c:v>1.5197604790419161</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.75341145768022333</c:v>
+                  <c:v>1.6251229105211407</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8470,34 +8479,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>11513.7001953125</c:v>
+                  <c:v>1827</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12511.3603515625</c:v>
+                  <c:v>1056</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9800</c:v>
+                  <c:v>689</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10252.650390625</c:v>
+                  <c:v>1229</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11749.4599609375</c:v>
+                  <c:v>1167</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16867.0390625</c:v>
+                  <c:v>1683</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11972.7998046875</c:v>
+                  <c:v>1190</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11789.6796875</c:v>
+                  <c:v>1020</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12381.1396484375</c:v>
+                  <c:v>2324</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13381.76953125</c:v>
+                  <c:v>1856</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8663,34 +8672,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>6990.83984375</c:v>
+                  <c:v>1101</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7331.080078125</c:v>
+                  <c:v>624</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5451.14990234375</c:v>
+                  <c:v>304</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5736.61376953125</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6841.7060546875</c:v>
+                  <c:v>843</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11088.41015625</c:v>
+                  <c:v>1207</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6300</c:v>
+                  <c:v>852</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6375.17578125</c:v>
+                  <c:v>1985</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7156.57177734375</c:v>
+                  <c:v>1890</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8051.61083984375</c:v>
+                  <c:v>1894</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8859,34 +8868,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3856</c:v>
+                  <c:v>385</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3100</c:v>
+                  <c:v>284</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4796</c:v>
+                  <c:v>342</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4802</c:v>
+                  <c:v>647</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5355</c:v>
+                  <c:v>536</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4962</c:v>
+                  <c:v>1221</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6680</c:v>
+                  <c:v>1084</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8126</c:v>
+                  <c:v>979</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6733</c:v>
+                  <c:v>1290</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5655</c:v>
+                  <c:v>1276</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9299,34 +9308,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>11.563729579742487</c:v>
+                  <c:v>12.208915502328676</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.483118818342064</c:v>
+                  <c:v>7.094133697135061</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.386592296933113</c:v>
+                  <c:v>3.5406475658047984</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.1867647112869832</c:v>
+                  <c:v>10.769414861792509</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.040641202769557</c:v>
+                  <c:v>8.8383308869784027</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15.7915102065203</c:v>
+                  <c:v>12.960377966283689</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.6797517907437136</c:v>
+                  <c:v>8.99113550021106</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.24871765544348</c:v>
+                  <c:v>18.195984966541388</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.0551302046436479</c:v>
+                  <c:v>15.782881002087683</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.8199715640828735</c:v>
+                  <c:v>7.2091961023142508</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9463,34 +9472,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>35.524798955885672</c:v>
+                  <c:v>40.792886254168209</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>38.666484262996285</c:v>
+                  <c:v>20.2729044834308</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30.524822352965817</c:v>
+                  <c:v>10.745846588900672</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30.530026636303777</c:v>
+                  <c:v>29.791459781529294</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42.072723481731629</c:v>
+                  <c:v>25.553197938769323</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>76.382972225320415</c:v>
+                  <c:v>35.720627404557561</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40.508419851386243</c:v>
+                  <c:v>29.399585921325052</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>31.611444848217435</c:v>
+                  <c:v>50.96277278562259</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>30.634052482199774</c:v>
+                  <c:v>41.657482918227906</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>35.214986182830835</c:v>
+                  <c:v>31.023751023751025</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9627,34 +9636,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>19.969999313354492</c:v>
+                  <c:v>22.989999771118164</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21.409999847412109</c:v>
+                  <c:v>12.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18.940000534057617</c:v>
+                  <c:v>6.8600001335144043</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18</c:v>
+                  <c:v>18.329999923706055</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18.399999618530273</c:v>
+                  <c:v>15.489999771118164</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>26.659999847412109</c:v>
+                  <c:v>19.989999771118164</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15.689999580383301</c:v>
+                  <c:v>14.409999847412109</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14.310000419616699</c:v>
+                  <c:v>29.430000305175781</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>14.229999542236328</c:v>
+                  <c:v>24.680000305175781</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17.079999923706055</c:v>
+                  <c:v>14.380000114440918</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10110,34 +10119,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2924</c:v>
+                  <c:v>159.33399963378906</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2882.60009765625</c:v>
+                  <c:v>156.16700744628906</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2854.0048828125</c:v>
+                  <c:v>152.28799438476563</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2853.89990234375</c:v>
+                  <c:v>145.66799926757813</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2814</c:v>
+                  <c:v>138.31700134277344</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2694.800048828125</c:v>
+                  <c:v>135.41700744628906</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2626.699951171875</c:v>
+                  <c:v>124.65200042724609</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2629.800048828125</c:v>
+                  <c:v>118.48100280761719</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2609.60009765625</c:v>
+                  <c:v>112.08399963378906</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2559.800048828125</c:v>
+                  <c:v>109.23500061035156</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18068,7 +18077,7 @@
                   <m:oMathParaPr>
                     <m:jc m:val="centerGroup"/>
                   </m:oMathParaPr>
-                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMath>
                     <m:r>
                       <a:rPr lang="en-US" sz="2000" b="0" i="1">
                         <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -18162,7 +18171,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4"/>
@@ -18685,23 +18694,23 @@
   <dimension ref="B2:V47"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A10" zoomScale="75" workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="16.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.08984375" customWidth="1"/>
-    <col min="5" max="5" width="22.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.54296875" customWidth="1"/>
-    <col min="20" max="20" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="16.90625"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="31.453125"/>
+    <col min="4" max="4" customWidth="true" width="7.08984375"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="22.1796875"/>
+    <col min="6" max="6" customWidth="true" width="19.54296875"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="7.453125"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:22" ht="15" thickBot="1"/>
     <row r="3" spans="2:22">
       <c r="B3" s="139" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C3" s="140"/>
       <c r="D3" s="140"/>
@@ -18855,49 +18864,49 @@
       <c r="E12" s="45" t="s">
         <v>141</v>
       </c>
-      <c r="F12" s="123">
+      <c r="F12" s="123" t="n">
         <f>AVERAGE(L12:P12)</f>
         <v>10.119016284286804</v>
       </c>
-      <c r="G12" s="119">
+      <c r="G12" s="119" t="n">
         <f>Financials!D76</f>
         <v>11.563729579742487</v>
       </c>
-      <c r="H12" s="119">
+      <c r="H12" s="119" t="n">
         <f>Financials!E76</f>
         <v>11.483118818342064</v>
       </c>
-      <c r="I12" s="119">
+      <c r="I12" s="119" t="n">
         <f>Financials!F76</f>
         <v>9.386592296933113</v>
       </c>
-      <c r="J12" s="119">
+      <c r="J12" s="119" t="n">
         <f>Financials!G76</f>
-        <v>9.1867647112869832</v>
-      </c>
-      <c r="K12" s="119">
+        <v>9.186764711286983</v>
+      </c>
+      <c r="K12" s="119" t="n">
         <f>Financials!H76</f>
         <v>10.040641202769557</v>
       </c>
-      <c r="L12" s="119">
+      <c r="L12" s="119" t="n">
         <f>Financials!I76</f>
         <v>15.7915102065203</v>
       </c>
-      <c r="M12" s="119">
+      <c r="M12" s="119" t="n">
         <f>Financials!J76</f>
-        <v>8.6797517907437136</v>
-      </c>
-      <c r="N12" s="119">
+        <v>8.679751790743714</v>
+      </c>
+      <c r="N12" s="119" t="n">
         <f>Financials!K76</f>
         <v>8.24871765544348</v>
       </c>
-      <c r="O12" s="119">
+      <c r="O12" s="119" t="n">
         <f>Financials!L76</f>
-        <v>8.0551302046436479</v>
-      </c>
-      <c r="P12" s="119">
+        <v>8.055130204643648</v>
+      </c>
+      <c r="P12" s="119" t="n">
         <f>Financials!M76</f>
-        <v>9.8199715640828735</v>
+        <v>9.819971564082874</v>
       </c>
     </row>
     <row r="13" spans="2:22">
@@ -18929,47 +18938,47 @@
       <c r="E14" s="46">
         <v>0.08</v>
       </c>
-      <c r="F14" s="124">
+      <c r="F14" s="124" t="n">
         <f>AVERAGE(L14:P14)</f>
         <v>42.870375117990946</v>
       </c>
-      <c r="G14" s="40">
+      <c r="G14" s="40" t="n">
         <f>Financials!D77</f>
-        <v>35.524798955885672</v>
-      </c>
-      <c r="H14" s="40">
+        <v>35.52479895588567</v>
+      </c>
+      <c r="H14" s="40" t="n">
         <f>Financials!E77</f>
         <v>38.666484262996285</v>
       </c>
-      <c r="I14" s="40">
+      <c r="I14" s="40" t="n">
         <f>Financials!F77</f>
         <v>30.524822352965817</v>
       </c>
-      <c r="J14" s="40">
+      <c r="J14" s="40" t="n">
         <f>Financials!G77</f>
         <v>30.530026636303777</v>
       </c>
-      <c r="K14" s="40">
+      <c r="K14" s="40" t="n">
         <f>Financials!H77</f>
-        <v>42.072723481731629</v>
-      </c>
-      <c r="L14" s="40">
+        <v>42.07272348173163</v>
+      </c>
+      <c r="L14" s="40" t="n">
         <f>Financials!I77</f>
-        <v>76.382972225320415</v>
-      </c>
-      <c r="M14" s="40">
+        <v>76.38297222532042</v>
+      </c>
+      <c r="M14" s="40" t="n">
         <f>Financials!J77</f>
-        <v>40.508419851386243</v>
-      </c>
-      <c r="N14" s="40">
+        <v>40.50841985138624</v>
+      </c>
+      <c r="N14" s="40" t="n">
         <f>Financials!K77</f>
         <v>31.611444848217435</v>
       </c>
-      <c r="O14" s="40">
+      <c r="O14" s="40" t="n">
         <f>Financials!L77</f>
         <v>30.634052482199774</v>
       </c>
-      <c r="P14" s="40">
+      <c r="P14" s="40" t="n">
         <f>Financials!M77</f>
         <v>35.214986182830835</v>
       </c>
@@ -19006,51 +19015,51 @@
         <f>T11</f>
         <v>J</v>
       </c>
-      <c r="E16" s="47">
+      <c r="E16" s="47" t="n">
         <f>WACC!$C$25</f>
-        <v>3.5347606249901818E-2</v>
-      </c>
-      <c r="F16" s="124">
+        <v>0.03534760624990182</v>
+      </c>
+      <c r="F16" s="124" t="n">
         <f>AVERAGE(L16:P16)</f>
-        <v>17.593999862670898</v>
-      </c>
-      <c r="G16" s="40">
+        <v>17.5939998626709</v>
+      </c>
+      <c r="G16" s="40" t="n">
         <f>Financials!D78</f>
         <v>19.969999313354492</v>
       </c>
-      <c r="H16" s="40">
+      <c r="H16" s="40" t="n">
         <f>Financials!E78</f>
-        <v>21.409999847412109</v>
-      </c>
-      <c r="I16" s="40">
+        <v>21.40999984741211</v>
+      </c>
+      <c r="I16" s="40" t="n">
         <f>Financials!F78</f>
         <v>18.940000534057617</v>
       </c>
-      <c r="J16" s="40">
+      <c r="J16" s="40" t="n">
         <f>Financials!G78</f>
-        <v>18</v>
-      </c>
-      <c r="K16" s="40">
+        <v>18.0</v>
+      </c>
+      <c r="K16" s="40" t="n">
         <f>Financials!H78</f>
         <v>18.399999618530273</v>
       </c>
-      <c r="L16" s="40">
+      <c r="L16" s="40" t="n">
         <f>Financials!I78</f>
-        <v>26.659999847412109</v>
-      </c>
-      <c r="M16" s="40">
+        <v>26.65999984741211</v>
+      </c>
+      <c r="M16" s="40" t="n">
         <f>Financials!J78</f>
-        <v>15.689999580383301</v>
-      </c>
-      <c r="N16" s="40">
+        <v>15.6899995803833</v>
+      </c>
+      <c r="N16" s="40" t="n">
         <f>Financials!K78</f>
-        <v>14.310000419616699</v>
-      </c>
-      <c r="O16" s="40">
+        <v>14.3100004196167</v>
+      </c>
+      <c r="O16" s="40" t="n">
         <f>Financials!L78</f>
         <v>14.229999542236328</v>
       </c>
-      <c r="P16" s="40">
+      <c r="P16" s="40" t="n">
         <f>Financials!M78</f>
         <v>17.079999923706055</v>
       </c>
@@ -19093,49 +19102,49 @@
       <c r="E18" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="F18" s="125">
+      <c r="F18" s="125" t="n">
         <f>AVERAGE(L18:P18)</f>
-        <v>0.76129802423710258</v>
-      </c>
-      <c r="G18" s="42">
+        <v>0.7612980242371026</v>
+      </c>
+      <c r="G18" s="42" t="n">
         <f>Financials!D59</f>
-        <v>0.69738803214565692</v>
-      </c>
-      <c r="H18" s="42">
+        <v>0.6973880321456569</v>
+      </c>
+      <c r="H18" s="42" t="n">
         <f>Financials!E59</f>
-        <v>0.62860170898843659</v>
-      </c>
-      <c r="I18" s="42">
+        <v>0.6286017089884366</v>
+      </c>
+      <c r="I18" s="42" t="n">
         <f>Financials!F59</f>
-        <v>0.63369784801210438</v>
-      </c>
-      <c r="J18" s="42">
+        <v>0.6336978480121044</v>
+      </c>
+      <c r="J18" s="42" t="n">
         <f>Financials!G59</f>
-        <v>0.67542305472445952</v>
-      </c>
-      <c r="K18" s="42">
+        <v>0.6754230547244595</v>
+      </c>
+      <c r="K18" s="42" t="n">
         <f>Financials!H59</f>
-        <v>0.73275220378317973</v>
-      </c>
-      <c r="L18" s="42">
+        <v>0.7327522037831797</v>
+      </c>
+      <c r="L18" s="42" t="n">
         <f>Financials!I59</f>
-        <v>0.78297595749062321</v>
-      </c>
-      <c r="M18" s="42">
+        <v>0.7829759574906232</v>
+      </c>
+      <c r="M18" s="42" t="n">
         <f>Financials!J59</f>
-        <v>0.78320145334550773</v>
-      </c>
-      <c r="N18" s="42">
+        <v>0.7832014533455077</v>
+      </c>
+      <c r="N18" s="42" t="n">
         <f>Financials!K59</f>
-        <v>0.78462512248423144</v>
-      </c>
-      <c r="O18" s="42">
+        <v>0.7846251224842314</v>
+      </c>
+      <c r="O18" s="42" t="n">
         <f>Financials!L59</f>
-        <v>0.70227613018492718</v>
-      </c>
-      <c r="P18" s="42">
+        <v>0.7022761301849272</v>
+      </c>
+      <c r="P18" s="42" t="n">
         <f>Financials!M59</f>
-        <v>0.75341145768022333</v>
+        <v>0.7534114576802233</v>
       </c>
       <c r="Q18" s="44"/>
       <c r="R18" s="44"/>
@@ -19166,7 +19175,7 @@
     <row r="20" spans="2:20" ht="18.5">
       <c r="B20" s="152"/>
       <c r="C20" s="36" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D20" s="56" t="str">
         <f>V11</f>
@@ -19175,47 +19184,47 @@
       <c r="E20" s="49" t="s">
         <v>137</v>
       </c>
-      <c r="F20" s="125">
+      <c r="F20" s="125" t="n">
         <f>AVERAGE(L20:P20)</f>
-        <v>3.1450717983409779</v>
-      </c>
-      <c r="G20" s="42">
+        <v>3.145071798340978</v>
+      </c>
+      <c r="G20" s="42" t="n">
         <f>Financials!D58</f>
         <v>2.0720883527161114</v>
       </c>
-      <c r="H20" s="42">
+      <c r="H20" s="42" t="n">
         <f>Financials!E58</f>
-        <v>2.3672458566947898</v>
-      </c>
-      <c r="I20" s="42">
+        <v>2.36724585669479</v>
+      </c>
+      <c r="I20" s="42" t="n">
         <f>Financials!F58</f>
         <v>2.2519599645271917</v>
       </c>
-      <c r="J20" s="42">
+      <c r="J20" s="42" t="n">
         <f>Financials!G58</f>
         <v>2.3232620618653894</v>
       </c>
-      <c r="K20" s="42">
+      <c r="K20" s="42" t="n">
         <f>Financials!H58</f>
-        <v>3.1902426978594272</v>
-      </c>
-      <c r="L20" s="42">
+        <v>3.190242697859427</v>
+      </c>
+      <c r="L20" s="42" t="n">
         <f>Financials!I58</f>
-        <v>3.8369643704996599</v>
-      </c>
-      <c r="M20" s="42">
+        <v>3.83696437049966</v>
+      </c>
+      <c r="M20" s="42" t="n">
         <f>Financials!J58</f>
         <v>3.6670021019017334</v>
       </c>
-      <c r="N20" s="42">
+      <c r="N20" s="42" t="n">
         <f>Financials!K58</f>
-        <v>2.8322859586976481</v>
-      </c>
-      <c r="O20" s="42">
+        <v>2.832285958697648</v>
+      </c>
+      <c r="O20" s="42" t="n">
         <f>Financials!L58</f>
         <v>2.803048703612482</v>
       </c>
-      <c r="P20" s="42">
+      <c r="P20" s="42" t="n">
         <f>Financials!M58</f>
         <v>2.5860578569933668</v>
       </c>
@@ -19248,56 +19257,56 @@
     <row r="22" spans="2:20" ht="18.5">
       <c r="B22" s="132"/>
       <c r="C22" s="36" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D22" s="54" t="str">
         <f>T11</f>
         <v>J</v>
       </c>
       <c r="E22" s="49" t="s">
-        <v>158</v>
-      </c>
-      <c r="F22" s="125">
+        <v>161</v>
+      </c>
+      <c r="F22" s="125" t="n">
         <f>AVERAGE(L22:P22)</f>
         <v>2.5812878302554694</v>
       </c>
-      <c r="G22" s="42">
+      <c r="G22" s="42" t="n">
         <f>Financials!D60</f>
-        <v>1.5362567810477821</v>
-      </c>
-      <c r="H22" s="42">
+        <v>1.536256781047782</v>
+      </c>
+      <c r="H22" s="42" t="n">
         <f>Financials!E60</f>
         <v>1.500396397555253</v>
       </c>
-      <c r="I22" s="42">
+      <c r="I22" s="42" t="n">
         <f>Financials!F60</f>
-        <v>1.8353061224489795</v>
-      </c>
-      <c r="J22" s="42">
+        <v>0.30404683852873643</v>
+      </c>
+      <c r="J22" s="42" t="n">
         <f>Financials!G60</f>
         <v>2.039180036716878</v>
       </c>
-      <c r="K22" s="42">
+      <c r="K22" s="42" t="n">
         <f>Financials!H60</f>
         <v>2.1858025888324155</v>
       </c>
-      <c r="L22" s="42">
+      <c r="L22" s="42" t="n">
         <f>Financials!I60</f>
-        <v>1.9179418438605991</v>
-      </c>
-      <c r="M22" s="42">
+        <v>1.917941843860599</v>
+      </c>
+      <c r="M22" s="42" t="n">
         <f>Financials!J60</f>
         <v>2.8009321584806446</v>
       </c>
-      <c r="N22" s="42">
+      <c r="N22" s="42" t="n">
         <f>Financials!K60</f>
         <v>2.8496957415748283</v>
       </c>
-      <c r="O22" s="42">
+      <c r="O22" s="42" t="n">
         <f>Financials!L60</f>
         <v>2.9212981217415255</v>
       </c>
-      <c r="P22" s="42">
+      <c r="P22" s="42" t="n">
         <f>Financials!M60</f>
         <v>2.416571285619749</v>
       </c>
@@ -19342,43 +19351,43 @@
         <v>69</v>
       </c>
       <c r="F24" s="50"/>
-      <c r="G24" s="40">
+      <c r="G24" s="40" t="n">
         <f>Financials!D12</f>
-        <v>2924</v>
-      </c>
-      <c r="H24" s="40">
+        <v>2924.0</v>
+      </c>
+      <c r="H24" s="40" t="n">
         <f>Financials!E12</f>
         <v>2882.60009765625</v>
       </c>
-      <c r="I24" s="40">
+      <c r="I24" s="40" t="n">
         <f>Financials!F12</f>
         <v>2854.0048828125</v>
       </c>
-      <c r="J24" s="40">
+      <c r="J24" s="40" t="n">
         <f>Financials!G12</f>
         <v>2853.89990234375</v>
       </c>
-      <c r="K24" s="40">
+      <c r="K24" s="40" t="n">
         <f>Financials!H12</f>
-        <v>2814</v>
-      </c>
-      <c r="L24" s="40">
+        <v>2814.0</v>
+      </c>
+      <c r="L24" s="40" t="n">
         <f>Financials!I12</f>
         <v>2694.800048828125</v>
       </c>
-      <c r="M24" s="40">
+      <c r="M24" s="40" t="n">
         <f>Financials!J12</f>
         <v>2626.699951171875</v>
       </c>
-      <c r="N24" s="40">
+      <c r="N24" s="40" t="n">
         <f>Financials!K12</f>
         <v>2629.800048828125</v>
       </c>
-      <c r="O24" s="40">
+      <c r="O24" s="40" t="n">
         <f>Financials!L12</f>
         <v>2609.60009765625</v>
       </c>
-      <c r="P24" s="40">
+      <c r="P24" s="40" t="n">
         <f>Financials!M12</f>
         <v>2559.800048828125</v>
       </c>
@@ -19420,49 +19429,49 @@
         <v>J</v>
       </c>
       <c r="E26" s="51" t="s">
-        <v>160</v>
-      </c>
-      <c r="F26" s="57">
+        <v>163</v>
+      </c>
+      <c r="F26" s="57" t="n">
         <f>AVERAGEIF(L26:P26,"&lt;100")</f>
         <v>20.271999549865722</v>
       </c>
-      <c r="G26" s="44">
+      <c r="G26" s="44" t="n">
         <f>Financials!D81</f>
         <v>18.190000534057617</v>
       </c>
-      <c r="H26" s="44">
+      <c r="H26" s="44" t="n">
         <f>Financials!E81</f>
         <v>18.489999771118164</v>
       </c>
-      <c r="I26" s="44">
+      <c r="I26" s="44" t="n">
         <f>Financials!F81</f>
-        <v>23.340000152587891</v>
-      </c>
-      <c r="J26" s="44">
+        <v>23.34000015258789</v>
+      </c>
+      <c r="J26" s="44" t="n">
         <f>Financials!G81</f>
         <v>22.25</v>
       </c>
-      <c r="K26" s="44">
+      <c r="K26" s="44" t="n">
         <f>Financials!H81</f>
-        <v>22.840000152587891</v>
-      </c>
-      <c r="L26" s="44">
+        <v>22.84000015258789</v>
+      </c>
+      <c r="L26" s="44" t="n">
         <f>Financials!I81</f>
         <v>21.049999237060547</v>
       </c>
-      <c r="M26" s="44">
+      <c r="M26" s="44" t="n">
         <f>Financials!J81</f>
         <v>14.539999961853027</v>
       </c>
-      <c r="N26" s="44">
+      <c r="N26" s="44" t="n">
         <f>Financials!K81</f>
         <v>21.809999465942383</v>
       </c>
-      <c r="O26" s="44">
+      <c r="O26" s="44" t="n">
         <f>Financials!L81</f>
         <v>23.059999465942383</v>
       </c>
-      <c r="P26" s="44">
+      <c r="P26" s="44" t="n">
         <f>Financials!M81</f>
         <v>20.899999618530273</v>
       </c>
@@ -19502,49 +19511,49 @@
         <v>L</v>
       </c>
       <c r="E28" s="51" t="s">
-        <v>161</v>
-      </c>
-      <c r="F28" s="57">
+        <v>164</v>
+      </c>
+      <c r="F28" s="57" t="n">
         <f>AVERAGEIF(L28:P28, "&lt;100")</f>
         <v>16.288000297546386</v>
       </c>
-      <c r="G28" s="44">
+      <c r="G28" s="44" t="n">
         <f>Financials!D82</f>
         <v>13.609999656677246</v>
       </c>
-      <c r="H28" s="44">
+      <c r="H28" s="44" t="n">
         <f>Financials!E82</f>
-        <v>16.370000839233398</v>
-      </c>
-      <c r="I28" s="44">
+        <v>16.3700008392334</v>
+      </c>
+      <c r="I28" s="44" t="n">
         <f>Financials!F82</f>
-        <v>18.620000839233398</v>
-      </c>
-      <c r="J28" s="44">
+        <v>18.6200008392334</v>
+      </c>
+      <c r="J28" s="44" t="n">
         <f>Financials!G82</f>
         <v>15.930000305175781</v>
       </c>
-      <c r="K28" s="44">
+      <c r="K28" s="44" t="n">
         <f>Financials!H82</f>
-        <v>17.819999694824219</v>
-      </c>
-      <c r="L28" s="44">
+        <v>17.81999969482422</v>
+      </c>
+      <c r="L28" s="44" t="n">
         <f>Financials!I82</f>
         <v>16.780000686645508</v>
       </c>
-      <c r="M28" s="44">
+      <c r="M28" s="44" t="n">
         <f>Financials!J82</f>
-        <v>20.870000839233398</v>
-      </c>
-      <c r="N28" s="44">
+        <v>20.8700008392334</v>
+      </c>
+      <c r="N28" s="44" t="n">
         <f>Financials!K82</f>
         <v>13.949999809265137</v>
       </c>
-      <c r="O28" s="44">
+      <c r="O28" s="44" t="n">
         <f>Financials!L82</f>
         <v>14.569999694824219</v>
       </c>
-      <c r="P28" s="44">
+      <c r="P28" s="44" t="n">
         <f>Financials!M82</f>
         <v>15.270000457763672</v>
       </c>
@@ -19582,9 +19591,9 @@
       <c r="E30" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="F30" s="127">
+      <c r="F30" s="127" t="n">
         <f>Financials!$C$83</f>
-        <v>4.8000001907348633</v>
+        <v>4.800000190734863</v>
       </c>
       <c r="G30" s="38"/>
       <c r="H30" s="38"/>
@@ -19618,9 +19627,9 @@
       <c r="E32" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="F32" s="52">
+      <c r="F32" s="52" t="n">
         <f>Financials!D63</f>
-        <v>2.6491056537449653E-2</v>
+        <v>0.026491056537449653</v>
       </c>
     </row>
     <row r="33" spans="2:17" ht="18.5">
@@ -19635,9 +19644,9 @@
       <c r="E33" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="F33" s="52">
+      <c r="F33" s="52" t="n">
         <f>Financials!D64</f>
-        <v>3.9033519891011226E-2</v>
+        <v>0.039033519891011226</v>
       </c>
     </row>
     <row r="34" spans="2:17">
@@ -19659,9 +19668,9 @@
       <c r="E35" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="F35" s="52">
+      <c r="F35" s="52" t="n">
         <f>Financials!D69</f>
-        <v>-4.523841000667006E-2</v>
+        <v>-0.04523841000667006</v>
       </c>
     </row>
     <row r="36" spans="2:17" ht="18.5">
@@ -19676,9 +19685,9 @@
       <c r="E36" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="F36" s="52">
+      <c r="F36" s="52" t="n">
         <f>Financials!D70</f>
-        <v>3.0527832848427305E-2</v>
+        <v>0.030527832848427305</v>
       </c>
     </row>
     <row r="37" spans="2:17">
@@ -19701,9 +19710,9 @@
       <c r="E38" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="F38" s="52">
+      <c r="F38" s="52" t="n">
         <f>Financials!D65</f>
-        <v>-6.200030150071667E-2</v>
+        <v>-0.06200030150071667</v>
       </c>
     </row>
     <row r="39" spans="2:17" ht="18.5">
@@ -19718,9 +19727,9 @@
       <c r="E39" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="F39" s="52">
+      <c r="F39" s="52" t="n">
         <f>Financials!D66</f>
-        <v>1.4227407462441555E-2</v>
+        <v>0.014227407462441555</v>
       </c>
     </row>
     <row r="40" spans="2:17">
@@ -19742,9 +19751,9 @@
       <c r="E41" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="F41" s="52">
+      <c r="F41" s="52" t="n">
         <f>Financials!D67</f>
-        <v>1.0037887842590187E-2</v>
+        <v>0.010037887842590187</v>
       </c>
     </row>
     <row r="42" spans="2:17" ht="18.5">
@@ -19759,9 +19768,9 @@
       <c r="E42" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="F42" s="52">
+      <c r="F42" s="52" t="n">
         <f>Financials!D68</f>
-        <v>-4.3984282464618607E-3</v>
+        <v>-0.004398428246461861</v>
       </c>
     </row>
     <row r="43" spans="2:17">
@@ -19781,9 +19790,9 @@
       <c r="E44" s="101">
         <v>0.75</v>
       </c>
-      <c r="F44" s="103">
+      <c r="F44" s="103" t="n">
         <f>Financials!$D$73</f>
-        <v>0.77385483582085113</v>
+        <v>0.7738548358208511</v>
       </c>
     </row>
     <row r="45" spans="2:17" ht="18.5">
@@ -19798,9 +19807,9 @@
       <c r="E45" s="101" t="s">
         <v>134</v>
       </c>
-      <c r="F45" s="103">
+      <c r="F45" s="103" t="n">
         <f>Financials!D71</f>
-        <v>-1.0245275929794073E-2</v>
+        <v>-0.010245275929794073</v>
       </c>
     </row>
     <row r="46" spans="2:17" ht="18.5">
@@ -19815,9 +19824,9 @@
       <c r="E46" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="F46" s="103">
+      <c r="F46" s="103" t="n">
         <f>Financials!D72</f>
-        <v>9.7123220295846635E-3</v>
+        <v>0.009712322029584664</v>
       </c>
     </row>
     <row r="47" spans="2:17" ht="18.5">
@@ -19832,9 +19841,9 @@
       <c r="E47" s="101">
         <v>0.12</v>
       </c>
-      <c r="F47" s="102">
+      <c r="F47" s="102" t="n">
         <f>F45+F46</f>
-        <v>-5.3295390020940969E-4</v>
+        <v>-5.329539002094097E-4</v>
       </c>
     </row>
   </sheetData>
@@ -19856,13 +19865,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B77" zoomScale="78" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B62" zoomScale="78" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="T129" sqref="T129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.1796875"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19880,9 +19889,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="61.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="61.453125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="32.6328125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="9.81640625"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="20" thickBot="1">
@@ -19910,7 +19919,7 @@
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
-      <c r="P4" t="s">
+      <c r="P4" t="s" s="0">
         <v>2</v>
       </c>
     </row>
@@ -19918,55 +19927,55 @@
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="58">
-        <v>134.53999328613281</v>
+      <c r="C5" s="58" t="n">
+        <v>134.5399932861328</v>
       </c>
     </row>
     <row r="6" spans="2:16">
       <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="59">
-        <v>25427000</v>
+      <c r="C6" s="59" t="n">
+        <v>2.5427E7</v>
       </c>
     </row>
     <row r="7" spans="2:16">
       <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="59">
-        <v>30693000</v>
+      <c r="C7" s="59" t="n">
+        <v>3.0693E7</v>
       </c>
     </row>
     <row r="8" spans="2:16">
       <c r="B8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="59">
-        <v>789000</v>
+      <c r="C8" s="59" t="n">
+        <v>789000.0</v>
       </c>
     </row>
     <row r="9" spans="2:16">
       <c r="B9" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="59">
-        <v>10337000</v>
+      <c r="C9" s="59" t="n">
+        <v>1.0337E7</v>
       </c>
     </row>
     <row r="10" spans="2:16">
       <c r="B10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="59">
-        <v>2068000</v>
+      <c r="C10" s="59" t="n">
+        <v>2068000.0</v>
       </c>
     </row>
     <row r="11" spans="2:16">
       <c r="B11" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="60">
+      <c r="C11" s="60" t="n">
         <v>0.12999999523162842</v>
       </c>
       <c r="G11" s="33"/>
@@ -19992,7 +20001,7 @@
       <c r="C15" s="14">
         <v>0.12</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K15" t="s" s="0">
         <v>10</v>
       </c>
     </row>
@@ -20000,38 +20009,38 @@
       <c r="B17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="11" t="n">
         <f>SUM(C6:C7)</f>
-        <v>56120000</v>
+        <v>5.612E7</v>
       </c>
     </row>
     <row r="18" spans="2:15" ht="18" thickTop="1" thickBot="1">
       <c r="B18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="12" t="n">
         <f>C8/C17</f>
-        <v>1.4059158945117604E-2</v>
+        <v>0.014059158945117604</v>
       </c>
     </row>
     <row r="19" spans="2:15" ht="18" thickTop="1" thickBot="1">
       <c r="B19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="12" t="n">
         <f>C14+C11*(C15-C14)</f>
-        <v>4.4309999585151638E-2</v>
+        <v>0.04430999958515164</v>
       </c>
     </row>
     <row r="20" spans="2:15" ht="18" thickTop="1" thickBot="1">
       <c r="B20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="12" t="n">
         <f>C8/C17</f>
-        <v>1.4059158945117604E-2</v>
-      </c>
-      <c r="K20" t="s">
+        <v>0.014059158945117604</v>
+      </c>
+      <c r="K20" t="s" s="0">
         <v>17</v>
       </c>
     </row>
@@ -20039,11 +20048,11 @@
       <c r="B21" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="11" t="n">
         <f>C17+C5*1000000</f>
-        <v>190659993.28613299</v>
-      </c>
-      <c r="K21" t="s">
+        <v>1.90659993286133E8</v>
+      </c>
+      <c r="K21" t="s" s="0">
         <v>11</v>
       </c>
     </row>
@@ -20051,11 +20060,11 @@
       <c r="B22" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22" s="12" t="n">
         <f>C5*1000000/C21</f>
         <v>0.705654033482641</v>
       </c>
-      <c r="K22" t="s">
+      <c r="K22" t="s" s="0">
         <v>12</v>
       </c>
     </row>
@@ -20063,7 +20072,7 @@
       <c r="B23" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C23" s="12" t="n">
         <f>C17/C21</f>
         <v>0.294345966517359</v>
       </c>
@@ -20079,9 +20088,9 @@
       <c r="B25" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C25" s="17">
+      <c r="C25" s="17" t="n">
         <f>C23*C20*(1-C18)+C22*C19</f>
-        <v>3.5347606249901818E-2</v>
+        <v>0.03534760624990182</v>
       </c>
       <c r="K25" s="15"/>
       <c r="L25" s="15"/>
@@ -20114,20 +20123,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B3:L74"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A39" zoomScale="82" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+    <sheetView showGridLines="0" zoomScale="82" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="62.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="62.26953125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="21.90625"/>
+    <col min="4" max="5" bestFit="true" customWidth="true" width="11.81640625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="12.1796875"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.81640625"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.453125"/>
+    <col min="9" max="12" bestFit="true" customWidth="true" width="10.54296875"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="15.81640625"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:12" ht="20" thickBot="1">
@@ -20140,9 +20149,9 @@
       <c r="B4" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="20" t="n">
         <f>WACC!C25</f>
-        <v>3.5347606249901818E-2</v>
+        <v>0.03534760624990182</v>
       </c>
     </row>
     <row r="5" spans="2:12">
@@ -20157,15 +20166,15 @@
       <c r="B6" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="65">
-        <v>2.500000037252903E-2</v>
+      <c r="C6" s="65" t="n">
+        <v>0.02500000037252903</v>
       </c>
     </row>
     <row r="7" spans="2:12">
       <c r="B7" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="13" t="n">
         <f>AVERAGEIF(C28:L28, "&lt;0.5")</f>
         <v>0.11676899606223586</v>
       </c>
@@ -20174,16 +20183,16 @@
       <c r="B8" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="13" t="n">
         <f>AVERAGEIF(C29:L29,"&lt;2")</f>
-        <v>0.78996299773822454</v>
+        <v>0.7899629977382245</v>
       </c>
     </row>
     <row r="9" spans="2:12">
       <c r="B9" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="C9" s="66">
+      <c r="C9" s="66" t="n">
         <v>13.579999923706055</v>
       </c>
     </row>
@@ -20191,16 +20200,16 @@
       <c r="B10" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="C10" s="67">
-        <v>2.4800000712275505E-2</v>
+      <c r="C10" s="67" t="n">
+        <v>0.024800000712275505</v>
       </c>
     </row>
     <row r="11" spans="2:12">
       <c r="B11" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="59">
-        <v>2510000128</v>
+      <c r="C11" s="59" t="n">
+        <v>2.510000128E9</v>
       </c>
     </row>
     <row r="12" spans="2:12">
@@ -20250,43 +20259,43 @@
       <c r="B16" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="21">
+      <c r="C16" s="21" t="n">
         <f>Financials!D3</f>
         <v>66145.3515625</v>
       </c>
-      <c r="D16" s="21">
+      <c r="D16" s="21" t="n">
         <f>Financials!E3</f>
         <v>64385.96875</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E16" s="21" t="n">
         <f>Financials!F3</f>
         <v>59155.359375</v>
       </c>
-      <c r="F16" s="21">
+      <c r="F16" s="21" t="n">
         <f>Financials!G3</f>
         <v>58332.2109375</v>
       </c>
-      <c r="G16" s="21">
+      <c r="G16" s="21" t="n">
         <f>Financials!H3</f>
         <v>60714.05859375</v>
       </c>
-      <c r="H16" s="21">
+      <c r="H16" s="21" t="n">
         <f>Financials!I3</f>
         <v>60209.73828125</v>
       </c>
-      <c r="I16" s="21">
+      <c r="I16" s="21" t="n">
         <f>Financials!J3</f>
         <v>58217.6015625</v>
       </c>
-      <c r="J16" s="21">
+      <c r="J16" s="21" t="n">
         <f>Financials!K3</f>
         <v>57942.01953125</v>
       </c>
-      <c r="K16" s="21">
+      <c r="K16" s="21" t="n">
         <f>Financials!L3</f>
         <v>62046.5</v>
       </c>
-      <c r="L16" s="21">
+      <c r="L16" s="21" t="n">
         <f>Financials!M3</f>
         <v>63292.91015625</v>
       </c>
@@ -20296,41 +20305,41 @@
         <v>27</v>
       </c>
       <c r="C17" s="22"/>
-      <c r="D17" s="20">
+      <c r="D17" s="20" t="n">
         <f t="shared" ref="D17:L17" si="0">(D16-C16)/C16</f>
-        <v>-2.6598737038045356E-2</v>
-      </c>
-      <c r="E17" s="20">
+        <v>-0.026598737038045356</v>
+      </c>
+      <c r="E17" s="20" t="n">
         <f t="shared" si="0"/>
-        <v>-8.123834239894076E-2</v>
-      </c>
-      <c r="F17" s="20">
+        <v>-0.08123834239894076</v>
+      </c>
+      <c r="F17" s="20" t="n">
         <f t="shared" si="0"/>
-        <v>-1.3915027246844446E-2</v>
-      </c>
-      <c r="G17" s="20">
+        <v>-0.013915027246844446</v>
+      </c>
+      <c r="G17" s="20" t="n">
         <f t="shared" si="0"/>
-        <v>4.0832459767417846E-2</v>
-      </c>
-      <c r="H17" s="20">
+        <v>0.040832459767417846</v>
+      </c>
+      <c r="H17" s="20" t="n">
         <f t="shared" si="0"/>
-        <v>-8.3064832788482951E-3</v>
-      </c>
-      <c r="I17" s="20">
+        <v>-0.008306483278848295</v>
+      </c>
+      <c r="I17" s="20" t="n">
         <f t="shared" si="0"/>
-        <v>-3.3086619799680715E-2</v>
-      </c>
-      <c r="J17" s="20">
+        <v>-0.033086619799680715</v>
+      </c>
+      <c r="J17" s="20" t="n">
         <f t="shared" si="0"/>
-        <v>-4.7336548372599405E-3</v>
-      </c>
-      <c r="K17" s="20">
+        <v>-0.0047336548372599405</v>
+      </c>
+      <c r="K17" s="20" t="n">
         <f t="shared" si="0"/>
-        <v>7.0837718497822139E-2</v>
-      </c>
-      <c r="L17" s="20">
+        <v>0.07083771849782214</v>
+      </c>
+      <c r="L17" s="20" t="n">
         <f t="shared" si="0"/>
-        <v>2.0088323374404679E-2</v>
+        <v>0.02008832337440468</v>
       </c>
     </row>
     <row r="18" spans="2:12">
@@ -20350,43 +20359,43 @@
       <c r="B19" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="21">
+      <c r="C19" s="21" t="n">
         <f>Financials!D6</f>
         <v>6990.83984375</v>
       </c>
-      <c r="D19" s="21">
+      <c r="D19" s="21" t="n">
         <f>Financials!E6</f>
         <v>7331.080078125</v>
       </c>
-      <c r="E19" s="21">
+      <c r="E19" s="21" t="n">
         <f>Financials!F6</f>
         <v>5451.14990234375</v>
       </c>
-      <c r="F19" s="21">
+      <c r="F19" s="21" t="n">
         <f>Financials!G6</f>
         <v>5736.61376953125</v>
       </c>
-      <c r="G19" s="21">
+      <c r="G19" s="21" t="n">
         <f>Financials!H6</f>
         <v>6841.7060546875</v>
       </c>
-      <c r="H19" s="21">
+      <c r="H19" s="21" t="n">
         <f>Financials!I6</f>
         <v>11088.41015625</v>
       </c>
-      <c r="I19" s="21">
+      <c r="I19" s="21" t="n">
         <f>Financials!J6</f>
-        <v>6300</v>
-      </c>
-      <c r="J19" s="21">
+        <v>6300.0</v>
+      </c>
+      <c r="J19" s="21" t="n">
         <f>Financials!K6</f>
         <v>6375.17578125</v>
       </c>
-      <c r="K19" s="21">
+      <c r="K19" s="21" t="n">
         <f>Financials!L6</f>
         <v>7156.57177734375</v>
       </c>
-      <c r="L19" s="21">
+      <c r="L19" s="21" t="n">
         <f>Financials!M6</f>
         <v>8051.61083984375</v>
       </c>
@@ -20396,86 +20405,86 @@
         <v>27</v>
       </c>
       <c r="C20" s="22"/>
-      <c r="D20" s="20">
+      <c r="D20" s="20" t="n">
         <f>(D19-C19)/C19</f>
-        <v>4.8669436287999641E-2</v>
-      </c>
-      <c r="E20" s="20">
+        <v>0.04866943628799964</v>
+      </c>
+      <c r="E20" s="20" t="n">
         <f t="shared" ref="E20:L20" si="1">(E19-D19)/D19</f>
         <v>-0.2564329069860688</v>
       </c>
-      <c r="F20" s="20">
+      <c r="F20" s="20" t="n">
         <f t="shared" si="1"/>
-        <v>5.2367642112495082E-2</v>
-      </c>
-      <c r="G20" s="20">
+        <v>0.05236764211249508</v>
+      </c>
+      <c r="G20" s="20" t="n">
         <f t="shared" si="1"/>
-        <v>0.19263843262826971</v>
-      </c>
-      <c r="H20" s="20">
+        <v>0.1926384326282697</v>
+      </c>
+      <c r="H20" s="20" t="n">
         <f t="shared" si="1"/>
-        <v>0.62070835367925947</v>
-      </c>
-      <c r="I20" s="20">
+        <v>0.6207083536792595</v>
+      </c>
+      <c r="I20" s="20" t="n">
         <f t="shared" si="1"/>
-        <v>-0.43183919865653642</v>
-      </c>
-      <c r="J20" s="20">
+        <v>-0.4318391986565364</v>
+      </c>
+      <c r="J20" s="20" t="n">
         <f t="shared" si="1"/>
-        <v>1.193266369047619E-2</v>
-      </c>
-      <c r="K20" s="20">
+        <v>0.01193266369047619</v>
+      </c>
+      <c r="K20" s="20" t="n">
         <f t="shared" si="1"/>
         <v>0.12256854130860362</v>
       </c>
-      <c r="L20" s="20">
+      <c r="L20" s="20" t="n">
         <f t="shared" si="1"/>
-        <v>0.12506533719587801</v>
+        <v>0.125065337195878</v>
       </c>
     </row>
     <row r="22" spans="2:12">
       <c r="B22" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="25">
+      <c r="C22" s="25" t="n">
         <f>Financials!D20</f>
-        <v>3856</v>
-      </c>
-      <c r="D22" s="25">
+        <v>3856.0</v>
+      </c>
+      <c r="D22" s="25" t="n">
         <f>Financials!E20</f>
-        <v>3100</v>
-      </c>
-      <c r="E22" s="25">
+        <v>3100.0</v>
+      </c>
+      <c r="E22" s="25" t="n">
         <f>Financials!F20</f>
-        <v>4796</v>
-      </c>
-      <c r="F22" s="25">
+        <v>4796.0</v>
+      </c>
+      <c r="F22" s="25" t="n">
         <f>Financials!G20</f>
-        <v>4802</v>
-      </c>
-      <c r="G22" s="25">
+        <v>4802.0</v>
+      </c>
+      <c r="G22" s="25" t="n">
         <f>Financials!H20</f>
-        <v>5355</v>
-      </c>
-      <c r="H22" s="25">
+        <v>5355.0</v>
+      </c>
+      <c r="H22" s="25" t="n">
         <f>Financials!I20</f>
-        <v>4962</v>
-      </c>
-      <c r="I22" s="25">
+        <v>4962.0</v>
+      </c>
+      <c r="I22" s="25" t="n">
         <f>Financials!J20</f>
-        <v>6680</v>
-      </c>
-      <c r="J22" s="25">
+        <v>6680.0</v>
+      </c>
+      <c r="J22" s="25" t="n">
         <f>Financials!K20</f>
-        <v>8126</v>
-      </c>
-      <c r="K22" s="25">
+        <v>8126.0</v>
+      </c>
+      <c r="K22" s="25" t="n">
         <f>Financials!L20</f>
-        <v>6733</v>
-      </c>
-      <c r="L22" s="25">
+        <v>6733.0</v>
+      </c>
+      <c r="L22" s="25" t="n">
         <f>Financials!M20</f>
-        <v>5655</v>
+        <v>5655.0</v>
       </c>
     </row>
     <row r="23" spans="2:12">
@@ -20483,39 +20492,39 @@
         <v>27</v>
       </c>
       <c r="C23" s="26"/>
-      <c r="D23" s="26">
+      <c r="D23" s="26" t="n">
         <f>(D22-C22)/C22</f>
         <v>-0.19605809128630705</v>
       </c>
-      <c r="E23" s="26">
+      <c r="E23" s="26" t="n">
         <f t="shared" ref="E23:L23" si="2">(E22-D22)/D22</f>
-        <v>0.54709677419354841</v>
-      </c>
-      <c r="F23" s="26">
+        <v>0.5470967741935484</v>
+      </c>
+      <c r="F23" s="26" t="n">
         <f t="shared" si="2"/>
-        <v>1.2510425354462051E-3</v>
-      </c>
-      <c r="G23" s="26">
+        <v>0.0012510425354462051</v>
+      </c>
+      <c r="G23" s="26" t="n">
         <f t="shared" si="2"/>
-        <v>0.11516034985422741</v>
-      </c>
-      <c r="H23" s="26">
+        <v>0.1151603498542274</v>
+      </c>
+      <c r="H23" s="26" t="n">
         <f t="shared" si="2"/>
-        <v>-7.3389355742296922E-2</v>
-      </c>
-      <c r="I23" s="26">
+        <v>-0.07338935574229692</v>
+      </c>
+      <c r="I23" s="26" t="n">
         <f t="shared" si="2"/>
         <v>0.34623135832325674</v>
       </c>
-      <c r="J23" s="26">
+      <c r="J23" s="26" t="n">
         <f t="shared" si="2"/>
         <v>0.21646706586826348</v>
       </c>
-      <c r="K23" s="26">
+      <c r="K23" s="26" t="n">
         <f t="shared" si="2"/>
         <v>-0.17142505537779965</v>
       </c>
-      <c r="L23" s="26">
+      <c r="L23" s="26" t="n">
         <f t="shared" si="2"/>
         <v>-0.16010693598693004</v>
       </c>
@@ -20537,43 +20546,43 @@
       <c r="B25" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="62">
+      <c r="C25" s="62" t="n">
         <f>Financials!D9</f>
         <v>11513.7001953125</v>
       </c>
-      <c r="D25" s="62">
+      <c r="D25" s="62" t="n">
         <f>Financials!E9</f>
         <v>12511.3603515625</v>
       </c>
-      <c r="E25" s="62">
+      <c r="E25" s="62" t="n">
         <f>Financials!F9</f>
-        <v>9800</v>
-      </c>
-      <c r="F25" s="62">
+        <v>59155.359375</v>
+      </c>
+      <c r="F25" s="62" t="n">
         <f>Financials!G9</f>
         <v>10252.650390625</v>
       </c>
-      <c r="G25" s="62">
+      <c r="G25" s="62" t="n">
         <f>Financials!H9</f>
         <v>11749.4599609375</v>
       </c>
-      <c r="H25" s="62">
+      <c r="H25" s="62" t="n">
         <f>Financials!I9</f>
         <v>16867.0390625</v>
       </c>
-      <c r="I25" s="62">
+      <c r="I25" s="62" t="n">
         <f>Financials!J9</f>
         <v>11972.7998046875</v>
       </c>
-      <c r="J25" s="62">
+      <c r="J25" s="62" t="n">
         <f>Financials!K9</f>
         <v>11789.6796875</v>
       </c>
-      <c r="K25" s="62">
+      <c r="K25" s="62" t="n">
         <f>Financials!L9</f>
         <v>12381.1396484375</v>
       </c>
-      <c r="L25" s="62">
+      <c r="L25" s="62" t="n">
         <f>Financials!M9</f>
         <v>13381.76953125</v>
       </c>
@@ -20583,84 +20592,84 @@
         <v>27</v>
       </c>
       <c r="C26" s="63"/>
-      <c r="D26" s="63">
+      <c r="D26" s="63" t="n">
         <f>Financials!E10</f>
-        <v>8.6649829275229087E-2</v>
-      </c>
-      <c r="E26" s="63">
+        <v>0.08664982927522909</v>
+      </c>
+      <c r="E26" s="63" t="n">
         <f>Financials!F10</f>
-        <v>-0.21671187427863411</v>
-      </c>
-      <c r="F26" s="63">
+        <v>3.7281316909405695</v>
+      </c>
+      <c r="F26" s="63" t="n">
         <f>Financials!G10</f>
-        <v>4.6188815369897961E-2</v>
-      </c>
-      <c r="G26" s="63">
+        <v>-0.8266826455126239</v>
+      </c>
+      <c r="G26" s="63" t="n">
         <f>Financials!H10</f>
-        <v>0.14599245202793409</v>
-      </c>
-      <c r="H26" s="63">
+        <v>0.1459924520279341</v>
+      </c>
+      <c r="H26" s="63" t="n">
         <f>Financials!I10</f>
         <v>0.43555866555369444</v>
       </c>
-      <c r="I26" s="63">
+      <c r="I26" s="63" t="n">
         <f>Financials!J10</f>
         <v>-0.29016588149687284</v>
       </c>
-      <c r="J26" s="63">
+      <c r="J26" s="63" t="n">
         <f>Financials!K10</f>
-        <v>-1.5294677951251319E-2</v>
-      </c>
-      <c r="K26" s="63">
+        <v>-0.015294677951251319</v>
+      </c>
+      <c r="K26" s="63" t="n">
         <f>Financials!L10</f>
-        <v>5.0167602226258531E-2</v>
-      </c>
-      <c r="L26" s="63">
+        <v>0.05016760222625853</v>
+      </c>
+      <c r="L26" s="63" t="n">
         <f>Financials!M10</f>
-        <v>8.0818883497431479E-2</v>
+        <v>0.08081888349743148</v>
       </c>
     </row>
     <row r="28" spans="2:12" ht="15" thickBot="1">
       <c r="B28" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="24">
+      <c r="C28" s="24" t="n">
         <f t="shared" ref="C28:L28" si="3">C19/C16</f>
         <v>0.10568905718407791</v>
       </c>
-      <c r="D28" s="24">
+      <c r="D28" s="24" t="n">
         <f t="shared" si="3"/>
         <v>0.11386145491714761</v>
       </c>
-      <c r="E28" s="24">
+      <c r="E28" s="24" t="n">
         <f t="shared" si="3"/>
-        <v>9.2149721680965607E-2</v>
-      </c>
-      <c r="F28" s="24">
+        <v>0.09214972168096561</v>
+      </c>
+      <c r="F28" s="24" t="n">
         <f t="shared" si="3"/>
-        <v>9.8343842575720986E-2</v>
-      </c>
-      <c r="G28" s="24">
+        <v>0.09834384257572099</v>
+      </c>
+      <c r="G28" s="24" t="n">
         <f t="shared" si="3"/>
         <v>0.11268734479549018</v>
       </c>
-      <c r="H28" s="24">
+      <c r="H28" s="24" t="n">
         <f t="shared" si="3"/>
         <v>0.18416306851317202</v>
       </c>
-      <c r="I28" s="24">
+      <c r="I28" s="24" t="n">
         <f t="shared" si="3"/>
         <v>0.10821469505638397</v>
       </c>
-      <c r="J28" s="24">
+      <c r="J28" s="24" t="n">
         <f t="shared" si="3"/>
         <v>0.11002681357717713</v>
       </c>
-      <c r="K28" s="24">
+      <c r="K28" s="24" t="n">
         <f t="shared" si="3"/>
         <v>0.11534207050105566</v>
       </c>
-      <c r="L28" s="24">
+      <c r="L28" s="24" t="n">
         <f t="shared" si="3"/>
         <v>0.12721189182116752</v>
       </c>
@@ -20669,45 +20678,45 @@
       <c r="B29" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="24">
+      <c r="C29" s="24" t="n">
         <f t="shared" ref="C29:L29" si="4">C22/C19</f>
-        <v>0.55157893560490712</v>
-      </c>
-      <c r="D29" s="24">
+        <v>0.5515789356049071</v>
+      </c>
+      <c r="D29" s="24" t="n">
         <f t="shared" si="4"/>
-        <v>0.42285720070771032</v>
-      </c>
-      <c r="E29" s="24">
+        <v>0.4228572007077103</v>
+      </c>
+      <c r="E29" s="24" t="n">
         <f t="shared" si="4"/>
-        <v>0.87981436686192305</v>
-      </c>
-      <c r="F29" s="24">
+        <v>0.879814366861923</v>
+      </c>
+      <c r="F29" s="24" t="n">
         <f t="shared" si="4"/>
-        <v>0.83707918868527575</v>
-      </c>
-      <c r="G29" s="24">
+        <v>0.8370791886852758</v>
+      </c>
+      <c r="G29" s="24" t="n">
         <f t="shared" si="4"/>
-        <v>0.78269951342488564</v>
-      </c>
-      <c r="H29" s="24">
+        <v>0.7826995134248856</v>
+      </c>
+      <c r="H29" s="24" t="n">
         <f t="shared" si="4"/>
-        <v>0.44749426924861369</v>
-      </c>
-      <c r="I29" s="24">
+        <v>0.4474942692486137</v>
+      </c>
+      <c r="I29" s="24" t="n">
         <f t="shared" si="4"/>
         <v>1.0603174603174603</v>
       </c>
-      <c r="J29" s="24">
+      <c r="J29" s="24" t="n">
         <f t="shared" si="4"/>
         <v>1.274631520576945</v>
       </c>
-      <c r="K29" s="24">
+      <c r="K29" s="24" t="n">
         <f t="shared" si="4"/>
-        <v>0.94081359196526304</v>
-      </c>
-      <c r="L29" s="24">
+        <v>0.940813591965263</v>
+      </c>
+      <c r="L29" s="24" t="n">
         <f t="shared" si="4"/>
-        <v>0.70234392998926176</v>
+        <v>0.7023439299892618</v>
       </c>
     </row>
     <row r="32" spans="2:12" ht="20" thickBot="1">
@@ -20754,87 +20763,87 @@
       <c r="B36" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C36" s="21">
+      <c r="C36" s="21" t="n">
         <f>L16*(C37+1)</f>
-        <v>64489.146130286521</v>
-      </c>
-      <c r="D36" s="21">
+        <v>64489.14613028652</v>
+      </c>
+      <c r="D36" s="21" t="n">
         <f>C36*(D37+1)</f>
-        <v>67017.120688576018</v>
-      </c>
-      <c r="E36" s="21">
+        <v>67017.12068857602</v>
+      </c>
+      <c r="E36" s="21" t="n">
         <f>D36*(E37+1)</f>
         <v>69423.03535365175</v>
       </c>
-      <c r="F36" s="21">
+      <c r="F36" s="21" t="n">
         <f t="shared" ref="F36:L36" si="5">E36*(F37+1)</f>
-        <v>71158.611263355255</v>
-      </c>
-      <c r="G36" s="21">
+        <v>71158.61126335525</v>
+      </c>
+      <c r="G36" s="21" t="n">
         <f t="shared" si="5"/>
-        <v>72937.576571447906</v>
-      </c>
-      <c r="H36" s="21">
+        <v>72937.5765714479</v>
+      </c>
+      <c r="H36" s="21" t="n">
         <f t="shared" si="5"/>
-        <v>74761.016012905529</v>
-      </c>
-      <c r="I36" s="21">
+        <v>74761.01601290553</v>
+      </c>
+      <c r="I36" s="21" t="n">
         <f t="shared" si="5"/>
-        <v>76630.041441078865</v>
-      </c>
-      <c r="J36" s="21">
+        <v>76630.04144107887</v>
+      </c>
+      <c r="J36" s="21" t="n">
         <f t="shared" si="5"/>
-        <v>78545.792505652862</v>
-      </c>
-      <c r="K36" s="21">
+        <v>78545.79250565286</v>
+      </c>
+      <c r="K36" s="21" t="n">
         <f t="shared" si="5"/>
-        <v>80509.437347554893</v>
-      </c>
-      <c r="L36" s="21">
+        <v>80509.4373475549</v>
+      </c>
+      <c r="L36" s="21" t="n">
         <f t="shared" si="5"/>
-        <v>82522.173311235951</v>
+        <v>82522.17331123595</v>
       </c>
     </row>
     <row r="37" spans="2:12">
       <c r="B37" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C37" s="68">
-        <v>1.8899999558925629E-2</v>
-      </c>
-      <c r="D37" s="68">
-        <v>3.9200000464916229E-2</v>
-      </c>
-      <c r="E37" s="68">
-        <v>3.5900000482797623E-2</v>
-      </c>
-      <c r="F37" s="27">
+      <c r="C37" s="68" t="n">
+        <v>0.01889999955892563</v>
+      </c>
+      <c r="D37" s="68" t="n">
+        <v>0.03920000046491623</v>
+      </c>
+      <c r="E37" s="68" t="n">
+        <v>0.03590000048279762</v>
+      </c>
+      <c r="F37" s="27" t="n">
         <f>C6</f>
-        <v>2.500000037252903E-2</v>
-      </c>
-      <c r="G37" s="27">
+        <v>0.02500000037252903</v>
+      </c>
+      <c r="G37" s="27" t="n">
         <f>C6</f>
-        <v>2.500000037252903E-2</v>
-      </c>
-      <c r="H37" s="27">
+        <v>0.02500000037252903</v>
+      </c>
+      <c r="H37" s="27" t="n">
         <f>C6</f>
-        <v>2.500000037252903E-2</v>
-      </c>
-      <c r="I37" s="27">
+        <v>0.02500000037252903</v>
+      </c>
+      <c r="I37" s="27" t="n">
         <f>C6</f>
-        <v>2.500000037252903E-2</v>
-      </c>
-      <c r="J37" s="27">
+        <v>0.02500000037252903</v>
+      </c>
+      <c r="J37" s="27" t="n">
         <f>C6</f>
-        <v>2.500000037252903E-2</v>
-      </c>
-      <c r="K37" s="27">
+        <v>0.02500000037252903</v>
+      </c>
+      <c r="K37" s="27" t="n">
         <f>C6</f>
-        <v>2.500000037252903E-2</v>
-      </c>
-      <c r="L37" s="27">
+        <v>0.02500000037252903</v>
+      </c>
+      <c r="L37" s="27" t="n">
         <f>C6</f>
-        <v>2.500000037252903E-2</v>
+        <v>0.02500000037252903</v>
       </c>
     </row>
     <row r="38" spans="2:12">
@@ -20854,88 +20863,88 @@
       <c r="B39" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C39" s="21">
+      <c r="C39" s="21" t="n">
         <f>C36*C7</f>
-        <v>7530.3328505443797</v>
-      </c>
-      <c r="D39" s="21">
+        <v>7530.332850544386</v>
+      </c>
+      <c r="D39" s="21" t="n">
         <f>D36*C7</f>
-        <v>7825.5219017867184</v>
-      </c>
-      <c r="E39" s="21">
+        <v>7825.521901786726</v>
+      </c>
+      <c r="E39" s="21" t="n">
         <f>E36*C7</f>
-        <v>8106.4581418390217</v>
-      </c>
-      <c r="F39" s="21">
+        <v>8106.458141839038</v>
+      </c>
+      <c r="F39" s="21" t="n">
         <f>F36*C7</f>
-        <v>8309.1195984049009</v>
-      </c>
-      <c r="G39" s="21">
+        <v>8309.119598404917</v>
+      </c>
+      <c r="G39" s="21" t="n">
         <f>G36*C7</f>
-        <v>8516.847591460426</v>
-      </c>
-      <c r="H39" s="21">
+        <v>8516.847591460437</v>
+      </c>
+      <c r="H39" s="21" t="n">
         <f>H36*C7</f>
-        <v>8729.7687844197171</v>
-      </c>
-      <c r="I39" s="21">
+        <v>8729.768784419724</v>
+      </c>
+      <c r="I39" s="21" t="n">
         <f>I36*C7</f>
-        <v>8948.0130072823085</v>
-      </c>
-      <c r="J39" s="21">
+        <v>8948.013007282323</v>
+      </c>
+      <c r="J39" s="21" t="n">
         <f>J36*C7</f>
-        <v>9171.7133357977727</v>
-      </c>
-      <c r="K39" s="21">
+        <v>9171.71333579779</v>
+      </c>
+      <c r="K39" s="21" t="n">
         <f>K36*C7</f>
-        <v>9401.0061726094609</v>
-      </c>
-      <c r="L39" s="21">
+        <v>9401.006172609474</v>
+      </c>
+      <c r="L39" s="21" t="n">
         <f>L36*C7</f>
-        <v>9636.0313304268548</v>
+        <v>9636.031330426873</v>
       </c>
     </row>
     <row r="40" spans="2:12">
       <c r="B40" s="18"/>
-      <c r="C40" s="20">
+      <c r="C40" s="20" t="n">
         <f>(C39-L19)/L19</f>
-        <v>-6.4742074557280302E-2</v>
-      </c>
-      <c r="D40" s="20">
+        <v>-0.06474207455727951</v>
+      </c>
+      <c r="D40" s="20" t="n">
         <f>(D39-C39)/C39</f>
-        <v>3.9200000464919567E-2</v>
-      </c>
-      <c r="E40" s="20">
+        <v>0.03920000046491968</v>
+      </c>
+      <c r="E40" s="20" t="n">
         <f t="shared" ref="E40:L40" si="6">(E39-D39)/D39</f>
-        <v>3.5900000482799753E-2</v>
-      </c>
-      <c r="F40" s="20">
+        <v>0.03590000048280082</v>
+      </c>
+      <c r="F40" s="20" t="n">
         <f t="shared" si="6"/>
-        <v>2.5000000372530598E-2</v>
-      </c>
-      <c r="G40" s="20">
+        <v>0.02500000037253051</v>
+      </c>
+      <c r="G40" s="20" t="n">
         <f t="shared" si="6"/>
-        <v>2.5000000372530751E-2</v>
-      </c>
-      <c r="H40" s="20">
+        <v>0.02500000037253008</v>
+      </c>
+      <c r="H40" s="20" t="n">
         <f t="shared" si="6"/>
-        <v>2.5000000372529915E-2</v>
-      </c>
-      <c r="I40" s="20">
+        <v>0.0250000003725295</v>
+      </c>
+      <c r="I40" s="20" t="n">
         <f t="shared" si="6"/>
-        <v>2.5000000372529738E-2</v>
-      </c>
-      <c r="J40" s="20">
+        <v>0.025000000372530598</v>
+      </c>
+      <c r="J40" s="20" t="n">
         <f t="shared" si="6"/>
-        <v>2.5000000372530359E-2</v>
-      </c>
-      <c r="K40" s="20">
+        <v>0.025000000372530525</v>
+      </c>
+      <c r="K40" s="20" t="n">
         <f t="shared" si="6"/>
-        <v>2.5000000372530598E-2</v>
-      </c>
-      <c r="L40" s="20">
+        <v>0.025000000372530206</v>
+      </c>
+      <c r="L40" s="20" t="n">
         <f t="shared" si="6"/>
-        <v>2.5000000372530053E-2</v>
+        <v>0.025000000372530577</v>
       </c>
     </row>
     <row r="41" spans="2:12">
@@ -20955,133 +20964,133 @@
       <c r="B42" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C42" s="21">
+      <c r="C42" s="21" t="n">
         <f>C39*C8</f>
-        <v>5948.6843125826681</v>
-      </c>
-      <c r="D42" s="21">
+        <v>5948.684312582679</v>
+      </c>
+      <c r="D42" s="21" t="n">
         <f>D39*C8</f>
-        <v>6181.8727404015681</v>
-      </c>
-      <c r="E42" s="21">
+        <v>6181.872740401581</v>
+      </c>
+      <c r="E42" s="21" t="n">
         <f>E39*C8</f>
-        <v>6403.8019747665912</v>
-      </c>
-      <c r="F42" s="21">
+        <v>6403.801974766609</v>
+      </c>
+      <c r="F42" s="21" t="n">
         <f>F39*C8</f>
-        <v>6563.8970265213675</v>
-      </c>
-      <c r="G42" s="21">
+        <v>6563.897026521387</v>
+      </c>
+      <c r="G42" s="21" t="n">
         <f>G39*C8</f>
-        <v>6727.9944546296556</v>
-      </c>
-      <c r="H42" s="21">
+        <v>6727.994454629671</v>
+      </c>
+      <c r="H42" s="21" t="n">
         <f>H39*C8</f>
-        <v>6896.1943185017763</v>
-      </c>
-      <c r="I42" s="21">
+        <v>6896.194318501783</v>
+      </c>
+      <c r="I42" s="21" t="n">
         <f>I39*C8</f>
-        <v>7068.5991790333583</v>
-      </c>
-      <c r="J42" s="21">
+        <v>7068.599179033371</v>
+      </c>
+      <c r="J42" s="21" t="n">
         <f>J39*C8</f>
-        <v>7245.3141611424599</v>
-      </c>
-      <c r="K42" s="21">
+        <v>7245.314161142478</v>
+      </c>
+      <c r="K42" s="21" t="n">
         <f>K39*C8</f>
-        <v>7426.4470178701222</v>
-      </c>
-      <c r="L42" s="21">
+        <v>7426.447017870134</v>
+      </c>
+      <c r="L42" s="21" t="n">
         <f>L39*C8</f>
-        <v>7612.1081960834499</v>
+        <v>7612.108196083467</v>
       </c>
     </row>
     <row r="43" spans="2:12">
       <c r="B43" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C43" s="20">
+      <c r="C43" s="20" t="n">
         <f>(C42-L22)/L22</f>
-        <v>5.1933565443442638E-2</v>
-      </c>
-      <c r="D43" s="20">
+        <v>0.05193356544344456</v>
+      </c>
+      <c r="D43" s="20" t="n">
         <f>(D42-C42)/C42</f>
-        <v>3.9200000464919511E-2</v>
-      </c>
-      <c r="E43" s="20">
+        <v>0.03920000046491977</v>
+      </c>
+      <c r="E43" s="20" t="n">
         <f t="shared" ref="E43:L43" si="7">(E42-D42)/D42</f>
-        <v>3.5900000482799788E-2</v>
-      </c>
-      <c r="F43" s="20">
+        <v>0.03590000048280067</v>
+      </c>
+      <c r="F43" s="20" t="n">
         <f t="shared" si="7"/>
-        <v>2.5000000372530487E-2</v>
-      </c>
-      <c r="G43" s="20">
+        <v>0.025000000372530532</v>
+      </c>
+      <c r="G43" s="20" t="n">
         <f t="shared" si="7"/>
-        <v>2.5000000372530817E-2</v>
-      </c>
-      <c r="H43" s="20">
+        <v>0.025000000372530105</v>
+      </c>
+      <c r="H43" s="20" t="n">
         <f t="shared" si="7"/>
-        <v>2.5000000372529925E-2</v>
-      </c>
-      <c r="I43" s="20">
+        <v>0.025000000372528586</v>
+      </c>
+      <c r="I43" s="20" t="n">
         <f t="shared" si="7"/>
-        <v>2.5000000372529758E-2</v>
-      </c>
-      <c r="J43" s="20">
+        <v>0.025000000372530612</v>
+      </c>
+      <c r="J43" s="20" t="n">
         <f t="shared" si="7"/>
-        <v>2.5000000372530334E-2</v>
-      </c>
-      <c r="K43" s="20">
+        <v>0.02500000037253106</v>
+      </c>
+      <c r="K43" s="20" t="n">
         <f t="shared" si="7"/>
-        <v>2.5000000372530546E-2</v>
-      </c>
-      <c r="L43" s="20">
+        <v>0.025000000372529602</v>
+      </c>
+      <c r="L43" s="20" t="n">
         <f t="shared" si="7"/>
-        <v>2.500000037253005E-2</v>
+        <v>0.025000000372530733</v>
       </c>
     </row>
     <row r="45" spans="2:12">
       <c r="B45" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C45" s="21">
+      <c r="C45" s="21" t="n">
         <f>L25*(1+C46)</f>
         <v>13713.637425156567</v>
       </c>
-      <c r="D45" s="21">
+      <c r="D45" s="21" t="n">
         <f>C45*(1+D46)</f>
         <v>14053.735643068434</v>
       </c>
-      <c r="E45" s="21">
+      <c r="E45" s="21" t="n">
         <f t="shared" ref="E45:L45" si="8">D45*(1+E46)</f>
-        <v>14402.268297026691</v>
-      </c>
-      <c r="F45" s="21">
+        <v>14402.26829702669</v>
+      </c>
+      <c r="F45" s="21" t="n">
         <f t="shared" si="8"/>
         <v>14759.44456105141</v>
       </c>
-      <c r="G45" s="21">
+      <c r="G45" s="21" t="n">
         <f t="shared" si="8"/>
         <v>15125.478796678331</v>
       </c>
-      <c r="H45" s="21">
+      <c r="H45" s="21" t="n">
         <f t="shared" si="8"/>
         <v>15500.590681609498</v>
       </c>
-      <c r="I45" s="21">
+      <c r="I45" s="21" t="n">
         <f t="shared" si="8"/>
         <v>15885.005341554177</v>
       </c>
-      <c r="J45" s="21">
+      <c r="J45" s="21" t="n">
         <f t="shared" si="8"/>
         <v>16278.953485339316</v>
       </c>
-      <c r="K45" s="21">
+      <c r="K45" s="21" t="n">
         <f t="shared" si="8"/>
-        <v>16682.671543370889</v>
-      </c>
-      <c r="L45" s="21">
+        <v>16682.67154337089</v>
+      </c>
+      <c r="L45" s="21" t="n">
         <f t="shared" si="8"/>
         <v>17096.40180952923</v>
       </c>
@@ -21090,45 +21099,45 @@
       <c r="B46" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C46" s="20">
+      <c r="C46" s="20" t="n">
         <f>C10</f>
-        <v>2.4800000712275505E-2</v>
-      </c>
-      <c r="D46" s="20">
+        <v>0.024800000712275505</v>
+      </c>
+      <c r="D46" s="20" t="n">
         <f>C10</f>
-        <v>2.4800000712275505E-2</v>
-      </c>
-      <c r="E46" s="20">
+        <v>0.024800000712275505</v>
+      </c>
+      <c r="E46" s="20" t="n">
         <f>C10</f>
-        <v>2.4800000712275505E-2</v>
-      </c>
-      <c r="F46" s="20">
+        <v>0.024800000712275505</v>
+      </c>
+      <c r="F46" s="20" t="n">
         <f>C10</f>
-        <v>2.4800000712275505E-2</v>
-      </c>
-      <c r="G46" s="20">
+        <v>0.024800000712275505</v>
+      </c>
+      <c r="G46" s="20" t="n">
         <f>C10</f>
-        <v>2.4800000712275505E-2</v>
-      </c>
-      <c r="H46" s="20">
+        <v>0.024800000712275505</v>
+      </c>
+      <c r="H46" s="20" t="n">
         <f>C10</f>
-        <v>2.4800000712275505E-2</v>
-      </c>
-      <c r="I46" s="20">
+        <v>0.024800000712275505</v>
+      </c>
+      <c r="I46" s="20" t="n">
         <f>C10</f>
-        <v>2.4800000712275505E-2</v>
-      </c>
-      <c r="J46" s="20">
+        <v>0.024800000712275505</v>
+      </c>
+      <c r="J46" s="20" t="n">
         <f>C10</f>
-        <v>2.4800000712275505E-2</v>
-      </c>
-      <c r="K46" s="20">
+        <v>0.024800000712275505</v>
+      </c>
+      <c r="K46" s="20" t="n">
         <f>C10</f>
-        <v>2.4800000712275505E-2</v>
-      </c>
-      <c r="L46" s="20">
+        <v>0.024800000712275505</v>
+      </c>
+      <c r="L46" s="20" t="n">
         <f>C10</f>
-        <v>2.4800000712275505E-2</v>
+        <v>0.024800000712275505</v>
       </c>
     </row>
     <row r="48" spans="2:12" ht="20" thickBot="1">
@@ -21178,43 +21187,43 @@
       <c r="B51" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C51" s="61">
+      <c r="C51" s="61" t="n">
         <f>POWER((1+C4),1)</f>
         <v>1.0353476062499019</v>
       </c>
-      <c r="D51" s="61">
+      <c r="D51" s="61" t="n">
         <f>POWER((1+C4),2)</f>
         <v>1.0719446657674019</v>
       </c>
-      <c r="E51" s="61">
+      <c r="E51" s="61" t="n">
         <f>POWER((1+C4),3)</f>
         <v>1.1098353437346307</v>
       </c>
-      <c r="F51" s="61">
+      <c r="F51" s="61" t="n">
         <f>POWER((1+C4),4)</f>
         <v>1.1490653664671868</v>
       </c>
-      <c r="G51" s="61">
+      <c r="G51" s="61" t="n">
         <f>POWER((1+C4),5)</f>
         <v>1.189682076596468</v>
       </c>
-      <c r="H51" s="61">
+      <c r="H51" s="61" t="n">
         <f>POWER((1+C4),6)</f>
         <v>1.2317344902025655</v>
       </c>
-      <c r="I51" s="61">
+      <c r="I51" s="61" t="n">
         <f>POWER((1+C4),7)</f>
         <v>1.2752733559666696</v>
       </c>
-      <c r="J51" s="61">
+      <c r="J51" s="61" t="n">
         <f>POWER((1+C4),8)</f>
         <v>1.3203512164143703</v>
       </c>
-      <c r="K51" s="61">
+      <c r="K51" s="61" t="n">
         <f>POWER((1+C4),9)</f>
         <v>1.3670224713237644</v>
       </c>
-      <c r="L51" s="61">
+      <c r="L51" s="61" t="n">
         <f>POWER((1+C4),10)</f>
         <v>1.4153434433748846</v>
       </c>
@@ -21236,45 +21245,45 @@
       <c r="B53" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C53" s="21">
+      <c r="C53" s="21" t="n">
         <f t="shared" ref="C53:L53" si="9">C42/C51</f>
-        <v>5745.5914097577333</v>
-      </c>
-      <c r="D53" s="21">
+        <v>5745.591409757755</v>
+      </c>
+      <c r="D53" s="21" t="n">
         <f t="shared" si="9"/>
-        <v>5766.9700105051452</v>
-      </c>
-      <c r="E53" s="21">
+        <v>5766.970010505166</v>
+      </c>
+      <c r="E53" s="21" t="n">
         <f t="shared" si="9"/>
-        <v>5770.0468911159351</v>
-      </c>
-      <c r="F53" s="21">
+        <v>5770.046891115956</v>
+      </c>
+      <c r="F53" s="21" t="n">
         <f t="shared" si="9"/>
-        <v>5712.3791370565241</v>
-      </c>
-      <c r="G53" s="21">
+        <v>5712.379137056528</v>
+      </c>
+      <c r="G53" s="21" t="n">
         <f t="shared" si="9"/>
-        <v>5655.287733574678</v>
-      </c>
-      <c r="H53" s="21">
+        <v>5655.287733574681</v>
+      </c>
+      <c r="H53" s="21" t="n">
         <f t="shared" si="9"/>
-        <v>5598.7669204323893</v>
-      </c>
-      <c r="I53" s="21">
+        <v>5598.766920432372</v>
+      </c>
+      <c r="I53" s="21" t="n">
         <f t="shared" si="9"/>
-        <v>5542.8109949613836</v>
-      </c>
-      <c r="J53" s="21">
+        <v>5542.810994961391</v>
+      </c>
+      <c r="J53" s="21" t="n">
         <f t="shared" si="9"/>
-        <v>5487.4143114877388</v>
-      </c>
-      <c r="K53" s="21">
+        <v>5487.414311487755</v>
+      </c>
+      <c r="K53" s="21" t="n">
         <f t="shared" si="9"/>
-        <v>5432.5712807622522</v>
-      </c>
-      <c r="L53" s="21">
+        <v>5432.571280762276</v>
+      </c>
+      <c r="L53" s="21" t="n">
         <f t="shared" si="9"/>
-        <v>5378.2763693965244</v>
+        <v>5378.276369396556</v>
       </c>
     </row>
     <row r="54" spans="2:12">
@@ -21294,7 +21303,7 @@
       <c r="B55" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="C55" s="74">
+      <c r="C55" s="74" t="n">
         <f>POWER((1+C4),11)</f>
         <v>1.4653724461196802</v>
       </c>
@@ -21353,18 +21362,18 @@
       <c r="B59" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C59" s="25">
+      <c r="C59" s="25" t="n">
         <f>L53*(1+C5)/(C4-C5)</f>
-        <v>532754.45020762598</v>
+        <v>532754.45020763</v>
       </c>
     </row>
     <row r="60" spans="2:12" ht="15" thickBot="1">
       <c r="B60" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C60" s="23">
+      <c r="C60" s="23" t="n">
         <f>C59/C55</f>
-        <v>363562.48653259769</v>
+        <v>363562.4865326005</v>
       </c>
     </row>
     <row r="61" spans="2:12" ht="15" thickTop="1"/>
@@ -21372,9 +21381,9 @@
       <c r="B62" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C62" s="71">
+      <c r="C62" s="71" t="n">
         <f>(SUM(C53:L53)+C59)</f>
-        <v>588844.56526667625</v>
+        <v>588844.5652666804</v>
       </c>
     </row>
     <row r="63" spans="2:12" ht="15" thickTop="1">
@@ -21384,9 +21393,9 @@
       <c r="B64" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="C64" s="70">
+      <c r="C64" s="70" t="n">
         <f>C62/(C11/1000000)</f>
-        <v>234.59941642946251</v>
+        <v>234.59941642946401</v>
       </c>
       <c r="D64" s="29"/>
       <c r="E64" s="30"/>
@@ -21423,7 +21432,7 @@
       <c r="B69" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C69" s="25">
+      <c r="C69" s="25" t="n">
         <f>L45*C9</f>
         <v>232169.13526905538</v>
       </c>
@@ -21432,7 +21441,7 @@
       <c r="B70" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C70" s="23">
+      <c r="C70" s="23" t="n">
         <f>C69/C55</f>
         <v>158436.94610461732</v>
       </c>
@@ -21445,9 +21454,9 @@
       <c r="B72" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C72" s="72">
+      <c r="C72" s="72" t="n">
         <f>SUM(C53:L53)+C70</f>
-        <v>214527.06116366762</v>
+        <v>214527.06116366776</v>
       </c>
     </row>
     <row r="73" spans="2:12" ht="15" thickTop="1"/>
@@ -21455,9 +21464,9 @@
       <c r="B74" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="C74" s="70">
+      <c r="C74" s="70" t="n">
         <f>C72/(C11/1000000)</f>
-        <v>85.468944312208265</v>
+        <v>85.46894431220842</v>
       </c>
     </row>
   </sheetData>
@@ -21481,7 +21490,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="29.90625" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="29.90625"/>
   </cols>
   <sheetData>
     <row r="13" spans="2:3" ht="20" thickBot="1">
@@ -21495,7 +21504,7 @@
       <c r="B15" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="C15" s="78">
+      <c r="C15" s="78" t="n">
         <v>2.8299999237060547</v>
       </c>
     </row>
@@ -21503,7 +21512,7 @@
       <c r="B16" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="0">
         <v>7</v>
       </c>
     </row>
@@ -21511,15 +21520,15 @@
       <c r="B17" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="C17" s="78">
-        <v>6.9000000953674316</v>
+      <c r="C17" s="78" t="n">
+        <v>6.900000095367432</v>
       </c>
     </row>
     <row r="18" spans="2:5">
       <c r="B18" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="0">
         <v>4.42</v>
       </c>
       <c r="D18" s="77" t="s">
@@ -21533,9 +21542,9 @@
       <c r="B20" s="75" t="s">
         <v>107</v>
       </c>
-      <c r="C20" s="79">
+      <c r="C20" s="79" t="n">
         <f>(C15*(C16+C17)*4.4)/C18</f>
-        <v>39.159003737868098</v>
+        <v>39.1590037378681</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="15" thickTop="1"/>
@@ -21554,22 +21563,22 @@
   <dimension ref="B2:P28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+      <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.54296875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="16.1796875"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.6328125"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="22.54296875"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="6.81640625"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="15" thickBot="1">
       <c r="B2" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C2" s="117">
+      <c r="C2" s="117" t="n">
         <v>1.8300000429153442</v>
       </c>
     </row>
@@ -21646,7 +21655,7 @@
       <c r="O6" s="88" t="s">
         <v>120</v>
       </c>
-      <c r="P6" s="106">
+      <c r="P6" s="106" t="n">
         <f>C2</f>
         <v>1.8300000429153442</v>
       </c>
@@ -21655,112 +21664,113 @@
       <c r="B7" s="89" t="s">
         <v>121</v>
       </c>
-      <c r="C7" s="90">
+      <c r="C7" s="90" t="n">
         <f>P6*(1+P7)</f>
         <v>1.8757500446699533</v>
       </c>
-      <c r="D7" s="90">
+      <c r="D7" s="90" t="n">
         <f>C7*(1+P7)</f>
-        <v>1.9226437964854719</v>
-      </c>
-      <c r="E7" s="90">
+        <v>1.922643796485472</v>
+      </c>
+      <c r="E7" s="90" t="n">
         <f>D7*(1+P7)</f>
         <v>1.9707098921138493</v>
       </c>
-      <c r="F7" s="90">
+      <c r="F7" s="90" t="n">
         <f>E7*(1+P7)</f>
         <v>2.0199776401508447</v>
       </c>
-      <c r="G7" s="90">
+      <c r="G7" s="90" t="n">
         <f>F7*(1+P7)</f>
         <v>2.0704770819071134</v>
       </c>
-      <c r="H7" s="90">
+      <c r="H7" s="90" t="n">
         <f>G7*(1+P7)</f>
         <v>2.1222390097261026</v>
       </c>
-      <c r="I7" s="90">
+      <c r="I7" s="90" t="n">
         <f>H7*(1+P7)</f>
         <v>2.1752949857598503</v>
       </c>
-      <c r="J7" s="90">
+      <c r="J7" s="90" t="n">
         <f>I7*(1+P7)</f>
-        <v>2.2296773612142089</v>
-      </c>
-      <c r="K7" s="90">
+        <v>2.229677361214209</v>
+      </c>
+      <c r="K7" s="90" t="n">
         <f>J7*(1+P7)</f>
-        <v>2.2854192960751871</v>
-      </c>
-      <c r="L7" s="90">
+        <v>2.285419296075187</v>
+      </c>
+      <c r="L7" s="90" t="n">
         <f>K7*(1+P7)</f>
-        <v>2.3425547793284571</v>
-      </c>
-      <c r="M7" s="159">
+        <v>2.342554779328457</v>
+      </c>
+      <c r="M7" s="159" t="n">
         <f>L7*(1+P7)/(P8-P7)</f>
-        <v>43.656703017231408</v>
+        <v>232.04581602154823</v>
       </c>
       <c r="N7" s="160"/>
       <c r="O7" s="88" t="s">
         <v>122</v>
       </c>
-      <c r="P7" s="104">
-        <v>2.500000037252903E-2</v>
+      <c r="P7" s="104" t="n">
+        <v>0.02500000037252903</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="15" thickBot="1">
       <c r="B8" s="89" t="s">
         <v>123</v>
       </c>
-      <c r="C8" s="90">
+      <c r="C8" s="90" t="n">
         <f>C7/(1+P8)</f>
-        <v>1.7368055969166234</v>
-      </c>
-      <c r="D8" s="90">
+        <v>1.8117104181696477</v>
+      </c>
+      <c r="D8" s="90" t="n">
         <f>D7/(1+P8)^2</f>
-        <v>1.6483571643393962</v>
-      </c>
-      <c r="E8" s="90">
+        <v>1.7936035859734034</v>
+      </c>
+      <c r="E8" s="90" t="n">
         <f>E7/(1+P8)^3</f>
-        <v>1.5644130500573536</v>
-      </c>
-      <c r="F8" s="90">
+        <v>1.7756777194375075</v>
+      </c>
+      <c r="F8" s="90" t="n">
         <f>F7/(1+P8)^4</f>
-        <v>1.4847438674922024</v>
-      </c>
-      <c r="G8" s="90">
+        <v>1.7579310099313812</v>
+      </c>
+      <c r="G8" s="90" t="n">
         <f>G7/(1+P8)^5</f>
-        <v>1.409131911789459</v>
-      </c>
-      <c r="H8" s="90">
+        <v>1.7403616669005244</v>
+      </c>
+      <c r="H8" s="90" t="n">
         <f>H7/(1+P8)^6</f>
-        <v>1.3373705649158674</v>
-      </c>
-      <c r="I8" s="90">
+        <v>1.722967917685798</v>
+      </c>
+      <c r="I8" s="90" t="n">
         <f>I7/(1+P8)^7</f>
-        <v>1.2692637310527528</v>
-      </c>
-      <c r="J8" s="90">
+        <v>1.705748007344633</v>
+      </c>
+      <c r="J8" s="90" t="n">
         <f>J7/(1+P8)^8</f>
-        <v>1.2046253007425096</v>
-      </c>
-      <c r="K8" s="90">
+        <v>1.688700198473906</v>
+      </c>
+      <c r="K8" s="90" t="n">
         <f>K7/(1+P8)^9</f>
-        <v>1.1432786423239185</v>
-      </c>
-      <c r="L8" s="90">
+        <v>1.6718227710346985</v>
+      </c>
+      <c r="L8" s="90" t="n">
         <f>L7/(1+P8)^10</f>
-        <v>1.085056119266596</v>
-      </c>
-      <c r="M8" s="159">
+        <v>1.655114022178708</v>
+      </c>
+      <c r="M8" s="159" t="n">
         <f>M7/POWER((1+P8),10)</f>
-        <v>20.221500548828576</v>
+        <v>163.9501826272186</v>
       </c>
       <c r="N8" s="160"/>
       <c r="O8" s="91" t="s">
         <v>124</v>
       </c>
-      <c r="P8" s="105">
-        <v>0.08</v>
+      <c r="P8" s="105" t="n">
+        <f>WACC!$C$25</f>
+        <v>0.03534760624990182</v>
       </c>
     </row>
     <row r="9" spans="2:16">
@@ -21771,9 +21781,9 @@
       <c r="B10" s="94" t="s">
         <v>125</v>
       </c>
-      <c r="C10" s="95">
+      <c r="C10" s="95" t="n">
         <f>SUM(C8:N8)*(1-P9)</f>
-        <v>34.104546497725252</v>
+        <v>181.273819944349</v>
       </c>
       <c r="D10" s="96"/>
       <c r="E10" s="96"/>
@@ -21866,7 +21876,7 @@
       <c r="O15" s="88" t="s">
         <v>120</v>
       </c>
-      <c r="P15" s="106">
+      <c r="P15" s="106" t="n">
         <f>C2</f>
         <v>1.8300000429153442</v>
       </c>
@@ -21875,112 +21885,113 @@
       <c r="B16" s="89" t="s">
         <v>121</v>
       </c>
-      <c r="C16" s="90">
+      <c r="C16" s="90" t="n">
         <f>P15*(1+P16)</f>
         <v>1.8849000429756937</v>
       </c>
-      <c r="D16" s="90">
+      <c r="D16" s="90" t="n">
         <f>C16*(1+P16)</f>
         <v>1.9414470430010409</v>
       </c>
-      <c r="E16" s="90">
+      <c r="E16" s="90" t="n">
         <f>D16*(1+P16)</f>
         <v>1.9996904529892339</v>
       </c>
-      <c r="F16" s="90">
+      <c r="F16" s="90" t="n">
         <f>E16*(1+P16)</f>
         <v>2.0596811652380143</v>
       </c>
-      <c r="G16" s="90">
+      <c r="G16" s="90" t="n">
         <f>F16*(1+P16)</f>
-        <v>2.1214715988140309</v>
-      </c>
-      <c r="H16" s="90">
+        <v>2.121471598814031</v>
+      </c>
+      <c r="H16" s="90" t="n">
         <f>G16*(1+P16)</f>
         <v>2.185115745355898</v>
       </c>
-      <c r="I16" s="90">
+      <c r="I16" s="90" t="n">
         <f>H16*(1+P16)</f>
         <v>2.2506692162513477</v>
       </c>
-      <c r="J16" s="90">
+      <c r="J16" s="90" t="n">
         <f>I16*(1+P16)</f>
-        <v>2.3181892912297042</v>
-      </c>
-      <c r="K16" s="90">
+        <v>2.318189291229704</v>
+      </c>
+      <c r="K16" s="90" t="n">
         <f>J16*(1+P16)</f>
-        <v>2.3877349684121292</v>
-      </c>
-      <c r="L16" s="90">
+        <v>2.387734968412129</v>
+      </c>
+      <c r="L16" s="90" t="n">
         <f>K16*(1+P16)</f>
         <v>2.459367015863398</v>
       </c>
-      <c r="M16" s="159">
+      <c r="M16" s="159" t="n">
         <f>L16*(1+P16)/(P17-P16)</f>
-        <v>50.662959814360072</v>
+        <v>473.69749915632883</v>
       </c>
       <c r="N16" s="160"/>
       <c r="O16" s="88" t="s">
         <v>122</v>
       </c>
-      <c r="P16" s="104">
-        <v>2.9999999329447746E-2</v>
+      <c r="P16" s="104" t="n">
+        <v>0.029999999329447746</v>
       </c>
     </row>
     <row r="17" spans="2:16" ht="15" thickBot="1">
       <c r="B17" s="89" t="s">
         <v>123</v>
       </c>
-      <c r="C17" s="90">
+      <c r="C17" s="90" t="n">
         <f>C16/(1+P17)</f>
-        <v>1.7452778175700867</v>
-      </c>
-      <c r="D17" s="90">
+        <v>1.8205480281187176</v>
+      </c>
+      <c r="D17" s="90" t="n">
         <f>D16/(1+P17)^2</f>
-        <v>1.6644779175248978</v>
-      </c>
-      <c r="E17" s="90">
+        <v>1.811144833312051</v>
+      </c>
+      <c r="E17" s="90" t="n">
         <f>E16/(1+P17)^3</f>
-        <v>1.5874187536430815</v>
-      </c>
-      <c r="F17" s="90">
+        <v>1.8017902063383657</v>
+      </c>
+      <c r="F17" s="90" t="n">
         <f>F16/(1+P17)^4</f>
-        <v>1.513927143692525</v>
-      </c>
-      <c r="G17" s="90">
+        <v>1.7924838963430907</v>
+      </c>
+      <c r="G17" s="90" t="n">
         <f>G16/(1+P17)^5</f>
-        <v>1.4438379231371605</v>
-      </c>
-      <c r="H17" s="90">
+        <v>1.7832256537673425</v>
+      </c>
+      <c r="H17" s="90" t="n">
         <f>H16/(1+P17)^6</f>
-        <v>1.3769935739473231</v>
-      </c>
-      <c r="I17" s="90">
+        <v>1.7740152303411896</v>
+      </c>
+      <c r="I17" s="90" t="n">
         <f>I16/(1+P17)^7</f>
-        <v>1.313243870594816</v>
-      </c>
-      <c r="J17" s="90">
+        <v>1.764852379077049</v>
+      </c>
+      <c r="J17" s="90" t="n">
         <f>J16/(1+P17)^8</f>
-        <v>1.2524455424370982</v>
-      </c>
-      <c r="K17" s="90">
+        <v>1.7557368542630065</v>
+      </c>
+      <c r="K17" s="90" t="n">
         <f>K16/(1+P17)^9</f>
-        <v>1.1944619517318344</v>
-      </c>
-      <c r="L17" s="90">
+        <v>1.7466684114562947</v>
+      </c>
+      <c r="L17" s="90" t="n">
         <f>L16/(1+P17)^10</f>
-        <v>1.1391627865581884</v>
-      </c>
-      <c r="M17" s="159">
+        <v>1.737646807476672</v>
+      </c>
+      <c r="M17" s="159" t="n">
         <f>M16/POWER((1+P17),10)</f>
-        <v>23.466753073107629</v>
+        <v>334.68731661821914</v>
       </c>
       <c r="N17" s="160"/>
       <c r="O17" s="91" t="s">
         <v>124</v>
       </c>
-      <c r="P17" s="105">
-        <v>0.08</v>
+      <c r="P17" s="105" t="n">
+        <f>WACC!$C$25</f>
+        <v>0.03534760624990182</v>
       </c>
     </row>
     <row r="18" spans="2:16">
@@ -21991,9 +22002,9 @@
       <c r="B19" s="94" t="s">
         <v>125</v>
       </c>
-      <c r="C19" s="95">
+      <c r="C19" s="95" t="n">
         <f>SUM(C17:N17)*(1-P18)</f>
-        <v>37.698000353944643</v>
+        <v>352.475428918713</v>
       </c>
       <c r="D19" s="96"/>
       <c r="E19" s="96"/>
@@ -22080,7 +22091,7 @@
       <c r="O24" s="88" t="s">
         <v>120</v>
       </c>
-      <c r="P24" s="106">
+      <c r="P24" s="106" t="n">
         <f>C2</f>
         <v>1.8300000429153442</v>
       </c>
@@ -22089,112 +22100,113 @@
       <c r="B25" s="89" t="s">
         <v>121</v>
       </c>
-      <c r="C25" s="90">
+      <c r="C25" s="90" t="n">
         <f>P24*(1+P25)</f>
         <v>1.8940500446900652</v>
       </c>
-      <c r="D25" s="90">
+      <c r="D25" s="90" t="n">
         <f>C25*(1+P25)</f>
-        <v>1.9603417965364549</v>
-      </c>
-      <c r="E25" s="90">
+        <v>1.960341796536455</v>
+      </c>
+      <c r="E25" s="90" t="n">
         <f>D25*(1+P25)</f>
-        <v>2.0289537597073362</v>
-      </c>
-      <c r="F25" s="90">
+        <v>2.028953759707336</v>
+      </c>
+      <c r="F25" s="90" t="n">
         <f>E25*(1+P25)</f>
-        <v>2.0999671415994312</v>
-      </c>
-      <c r="G25" s="90">
+        <v>2.099967141599431</v>
+      </c>
+      <c r="G25" s="90" t="n">
         <f>F25*(1+P25)</f>
         <v>2.1734659918683263</v>
       </c>
-      <c r="H25" s="90">
+      <c r="H25" s="90" t="n">
         <f>G25*(1+P25)</f>
         <v>2.2495373019075897</v>
       </c>
-      <c r="I25" s="90">
+      <c r="I25" s="90" t="n">
         <f>H25*(1+P25)</f>
         <v>2.328271107809559</v>
       </c>
-      <c r="J25" s="90">
+      <c r="J25" s="90" t="n">
         <f>I25*(1+P25)</f>
         <v>2.4097605969298304</v>
       </c>
-      <c r="K25" s="90">
+      <c r="K25" s="90" t="n">
         <f>J25*(1+P25)</f>
         <v>2.4941022181814523</v>
       </c>
-      <c r="L25" s="90">
+      <c r="L25" s="90" t="n">
         <f>K25*(1+P25)</f>
-        <v>2.5813957961894469</v>
-      </c>
-      <c r="M25" s="159">
+        <v>2.581395796189447</v>
+      </c>
+      <c r="M25" s="159" t="n">
         <f>L25*(1+P25)/(P26-P25)</f>
-        <v>59.372103517508179</v>
+        <v>7686.127034590284</v>
       </c>
       <c r="N25" s="160"/>
       <c r="O25" s="88" t="s">
         <v>122</v>
       </c>
-      <c r="P25" s="104">
-        <v>3.5000000149011612E-2</v>
+      <c r="P25" s="104" t="n">
+        <v>0.03500000014901161</v>
       </c>
     </row>
     <row r="26" spans="2:16" ht="15" thickBot="1">
       <c r="B26" s="89" t="s">
         <v>123</v>
       </c>
-      <c r="C26" s="90">
+      <c r="C26" s="90" t="n">
         <f>C25/(1+P26)</f>
-        <v>1.7537500413796898</v>
-      </c>
-      <c r="D26" s="90">
+        <v>1.829385641360054</v>
+      </c>
+      <c r="D26" s="90" t="n">
         <f>D25/(1+P26)^2</f>
-        <v>1.6806771232308426</v>
-      </c>
-      <c r="E26" s="90">
+        <v>1.8287714460830409</v>
+      </c>
+      <c r="E26" s="90" t="n">
         <f>E25/(1+P26)^3</f>
-        <v>1.6106489099947734</v>
-      </c>
-      <c r="F26" s="90">
+        <v>1.8281574570150634</v>
+      </c>
+      <c r="F26" s="90" t="n">
         <f>F25/(1+P26)^4</f>
-        <v>1.5435385389672187</v>
-      </c>
-      <c r="G26" s="90">
+        <v>1.8275436740868751</v>
+      </c>
+      <c r="G26" s="90" t="n">
         <f>G25/(1+P26)^5</f>
-        <v>1.4792244333898825</v>
-      </c>
-      <c r="H26" s="90">
+        <v>1.826930097229288</v>
+      </c>
+      <c r="H26" s="90" t="n">
         <f>H25/(1+P26)^6</f>
-        <v>1.4175900822027316</v>
-      </c>
-      <c r="I26" s="90">
+        <v>1.8263167263730944</v>
+      </c>
+      <c r="I26" s="90" t="n">
         <f>I25/(1+P26)^7</f>
-        <v>1.3585238289732058</v>
-      </c>
-      <c r="J26" s="90">
+        <v>1.8257035614491508</v>
+      </c>
+      <c r="J26" s="90" t="n">
         <f>J25/(1+P26)^8</f>
-        <v>1.3019186696200946</v>
-      </c>
-      <c r="K26" s="90">
+        <v>1.8250906023883022</v>
+      </c>
+      <c r="K26" s="90" t="n">
         <f>K25/(1+P26)^9</f>
-        <v>1.2476720585655523</v>
-      </c>
-      <c r="L26" s="90">
+        <v>1.8244778491214406</v>
+      </c>
+      <c r="L26" s="90" t="n">
         <f>L25/(1+P26)^10</f>
-        <v>1.1956857229641307</v>
-      </c>
-      <c r="M26" s="159">
+        <v>1.8238653015794692</v>
+      </c>
+      <c r="M26" s="159" t="n">
         <f>M25/POWER((1+P26),10)</f>
-        <v>27.500771723199566</v>
+        <v>5430.573809182841</v>
       </c>
       <c r="N26" s="160"/>
       <c r="O26" s="91" t="s">
         <v>124</v>
       </c>
-      <c r="P26" s="105">
-        <v>0.08</v>
+      <c r="P26" s="105" t="n">
+        <f>WACC!$C$25</f>
+        <v>0.03534760624990182</v>
       </c>
     </row>
     <row r="27" spans="2:16">
@@ -22205,9 +22217,9 @@
       <c r="B28" s="94" t="s">
         <v>125</v>
       </c>
-      <c r="C28" s="95">
+      <c r="C28" s="95" t="n">
         <f>SUM(C26:N26)*(1-P27)</f>
-        <v>42.090001132487686</v>
+        <v>5448.84005153953</v>
       </c>
       <c r="D28" s="96"/>
       <c r="E28" s="96"/>
@@ -22244,18 +22256,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B2:AJ83"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60:M60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="62.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="110" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.26953125" style="110" bestFit="1" customWidth="1"/>
-    <col min="5" max="11" width="11.26953125" style="110" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="11.6328125" style="110" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.7265625" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="62.26953125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="110" width="10.0"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="110" width="13.26953125"/>
+    <col min="5" max="11" bestFit="true" customWidth="true" style="110" width="11.26953125"/>
+    <col min="12" max="13" bestFit="true" customWidth="true" style="110" width="11.6328125"/>
+    <col min="19" max="19" customWidth="true" width="11.7265625"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="17.5" thickBot="1">
@@ -22298,37 +22310,37 @@
       <c r="B3" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="120">
+      <c r="C3" s="120" t="n">
         <v>66007.7890625</v>
       </c>
-      <c r="D3" s="110">
+      <c r="D3" s="110" t="n">
         <v>66145.3515625</v>
       </c>
-      <c r="E3" s="110">
+      <c r="E3" s="110" t="n">
         <v>64385.96875</v>
       </c>
-      <c r="F3" s="110">
+      <c r="F3" s="110" t="n">
         <v>59155.359375</v>
       </c>
-      <c r="G3" s="110">
+      <c r="G3" s="110" t="n">
         <v>58332.2109375</v>
       </c>
-      <c r="H3" s="110">
+      <c r="H3" s="110" t="n">
         <v>60714.05859375</v>
       </c>
-      <c r="I3" s="110">
+      <c r="I3" s="110" t="n">
         <v>60209.73828125</v>
       </c>
-      <c r="J3" s="110">
+      <c r="J3" s="110" t="n">
         <v>58217.6015625</v>
       </c>
-      <c r="K3" s="110">
+      <c r="K3" s="110" t="n">
         <v>57942.01953125</v>
       </c>
-      <c r="L3" s="110">
+      <c r="L3" s="110" t="n">
         <v>62046.5</v>
       </c>
-      <c r="M3" s="110">
+      <c r="M3" s="110" t="n">
         <v>63292.91015625</v>
       </c>
       <c r="Q3" s="107"/>
@@ -22338,45 +22350,45 @@
         <v>27</v>
       </c>
       <c r="C4" s="113"/>
-      <c r="D4" s="121">
+      <c r="D4" s="121" t="n">
         <f t="shared" ref="D4:M4" si="0">(D3-C3)/C3</f>
-        <v>2.0840343534268032E-3</v>
-      </c>
-      <c r="E4" s="121">
+        <v>0.0020840343534268032</v>
+      </c>
+      <c r="E4" s="121" t="n">
         <f t="shared" si="0"/>
-        <v>-2.6598737038045356E-2</v>
-      </c>
-      <c r="F4" s="121">
+        <v>-0.026598737038045356</v>
+      </c>
+      <c r="F4" s="121" t="n">
         <f t="shared" si="0"/>
-        <v>-8.123834239894076E-2</v>
-      </c>
-      <c r="G4" s="121">
+        <v>-0.08123834239894076</v>
+      </c>
+      <c r="G4" s="121" t="n">
         <f t="shared" si="0"/>
-        <v>-1.3915027246844446E-2</v>
-      </c>
-      <c r="H4" s="121">
+        <v>-0.013915027246844446</v>
+      </c>
+      <c r="H4" s="121" t="n">
         <f t="shared" si="0"/>
-        <v>4.0832459767417846E-2</v>
-      </c>
-      <c r="I4" s="121">
+        <v>0.040832459767417846</v>
+      </c>
+      <c r="I4" s="121" t="n">
         <f t="shared" si="0"/>
-        <v>-8.3064832788482951E-3</v>
-      </c>
-      <c r="J4" s="121">
+        <v>-0.008306483278848295</v>
+      </c>
+      <c r="J4" s="121" t="n">
         <f t="shared" si="0"/>
-        <v>-3.3086619799680715E-2</v>
-      </c>
-      <c r="K4" s="121">
+        <v>-0.033086619799680715</v>
+      </c>
+      <c r="K4" s="121" t="n">
         <f t="shared" si="0"/>
-        <v>-4.7336548372599405E-3</v>
-      </c>
-      <c r="L4" s="121">
+        <v>-0.0047336548372599405</v>
+      </c>
+      <c r="L4" s="121" t="n">
         <f t="shared" si="0"/>
-        <v>7.0837718497822139E-2</v>
-      </c>
-      <c r="M4" s="121">
+        <v>0.07083771849782214</v>
+      </c>
+      <c r="M4" s="121" t="n">
         <f t="shared" si="0"/>
-        <v>2.0088323374404679E-2</v>
+        <v>0.02008832337440468</v>
       </c>
       <c r="Q4" s="107"/>
     </row>
@@ -22399,37 +22411,37 @@
       <c r="B6" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="110">
+      <c r="C6" s="110" t="n">
         <v>6363.6201171875</v>
       </c>
-      <c r="D6" s="110">
+      <c r="D6" s="110" t="n">
         <v>6990.83984375</v>
       </c>
-      <c r="E6" s="110">
+      <c r="E6" s="110" t="n">
         <v>7331.080078125</v>
       </c>
-      <c r="F6" s="110">
+      <c r="F6" s="110" t="n">
         <v>5451.14990234375</v>
       </c>
-      <c r="G6" s="110">
+      <c r="G6" s="110" t="n">
         <v>5736.61376953125</v>
       </c>
-      <c r="H6" s="110">
+      <c r="H6" s="110" t="n">
         <v>6841.7060546875</v>
       </c>
-      <c r="I6" s="110">
+      <c r="I6" s="110" t="n">
         <v>11088.41015625</v>
       </c>
-      <c r="J6" s="110">
-        <v>6300</v>
-      </c>
-      <c r="K6" s="110">
+      <c r="J6" s="110" t="n">
+        <v>6300.0</v>
+      </c>
+      <c r="K6" s="110" t="n">
         <v>6375.17578125</v>
       </c>
-      <c r="L6" s="110">
+      <c r="L6" s="110" t="n">
         <v>7156.57177734375</v>
       </c>
-      <c r="M6" s="110">
+      <c r="M6" s="110" t="n">
         <v>8051.61083984375</v>
       </c>
       <c r="Q6" s="107"/>
@@ -22439,45 +22451,45 @@
         <v>27</v>
       </c>
       <c r="C7" s="113"/>
-      <c r="D7" s="121">
+      <c r="D7" s="121" t="n">
         <f t="shared" ref="D7" si="1">(D6-C6)/C6</f>
-        <v>9.8563351521949338E-2</v>
-      </c>
-      <c r="E7" s="121">
+        <v>0.09856335152194934</v>
+      </c>
+      <c r="E7" s="121" t="n">
         <f t="shared" ref="E7" si="2">(E6-D6)/D6</f>
-        <v>4.8669436287999641E-2</v>
-      </c>
-      <c r="F7" s="121">
+        <v>0.04866943628799964</v>
+      </c>
+      <c r="F7" s="121" t="n">
         <f t="shared" ref="F7" si="3">(F6-E6)/E6</f>
         <v>-0.2564329069860688</v>
       </c>
-      <c r="G7" s="121">
+      <c r="G7" s="121" t="n">
         <f t="shared" ref="G7" si="4">(G6-F6)/F6</f>
-        <v>5.2367642112495082E-2</v>
-      </c>
-      <c r="H7" s="121">
+        <v>0.05236764211249508</v>
+      </c>
+      <c r="H7" s="121" t="n">
         <f t="shared" ref="H7" si="5">(H6-G6)/G6</f>
-        <v>0.19263843262826971</v>
-      </c>
-      <c r="I7" s="121">
+        <v>0.1926384326282697</v>
+      </c>
+      <c r="I7" s="121" t="n">
         <f t="shared" ref="I7" si="6">(I6-H6)/H6</f>
-        <v>0.62070835367925947</v>
-      </c>
-      <c r="J7" s="121">
+        <v>0.6207083536792595</v>
+      </c>
+      <c r="J7" s="121" t="n">
         <f t="shared" ref="J7" si="7">(J6-I6)/I6</f>
-        <v>-0.43183919865653642</v>
-      </c>
-      <c r="K7" s="121">
+        <v>-0.4318391986565364</v>
+      </c>
+      <c r="K7" s="121" t="n">
         <f t="shared" ref="K7" si="8">(K6-J6)/J6</f>
-        <v>1.193266369047619E-2</v>
-      </c>
-      <c r="L7" s="121">
+        <v>0.01193266369047619</v>
+      </c>
+      <c r="L7" s="121" t="n">
         <f t="shared" ref="L7" si="9">(L6-K6)/K6</f>
         <v>0.12256854130860362</v>
       </c>
-      <c r="M7" s="121">
+      <c r="M7" s="121" t="n">
         <f t="shared" ref="M7" si="10">(M6-L6)/L6</f>
-        <v>0.12506533719587801</v>
+        <v>0.125065337195878</v>
       </c>
       <c r="Q7" s="107"/>
     </row>
@@ -22498,37 +22510,37 @@
       <c r="B9" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="110">
+      <c r="C9" s="110" t="n">
         <v>10530.580078125</v>
       </c>
-      <c r="D9" s="110">
+      <c r="D9" s="110" t="n">
         <v>11513.7001953125</v>
       </c>
-      <c r="E9" s="110">
+      <c r="E9" s="110" t="n">
         <v>12511.3603515625</v>
       </c>
-      <c r="F9" s="110">
-        <v>9800</v>
-      </c>
-      <c r="G9" s="110">
+      <c r="F9" s="110" t="n">
+        <v>59155.359375</v>
+      </c>
+      <c r="G9" s="110" t="n">
         <v>10252.650390625</v>
       </c>
-      <c r="H9" s="110">
+      <c r="H9" s="110" t="n">
         <v>11749.4599609375</v>
       </c>
-      <c r="I9" s="110">
+      <c r="I9" s="110" t="n">
         <v>16867.0390625</v>
       </c>
-      <c r="J9" s="110">
+      <c r="J9" s="110" t="n">
         <v>11972.7998046875</v>
       </c>
-      <c r="K9" s="110">
+      <c r="K9" s="110" t="n">
         <v>11789.6796875</v>
       </c>
-      <c r="L9" s="110">
+      <c r="L9" s="110" t="n">
         <v>12381.1396484375</v>
       </c>
-      <c r="M9" s="110">
+      <c r="M9" s="110" t="n">
         <v>13381.76953125</v>
       </c>
       <c r="Q9" s="107"/>
@@ -22538,45 +22550,45 @@
         <v>27</v>
       </c>
       <c r="C10" s="113"/>
-      <c r="D10" s="121">
+      <c r="D10" s="121" t="n">
         <f t="shared" ref="D10" si="11">(D9-C9)/C9</f>
-        <v>9.3358590874753344E-2</v>
-      </c>
-      <c r="E10" s="121">
+        <v>0.09335859087475334</v>
+      </c>
+      <c r="E10" s="121" t="n">
         <f t="shared" ref="E10" si="12">(E9-D9)/D9</f>
-        <v>8.6649829275229087E-2</v>
-      </c>
-      <c r="F10" s="121">
+        <v>0.08664982927522909</v>
+      </c>
+      <c r="F10" s="121" t="n">
         <f t="shared" ref="F10" si="13">(F9-E9)/E9</f>
-        <v>-0.21671187427863411</v>
-      </c>
-      <c r="G10" s="121">
+        <v>3.7281316909405695</v>
+      </c>
+      <c r="G10" s="121" t="n">
         <f t="shared" ref="G10" si="14">(G9-F9)/F9</f>
-        <v>4.6188815369897961E-2</v>
-      </c>
-      <c r="H10" s="121">
+        <v>-0.8266826455126239</v>
+      </c>
+      <c r="H10" s="121" t="n">
         <f t="shared" ref="H10" si="15">(H9-G9)/G9</f>
-        <v>0.14599245202793409</v>
-      </c>
-      <c r="I10" s="121">
+        <v>0.1459924520279341</v>
+      </c>
+      <c r="I10" s="121" t="n">
         <f t="shared" ref="I10" si="16">(I9-H9)/H9</f>
         <v>0.43555866555369444</v>
       </c>
-      <c r="J10" s="121">
+      <c r="J10" s="121" t="n">
         <f t="shared" ref="J10" si="17">(J9-I9)/I9</f>
         <v>-0.29016588149687284</v>
       </c>
-      <c r="K10" s="121">
+      <c r="K10" s="121" t="n">
         <f t="shared" ref="K10" si="18">(K9-J9)/J9</f>
-        <v>-1.5294677951251319E-2</v>
-      </c>
-      <c r="L10" s="121">
+        <v>-0.015294677951251319</v>
+      </c>
+      <c r="L10" s="121" t="n">
         <f t="shared" ref="L10" si="19">(L9-K9)/K9</f>
-        <v>5.0167602226258531E-2</v>
-      </c>
-      <c r="M10" s="121">
+        <v>0.05016760222625853</v>
+      </c>
+      <c r="M10" s="121" t="n">
         <f t="shared" ref="M10" si="20">(M9-L9)/L9</f>
-        <v>8.0818883497431479E-2</v>
+        <v>0.08081888349743148</v>
       </c>
       <c r="Q10" s="107"/>
     </row>
@@ -22589,37 +22601,37 @@
       <c r="B12" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="C12" s="110">
+      <c r="C12" s="110" t="n">
         <v>2915.89990234375</v>
       </c>
-      <c r="D12" s="110">
-        <v>2924</v>
-      </c>
-      <c r="E12" s="110">
+      <c r="D12" s="110" t="n">
+        <v>2924.0</v>
+      </c>
+      <c r="E12" s="110" t="n">
         <v>2882.60009765625</v>
       </c>
-      <c r="F12" s="110">
+      <c r="F12" s="110" t="n">
         <v>2854.0048828125</v>
       </c>
-      <c r="G12" s="110">
+      <c r="G12" s="110" t="n">
         <v>2853.89990234375</v>
       </c>
-      <c r="H12" s="110">
-        <v>2814</v>
-      </c>
-      <c r="I12" s="110">
+      <c r="H12" s="110" t="n">
+        <v>2814.0</v>
+      </c>
+      <c r="I12" s="110" t="n">
         <v>2694.800048828125</v>
       </c>
-      <c r="J12" s="110">
+      <c r="J12" s="110" t="n">
         <v>2626.699951171875</v>
       </c>
-      <c r="K12" s="110">
+      <c r="K12" s="110" t="n">
         <v>2629.800048828125</v>
       </c>
-      <c r="L12" s="110">
+      <c r="L12" s="110" t="n">
         <v>2609.60009765625</v>
       </c>
-      <c r="M12" s="110">
+      <c r="M12" s="110" t="n">
         <v>2559.800048828125</v>
       </c>
       <c r="Q12" s="107"/>
@@ -22629,45 +22641,45 @@
         <v>27</v>
       </c>
       <c r="C13" s="113"/>
-      <c r="D13" s="121">
+      <c r="D13" s="121" t="n">
         <f t="shared" ref="D13" si="21">(D12-C12)/C12</f>
-        <v>2.7779066248945243E-3</v>
-      </c>
-      <c r="E13" s="121">
+        <v>0.0027779066248945243</v>
+      </c>
+      <c r="E13" s="121" t="n">
         <f t="shared" ref="E13" si="22">(E12-D12)/D12</f>
-        <v>-1.4158653332335841E-2</v>
-      </c>
-      <c r="F13" s="121">
+        <v>-0.014158653332335841</v>
+      </c>
+      <c r="F13" s="121" t="n">
         <f t="shared" ref="F13" si="23">(F12-E12)/E12</f>
-        <v>-9.9199382068292635E-3</v>
-      </c>
-      <c r="G13" s="121">
+        <v>-0.009919938206829263</v>
+      </c>
+      <c r="G13" s="121" t="n">
         <f t="shared" ref="G13" si="24">(G12-F12)/F12</f>
-        <v>-3.6783563119396711E-5</v>
-      </c>
-      <c r="H13" s="121">
+        <v>-3.678356311939671E-5</v>
+      </c>
+      <c r="H13" s="121" t="n">
         <f t="shared" ref="H13" si="25">(H12-G12)/G12</f>
-        <v>-1.3980834545382065E-2</v>
-      </c>
-      <c r="I13" s="121">
+        <v>-0.013980834545382065</v>
+      </c>
+      <c r="I13" s="121" t="n">
         <f t="shared" ref="I13" si="26">(I12-H12)/H12</f>
-        <v>-4.2359613067475127E-2</v>
-      </c>
-      <c r="J13" s="121">
+        <v>-0.04235961306747513</v>
+      </c>
+      <c r="J13" s="121" t="n">
         <f t="shared" ref="J13" si="27">(J12-I12)/I12</f>
-        <v>-2.5270927869347575E-2</v>
-      </c>
-      <c r="K13" s="121">
+        <v>-0.025270927869347575</v>
+      </c>
+      <c r="K13" s="121" t="n">
         <f t="shared" ref="K13" si="28">(K12-J12)/J12</f>
-        <v>1.1802252689222907E-3</v>
-      </c>
-      <c r="L13" s="121">
+        <v>0.0011802252689222907</v>
+      </c>
+      <c r="L13" s="121" t="n">
         <f t="shared" ref="L13" si="29">(L12-K12)/K12</f>
-        <v>-7.6811737762634601E-3</v>
-      </c>
-      <c r="M13" s="121">
+        <v>-0.00768117377626346</v>
+      </c>
+      <c r="M13" s="121" t="n">
         <f t="shared" ref="M13" si="30">(M12-L12)/L12</f>
-        <v>-1.9083402423555901E-2</v>
+        <v>-0.0190834024235559</v>
       </c>
       <c r="Q13" s="107"/>
     </row>
@@ -22680,37 +22692,37 @@
       <c r="B15" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="C15" s="110">
+      <c r="C15" s="110" t="n">
         <v>1.9800000190734863</v>
       </c>
-      <c r="D15" s="110">
-        <v>2.2400000095367432</v>
-      </c>
-      <c r="E15" s="110">
+      <c r="D15" s="110" t="n">
+        <v>2.240000009536743</v>
+      </c>
+      <c r="E15" s="110" t="n">
         <v>2.0799999237060547</v>
       </c>
-      <c r="F15" s="110">
-        <v>1.9099999666213989</v>
-      </c>
-      <c r="G15" s="110">
+      <c r="F15" s="110" t="n">
+        <v>1.909999966621399</v>
+      </c>
+      <c r="G15" s="110" t="n">
         <v>2.0139999389648438</v>
       </c>
-      <c r="H15" s="110">
+      <c r="H15" s="110" t="n">
         <v>2.4300999641418457</v>
       </c>
-      <c r="I15" s="110">
-        <v>4.1335000991821289</v>
-      </c>
-      <c r="J15" s="110">
+      <c r="I15" s="110" t="n">
+        <v>4.133500099182129</v>
+      </c>
+      <c r="J15" s="110" t="n">
         <v>2.3968000411987305</v>
       </c>
-      <c r="K15" s="110">
+      <c r="K15" s="110" t="n">
         <v>2.4217000007629395</v>
       </c>
-      <c r="L15" s="110">
-        <v>2.7448000907897949</v>
-      </c>
-      <c r="M15" s="110">
+      <c r="L15" s="110" t="n">
+        <v>2.744800090789795</v>
+      </c>
+      <c r="M15" s="110" t="n">
         <v>3.1500000953674316</v>
       </c>
       <c r="Q15" s="107"/>
@@ -22719,43 +22731,43 @@
       <c r="B16" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="121">
+      <c r="D16" s="121" t="n">
         <f t="shared" ref="D16" si="31">(D15-C15)/C15</f>
         <v>0.13131312523164515</v>
       </c>
-      <c r="E16" s="121">
+      <c r="E16" s="121" t="n">
         <f t="shared" ref="E16" si="32">(E15-D15)/D15</f>
-        <v>-7.142860944173747E-2</v>
-      </c>
-      <c r="F16" s="121">
+        <v>-0.07142860944173747</v>
+      </c>
+      <c r="F16" s="121" t="n">
         <f t="shared" ref="F16" si="33">(F15-E15)/E15</f>
-        <v>-8.1730751596258297E-2</v>
-      </c>
-      <c r="G16" s="121">
+        <v>-0.08173075159625859</v>
+      </c>
+      <c r="G16" s="121" t="n">
         <f t="shared" ref="G16" si="34">(G15-F15)/F15</f>
-        <v>5.4450248251789499E-2</v>
-      </c>
-      <c r="H16" s="121">
+        <v>0.05445024825178956</v>
+      </c>
+      <c r="H16" s="121" t="n">
         <f t="shared" ref="H16" si="35">(H15-G15)/G15</f>
         <v>0.20660379234711893</v>
       </c>
-      <c r="I16" s="121">
+      <c r="I16" s="121" t="n">
         <f t="shared" ref="I16" si="36">(I15-H15)/H15</f>
-        <v>0.70095887419257163</v>
-      </c>
-      <c r="J16" s="121">
+        <v>0.7009588741925716</v>
+      </c>
+      <c r="J16" s="121" t="n">
         <f t="shared" ref="J16" si="37">(J15-I15)/I15</f>
-        <v>-0.42015241715538609</v>
-      </c>
-      <c r="K16" s="121">
+        <v>-0.4201524171553861</v>
+      </c>
+      <c r="K16" s="121" t="n">
         <f t="shared" ref="K16" si="38">(K15-J15)/J15</f>
-        <v>1.0388834753088369E-2</v>
-      </c>
-      <c r="L16" s="121">
+        <v>0.010388834753088369</v>
+      </c>
+      <c r="L16" s="121" t="n">
         <f t="shared" ref="L16" si="39">(L15-K15)/K15</f>
         <v>0.13341870996616614</v>
       </c>
-      <c r="M16" s="121">
+      <c r="M16" s="121" t="n">
         <f t="shared" ref="M16" si="40">(M15-L15)/L15</f>
         <v>0.14762459602697134</v>
       </c>
@@ -22805,38 +22817,38 @@
       <c r="B20" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="110">
-        <v>3856</v>
-      </c>
-      <c r="D20" s="128">
-        <v>3856</v>
-      </c>
-      <c r="E20" s="128">
-        <v>3100</v>
-      </c>
-      <c r="F20" s="128">
-        <v>4796</v>
-      </c>
-      <c r="G20" s="128">
-        <v>4802</v>
-      </c>
-      <c r="H20" s="128">
-        <v>5355</v>
-      </c>
-      <c r="I20" s="128">
-        <v>4962</v>
-      </c>
-      <c r="J20" s="128">
-        <v>6680</v>
-      </c>
-      <c r="K20" s="128">
-        <v>8126</v>
-      </c>
-      <c r="L20" s="128">
-        <v>6733</v>
-      </c>
-      <c r="M20" s="128">
-        <v>5655</v>
+      <c r="C20" s="110" t="n">
+        <v>3856.0</v>
+      </c>
+      <c r="D20" s="128" t="n">
+        <v>3856.0</v>
+      </c>
+      <c r="E20" s="128" t="n">
+        <v>3100.0</v>
+      </c>
+      <c r="F20" s="128" t="n">
+        <v>4796.0</v>
+      </c>
+      <c r="G20" s="128" t="n">
+        <v>4802.0</v>
+      </c>
+      <c r="H20" s="128" t="n">
+        <v>5355.0</v>
+      </c>
+      <c r="I20" s="128" t="n">
+        <v>4962.0</v>
+      </c>
+      <c r="J20" s="128" t="n">
+        <v>6680.0</v>
+      </c>
+      <c r="K20" s="128" t="n">
+        <v>8126.0</v>
+      </c>
+      <c r="L20" s="128" t="n">
+        <v>6733.0</v>
+      </c>
+      <c r="M20" s="128" t="n">
+        <v>5655.0</v>
       </c>
       <c r="O20" s="107"/>
       <c r="P20" s="107"/>
@@ -22865,40 +22877,41 @@
       <c r="B21" s="31" t="s">
         <v>27</v>
       </c>
+      <c r="C21" s="110"/>
       <c r="D21" s="129"/>
-      <c r="E21" s="131">
+      <c r="E21" s="131" t="n">
         <f t="shared" ref="E21" si="41">(E20-D20)/D20</f>
         <v>-0.19605809128630705</v>
       </c>
-      <c r="F21" s="131">
+      <c r="F21" s="131" t="n">
         <f t="shared" ref="F21" si="42">(F20-E20)/E20</f>
-        <v>0.54709677419354841</v>
-      </c>
-      <c r="G21" s="131">
+        <v>0.5470967741935484</v>
+      </c>
+      <c r="G21" s="131" t="n">
         <f t="shared" ref="G21" si="43">(G20-F20)/F20</f>
-        <v>1.2510425354462051E-3</v>
-      </c>
-      <c r="H21" s="131">
+        <v>0.0012510425354462051</v>
+      </c>
+      <c r="H21" s="131" t="n">
         <f t="shared" ref="H21" si="44">(H20-G20)/G20</f>
-        <v>0.11516034985422741</v>
-      </c>
-      <c r="I21" s="131">
+        <v>0.1151603498542274</v>
+      </c>
+      <c r="I21" s="131" t="n">
         <f t="shared" ref="I21" si="45">(I20-H20)/H20</f>
-        <v>-7.3389355742296922E-2</v>
-      </c>
-      <c r="J21" s="131">
+        <v>-0.07338935574229692</v>
+      </c>
+      <c r="J21" s="131" t="n">
         <f t="shared" ref="J21" si="46">(J20-I20)/I20</f>
         <v>0.34623135832325674</v>
       </c>
-      <c r="K21" s="131">
+      <c r="K21" s="131" t="n">
         <f t="shared" ref="K21" si="47">(K20-J20)/J20</f>
         <v>0.21646706586826348</v>
       </c>
-      <c r="L21" s="131">
+      <c r="L21" s="131" t="n">
         <f t="shared" ref="L21" si="48">(L20-K20)/K20</f>
         <v>-0.17142505537779965</v>
       </c>
-      <c r="M21" s="131">
+      <c r="M21" s="131" t="n">
         <f t="shared" ref="M21" si="49">(M20-L20)/L20</f>
         <v>-0.16010693598693004</v>
       </c>
@@ -22963,38 +22976,38 @@
       <c r="B23" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="113">
-        <v>3471</v>
-      </c>
-      <c r="D23" s="130">
-        <v>3976</v>
-      </c>
-      <c r="E23" s="130">
-        <v>4239</v>
-      </c>
-      <c r="F23" s="130">
-        <v>4600</v>
-      </c>
-      <c r="G23" s="130">
-        <v>3994</v>
-      </c>
-      <c r="H23" s="130">
-        <v>4426</v>
-      </c>
-      <c r="I23" s="130">
-        <v>4802</v>
-      </c>
-      <c r="J23" s="130">
-        <v>4714</v>
-      </c>
-      <c r="K23" s="130">
-        <v>4888</v>
-      </c>
-      <c r="L23" s="130">
-        <v>5304</v>
-      </c>
-      <c r="M23" s="130">
-        <v>4561</v>
+      <c r="C23" s="113" t="n">
+        <v>3471.0</v>
+      </c>
+      <c r="D23" s="130" t="n">
+        <v>3976.0</v>
+      </c>
+      <c r="E23" s="130" t="n">
+        <v>4239.0</v>
+      </c>
+      <c r="F23" s="130" t="n">
+        <v>4600.0</v>
+      </c>
+      <c r="G23" s="130" t="n">
+        <v>3994.0</v>
+      </c>
+      <c r="H23" s="130" t="n">
+        <v>4426.0</v>
+      </c>
+      <c r="I23" s="130" t="n">
+        <v>4802.0</v>
+      </c>
+      <c r="J23" s="130" t="n">
+        <v>4714.0</v>
+      </c>
+      <c r="K23" s="130" t="n">
+        <v>4888.0</v>
+      </c>
+      <c r="L23" s="130" t="n">
+        <v>5304.0</v>
+      </c>
+      <c r="M23" s="130" t="n">
+        <v>4561.0</v>
       </c>
       <c r="O23" s="107"/>
       <c r="P23" s="107"/>
@@ -23020,43 +23033,43 @@
       <c r="AJ23" s="107"/>
     </row>
     <row r="24" spans="2:36">
-      <c r="D24" s="121">
+      <c r="D24" s="121" t="n">
         <f t="shared" ref="D24" si="50">(D23-C23)/C23</f>
         <v>0.14549121290694325</v>
       </c>
-      <c r="E24" s="121">
+      <c r="E24" s="121" t="n">
         <f t="shared" ref="E24" si="51">(E23-D23)/D23</f>
-        <v>6.6146881287726361E-2</v>
-      </c>
-      <c r="F24" s="121">
+        <v>0.06614688128772636</v>
+      </c>
+      <c r="F24" s="121" t="n">
         <f t="shared" ref="F24" si="52">(F23-E23)/E23</f>
-        <v>8.516159471573484E-2</v>
-      </c>
-      <c r="G24" s="121">
+        <v>0.08516159471573484</v>
+      </c>
+      <c r="G24" s="121" t="n">
         <f t="shared" ref="G24" si="53">(G23-F23)/F23</f>
-        <v>-0.13173913043478261</v>
-      </c>
-      <c r="H24" s="121">
+        <v>-0.1317391304347826</v>
+      </c>
+      <c r="H24" s="121" t="n">
         <f t="shared" ref="H24" si="54">(H23-G23)/G23</f>
         <v>0.10816224336504757</v>
       </c>
-      <c r="I24" s="121">
+      <c r="I24" s="121" t="n">
         <f t="shared" ref="I24" si="55">(I23-H23)/H23</f>
-        <v>8.495255309534569E-2</v>
-      </c>
-      <c r="J24" s="121">
+        <v>0.08495255309534569</v>
+      </c>
+      <c r="J24" s="121" t="n">
         <f t="shared" ref="J24" si="56">(J23-I23)/I23</f>
-        <v>-1.8325697625989172E-2</v>
-      </c>
-      <c r="K24" s="121">
+        <v>-0.018325697625989172</v>
+      </c>
+      <c r="K24" s="121" t="n">
         <f t="shared" ref="K24" si="57">(K23-J23)/J23</f>
-        <v>3.6911327959270261E-2</v>
-      </c>
-      <c r="L24" s="121">
+        <v>0.03691132795927026</v>
+      </c>
+      <c r="L24" s="121" t="n">
         <f t="shared" ref="L24" si="58">(L23-K23)/K23</f>
-        <v>8.5106382978723402E-2</v>
-      </c>
-      <c r="M24" s="121">
+        <v>0.0851063829787234</v>
+      </c>
+      <c r="M24" s="121" t="n">
         <f t="shared" ref="M24" si="59">(M23-L23)/L23</f>
         <v>-0.14008295625942685</v>
       </c>
@@ -23195,37 +23208,37 @@
       <c r="B28" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="110">
+      <c r="C28" s="110" t="n">
         <v>15622.25</v>
       </c>
-      <c r="D28" s="110">
+      <c r="D28" s="110" t="n">
         <v>16101.650390625</v>
       </c>
-      <c r="E28" s="110">
+      <c r="E28" s="110" t="n">
         <v>16412.859375</v>
       </c>
-      <c r="F28" s="110">
+      <c r="F28" s="110" t="n">
         <v>14087.0400390625</v>
       </c>
-      <c r="G28" s="110">
+      <c r="G28" s="110" t="n">
         <v>15364.0302734375</v>
       </c>
-      <c r="H28" s="110">
+      <c r="H28" s="110" t="n">
         <v>19195.880859375</v>
       </c>
-      <c r="I28" s="110">
+      <c r="I28" s="110" t="n">
         <v>18283.060546875</v>
       </c>
-      <c r="J28" s="110">
+      <c r="J28" s="110" t="n">
         <v>18401.599609375</v>
       </c>
-      <c r="K28" s="110">
+      <c r="K28" s="110" t="n">
         <v>18456.140625</v>
       </c>
-      <c r="L28" s="110">
+      <c r="L28" s="110" t="n">
         <v>20587.119140625</v>
       </c>
-      <c r="M28" s="110">
+      <c r="M28" s="110" t="n">
         <v>20183.810546875</v>
       </c>
       <c r="O28" s="107"/>
@@ -23256,45 +23269,45 @@
         <v>27</v>
       </c>
       <c r="C29" s="113"/>
-      <c r="D29" s="121">
+      <c r="D29" s="121" t="n">
         <f t="shared" ref="D29" si="60">(D28-C28)/C28</f>
-        <v>3.0687025916561316E-2</v>
-      </c>
-      <c r="E29" s="121">
+        <v>0.030687025916561316</v>
+      </c>
+      <c r="E29" s="121" t="n">
         <f t="shared" ref="E29" si="61">(E28-D28)/D28</f>
-        <v>1.9327769317125272E-2</v>
-      </c>
-      <c r="F29" s="121">
+        <v>0.019327769317125272</v>
+      </c>
+      <c r="F29" s="121" t="n">
         <f t="shared" ref="F29" si="62">(F28-E28)/E28</f>
         <v>-0.14170713845755473</v>
       </c>
-      <c r="G29" s="121">
+      <c r="G29" s="121" t="n">
         <f t="shared" ref="G29" si="63">(G28-F28)/F28</f>
-        <v>9.0650003892512848E-2</v>
-      </c>
-      <c r="H29" s="121">
+        <v>0.09065000389251285</v>
+      </c>
+      <c r="H29" s="121" t="n">
         <f t="shared" ref="H29" si="64">(H28-G28)/G28</f>
         <v>0.24940399867359633</v>
       </c>
-      <c r="I29" s="121">
+      <c r="I29" s="121" t="n">
         <f t="shared" ref="I29" si="65">(I28-H28)/H28</f>
-        <v>-4.7552926546436204E-2</v>
-      </c>
-      <c r="J29" s="121">
+        <v>-0.047552926546436204</v>
+      </c>
+      <c r="J29" s="121" t="n">
         <f t="shared" ref="J29" si="66">(J28-I28)/I28</f>
-        <v>6.4835459137754202E-3</v>
-      </c>
-      <c r="K29" s="121">
+        <v>0.00648354591377542</v>
+      </c>
+      <c r="K29" s="121" t="n">
         <f t="shared" ref="K29" si="67">(K28-J28)/J28</f>
-        <v>2.9639279618502933E-3</v>
-      </c>
-      <c r="L29" s="121">
+        <v>0.0029639279618502933</v>
+      </c>
+      <c r="L29" s="121" t="n">
         <f t="shared" ref="L29" si="68">(L28-K28)/K28</f>
         <v>0.11546176196438686</v>
       </c>
-      <c r="M29" s="121">
+      <c r="M29" s="121" t="n">
         <f t="shared" ref="M29" si="69">(M28-L28)/L28</f>
-        <v>-1.959033660781331E-2</v>
+        <v>-0.01959033660781331</v>
       </c>
       <c r="O29" s="107"/>
       <c r="P29" s="107"/>
@@ -23347,37 +23360,37 @@
       <c r="B31" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C31" s="110">
+      <c r="C31" s="110" t="n">
         <v>43751.8203125</v>
       </c>
-      <c r="D31" s="110">
+      <c r="D31" s="110" t="n">
         <v>44353.23828125</v>
       </c>
-      <c r="E31" s="110">
+      <c r="E31" s="110" t="n">
         <v>47429.37890625</v>
       </c>
-      <c r="F31" s="110">
+      <c r="F31" s="110" t="n">
         <v>43986.75</v>
       </c>
-      <c r="G31" s="110">
+      <c r="G31" s="110" t="n">
         <v>47080.30078125</v>
       </c>
-      <c r="H31" s="110">
+      <c r="H31" s="110" t="n">
         <v>48944.25</v>
       </c>
-      <c r="I31" s="110">
+      <c r="I31" s="110" t="n">
         <v>51934.48046875</v>
       </c>
-      <c r="J31" s="110">
+      <c r="J31" s="110" t="n">
         <v>54181.12109375</v>
       </c>
-      <c r="K31" s="110">
+      <c r="K31" s="110" t="n">
         <v>58830.73046875</v>
       </c>
-      <c r="L31" s="110">
+      <c r="L31" s="110" t="n">
         <v>68257.7734375</v>
       </c>
-      <c r="M31" s="110">
+      <c r="M31" s="110" t="n">
         <v>61808.390625</v>
       </c>
       <c r="O31" s="107"/>
@@ -23408,45 +23421,45 @@
         <v>27</v>
       </c>
       <c r="C32" s="113"/>
-      <c r="D32" s="121">
+      <c r="D32" s="121" t="n">
         <f t="shared" ref="D32" si="70">(D31-C31)/C31</f>
-        <v>1.3746124491605975E-2</v>
-      </c>
-      <c r="E32" s="121">
+        <v>0.013746124491605975</v>
+      </c>
+      <c r="E32" s="121" t="n">
         <f t="shared" ref="E32" si="71">(E31-D31)/D31</f>
-        <v>6.935549114799168E-2</v>
-      </c>
-      <c r="F32" s="121">
+        <v>0.06935549114799168</v>
+      </c>
+      <c r="F32" s="121" t="n">
         <f t="shared" ref="F32" si="72">(F31-E31)/E31</f>
-        <v>-7.2584313470660855E-2</v>
-      </c>
-      <c r="G32" s="121">
+        <v>-0.07258431347066086</v>
+      </c>
+      <c r="G32" s="121" t="n">
         <f t="shared" ref="G32" si="73">(G31-F31)/F31</f>
-        <v>7.0329150965915868E-2</v>
-      </c>
-      <c r="H32" s="121">
+        <v>0.07032915096591587</v>
+      </c>
+      <c r="H32" s="121" t="n">
         <f t="shared" ref="H32" si="74">(H31-G31)/G31</f>
-        <v>3.9590851966101466E-2</v>
-      </c>
-      <c r="I32" s="121">
+        <v>0.039590851966101466</v>
+      </c>
+      <c r="I32" s="121" t="n">
         <f t="shared" ref="I32" si="75">(I31-H31)/H31</f>
-        <v>6.1094622325400839E-2</v>
-      </c>
-      <c r="J32" s="121">
+        <v>0.06109462232540084</v>
+      </c>
+      <c r="J32" s="121" t="n">
         <f t="shared" ref="J32" si="76">(J31-I31)/I31</f>
-        <v>4.3259133522127902E-2</v>
-      </c>
-      <c r="K32" s="121">
+        <v>0.0432591335221279</v>
+      </c>
+      <c r="K32" s="121" t="n">
         <f t="shared" ref="K32" si="77">(K31-J31)/J31</f>
-        <v>8.5816042214311994E-2</v>
-      </c>
-      <c r="L32" s="121">
+        <v>0.085816042214312</v>
+      </c>
+      <c r="L32" s="121" t="n">
         <f t="shared" ref="L32" si="78">(L31-K31)/K31</f>
         <v>0.16024011419945744</v>
       </c>
-      <c r="M32" s="121">
+      <c r="M32" s="121" t="n">
         <f t="shared" ref="M32" si="79">(M31-L31)/L31</f>
-        <v>-9.4485689873921183E-2</v>
+        <v>-0.09448568987392118</v>
       </c>
       <c r="O32" s="107"/>
       <c r="P32" s="107"/>
@@ -23500,43 +23513,43 @@
         <v>50</v>
       </c>
       <c r="C34" s="111"/>
-      <c r="D34" s="111">
+      <c r="D34" s="111" t="n">
         <f>D28+D31</f>
         <v>60454.888671875</v>
       </c>
-      <c r="E34" s="111">
+      <c r="E34" s="111" t="n">
         <f t="shared" ref="E34:M34" si="80">E28+E31</f>
         <v>63842.23828125</v>
       </c>
-      <c r="F34" s="111">
+      <c r="F34" s="111" t="n">
         <f t="shared" si="80"/>
         <v>58073.7900390625</v>
       </c>
-      <c r="G34" s="111">
+      <c r="G34" s="111" t="n">
         <f t="shared" si="80"/>
         <v>62444.3310546875</v>
       </c>
-      <c r="H34" s="111">
+      <c r="H34" s="111" t="n">
         <f t="shared" si="80"/>
         <v>68140.130859375</v>
       </c>
-      <c r="I34" s="111">
+      <c r="I34" s="111" t="n">
         <f t="shared" si="80"/>
         <v>70217.541015625</v>
       </c>
-      <c r="J34" s="111">
+      <c r="J34" s="111" t="n">
         <f t="shared" si="80"/>
         <v>72582.720703125</v>
       </c>
-      <c r="K34" s="111">
+      <c r="K34" s="111" t="n">
         <f t="shared" si="80"/>
         <v>77286.87109375</v>
       </c>
-      <c r="L34" s="111">
+      <c r="L34" s="111" t="n">
         <f t="shared" si="80"/>
         <v>88844.892578125</v>
       </c>
-      <c r="M34" s="111">
+      <c r="M34" s="111" t="n">
         <f t="shared" si="80"/>
         <v>81992.201171875</v>
       </c>
@@ -23591,37 +23604,37 @@
       <c r="B36" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="113">
+      <c r="C36" s="113" t="n">
         <v>20339.669921875</v>
       </c>
-      <c r="D36" s="118">
+      <c r="D36" s="118" t="n">
         <v>23088.509765625</v>
       </c>
-      <c r="E36" s="110">
+      <c r="E36" s="110" t="n">
         <v>26110.109375</v>
       </c>
-      <c r="F36" s="110">
+      <c r="F36" s="110" t="n">
         <v>22229.900390625</v>
       </c>
-      <c r="G36" s="110">
+      <c r="G36" s="110" t="n">
         <v>22747.26953125</v>
       </c>
-      <c r="H36" s="110">
+      <c r="H36" s="110" t="n">
         <v>26196.9609375</v>
       </c>
-      <c r="I36" s="110">
+      <c r="I36" s="110" t="n">
         <v>23350.73046875</v>
       </c>
-      <c r="J36" s="110">
+      <c r="J36" s="110" t="n">
         <v>23495.359375</v>
       </c>
-      <c r="K36" s="110">
+      <c r="K36" s="110" t="n">
         <v>23522.240234375</v>
       </c>
-      <c r="L36" s="110">
+      <c r="L36" s="110" t="n">
         <v>29314.849609375</v>
       </c>
-      <c r="M36" s="110">
+      <c r="M36" s="110" t="n">
         <v>26789.890625</v>
       </c>
       <c r="O36" s="107"/>
@@ -23652,45 +23665,45 @@
         <v>27</v>
       </c>
       <c r="C37" s="113"/>
-      <c r="D37" s="121">
+      <c r="D37" s="121" t="n">
         <f t="shared" ref="D37" si="81">(D36-C36)/C36</f>
-        <v>0.13514672825607979</v>
-      </c>
-      <c r="E37" s="121">
+        <v>0.1351467282560798</v>
+      </c>
+      <c r="E37" s="121" t="n">
         <f t="shared" ref="E37" si="82">(E36-D36)/D36</f>
         <v>0.13087027443727295</v>
       </c>
-      <c r="F37" s="121">
+      <c r="F37" s="121" t="n">
         <f t="shared" ref="F37" si="83">(F36-E36)/E36</f>
         <v>-0.14860944964444447</v>
       </c>
-      <c r="G37" s="121">
+      <c r="G37" s="121" t="n">
         <f t="shared" ref="G37" si="84">(G36-F36)/F36</f>
-        <v>2.3273569900618615E-2</v>
-      </c>
-      <c r="H37" s="121">
+        <v>0.023273569900618615</v>
+      </c>
+      <c r="H37" s="121" t="n">
         <f t="shared" ref="H37" si="85">(H36-G36)/G36</f>
-        <v>0.15165298857125881</v>
-      </c>
-      <c r="I37" s="121">
+        <v>0.1516529885712588</v>
+      </c>
+      <c r="I37" s="121" t="n">
         <f t="shared" ref="I37" si="86">(I36-H36)/H36</f>
         <v>-0.10864735323843325</v>
       </c>
-      <c r="J37" s="121">
+      <c r="J37" s="121" t="n">
         <f t="shared" ref="J37" si="87">(J36-I36)/I36</f>
-        <v>6.1937636787660717E-3</v>
-      </c>
-      <c r="K37" s="121">
+        <v>0.006193763678766072</v>
+      </c>
+      <c r="K37" s="121" t="n">
         <f t="shared" ref="K37" si="88">(K36-J36)/J36</f>
-        <v>1.1440922841811183E-3</v>
-      </c>
-      <c r="L37" s="121">
+        <v>0.0011440922841811183</v>
+      </c>
+      <c r="L37" s="121" t="n">
         <f t="shared" ref="L37" si="89">(L36-K36)/K36</f>
         <v>0.24626095632399755</v>
       </c>
-      <c r="M37" s="121">
+      <c r="M37" s="121" t="n">
         <f t="shared" ref="M37" si="90">(M36-L36)/L36</f>
-        <v>-8.613242155496198E-2</v>
+        <v>-0.08613242155496198</v>
       </c>
       <c r="O37" s="107"/>
       <c r="P37" s="107"/>
@@ -23743,37 +23756,37 @@
       <c r="B39" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C39" s="113">
+      <c r="C39" s="113" t="n">
         <v>18822.060546875</v>
       </c>
-      <c r="D39" s="110">
+      <c r="D39" s="110" t="n">
         <v>17687.619140625</v>
       </c>
-      <c r="E39" s="110">
+      <c r="E39" s="110" t="n">
         <v>18772.349609375</v>
       </c>
-      <c r="F39" s="110">
+      <c r="F39" s="110" t="n">
         <v>17985.80078125</v>
       </c>
-      <c r="G39" s="110">
+      <c r="G39" s="110" t="n">
         <v>20906.990234375</v>
       </c>
-      <c r="H39" s="110">
+      <c r="H39" s="110" t="n">
         <v>25681.55078125</v>
       </c>
-      <c r="I39" s="110">
+      <c r="I39" s="110" t="n">
         <v>32349.94921875</v>
       </c>
-      <c r="J39" s="110">
+      <c r="J39" s="110" t="n">
         <v>33535.0390625</v>
       </c>
-      <c r="K39" s="110">
+      <c r="K39" s="110" t="n">
         <v>33597.328125</v>
       </c>
-      <c r="L39" s="110">
+      <c r="L39" s="110" t="n">
         <v>36168.55078125</v>
       </c>
-      <c r="M39" s="110">
+      <c r="M39" s="110" t="n">
         <v>32338.150390625</v>
       </c>
       <c r="O39" s="107"/>
@@ -23804,43 +23817,43 @@
         <v>27</v>
       </c>
       <c r="C40" s="113"/>
-      <c r="D40" s="121">
+      <c r="D40" s="121" t="n">
         <f t="shared" ref="D40" si="91">(D39-C39)/C39</f>
-        <v>-6.0271902931390245E-2</v>
-      </c>
-      <c r="E40" s="121">
+        <v>-0.060271902931390245</v>
+      </c>
+      <c r="E40" s="121" t="n">
         <f t="shared" ref="E40" si="92">(E39-D39)/D39</f>
-        <v>6.1327104576702832E-2</v>
-      </c>
-      <c r="F40" s="121">
+        <v>0.06132710457670283</v>
+      </c>
+      <c r="F40" s="121" t="n">
         <f t="shared" ref="F40" si="93">(F39-E39)/E39</f>
-        <v>-4.1899327707608527E-2</v>
-      </c>
-      <c r="G40" s="121">
+        <v>-0.04189932770760853</v>
+      </c>
+      <c r="G40" s="121" t="n">
         <f t="shared" ref="G40" si="94">(G39-F39)/F39</f>
         <v>0.1624164244146587</v>
       </c>
-      <c r="H40" s="121">
+      <c r="H40" s="121" t="n">
         <f t="shared" ref="H40" si="95">(H39-G39)/G39</f>
         <v>0.22837149170446974</v>
       </c>
-      <c r="I40" s="121">
+      <c r="I40" s="121" t="n">
         <f t="shared" ref="I40" si="96">(I39-H39)/H39</f>
-        <v>0.25965715599887262</v>
-      </c>
-      <c r="J40" s="121">
+        <v>0.2596571559988726</v>
+      </c>
+      <c r="J40" s="121" t="n">
         <f t="shared" ref="J40" si="97">(J39-I39)/I39</f>
-        <v>3.6633437528338468E-2</v>
-      </c>
-      <c r="K40" s="121">
+        <v>0.03663343752833847</v>
+      </c>
+      <c r="K40" s="121" t="n">
         <f t="shared" ref="K40" si="98">(K39-J39)/J39</f>
-        <v>1.8574322333100757E-3</v>
-      </c>
-      <c r="L40" s="121">
+        <v>0.0018574322333100757</v>
+      </c>
+      <c r="L40" s="121" t="n">
         <f t="shared" ref="L40" si="99">(L39-K39)/K39</f>
-        <v>7.6530569534686774E-2</v>
-      </c>
-      <c r="M40" s="121">
+        <v>0.07653056953468677</v>
+      </c>
+      <c r="M40" s="121" t="n">
         <f t="shared" ref="M40" si="100">(M39-L39)/L39</f>
         <v>-0.10590417110686955</v>
       </c>
@@ -23898,43 +23911,43 @@
       <c r="C42" s="116">
         <v>1</v>
       </c>
-      <c r="D42" s="111">
+      <c r="D42" s="111" t="n">
         <f>D36+D39</f>
         <v>40776.12890625</v>
       </c>
-      <c r="E42" s="111">
+      <c r="E42" s="111" t="n">
         <f t="shared" ref="E42:M42" si="101">E36+E39</f>
         <v>44882.458984375</v>
       </c>
-      <c r="F42" s="111">
+      <c r="F42" s="111" t="n">
         <f t="shared" si="101"/>
         <v>40215.701171875</v>
       </c>
-      <c r="G42" s="111">
+      <c r="G42" s="111" t="n">
         <f t="shared" si="101"/>
         <v>43654.259765625</v>
       </c>
-      <c r="H42" s="111">
+      <c r="H42" s="111" t="n">
         <f t="shared" si="101"/>
         <v>51878.51171875</v>
       </c>
-      <c r="I42" s="111">
+      <c r="I42" s="111" t="n">
         <f t="shared" si="101"/>
         <v>55700.6796875</v>
       </c>
-      <c r="J42" s="111">
+      <c r="J42" s="111" t="n">
         <f t="shared" si="101"/>
         <v>57030.3984375</v>
       </c>
-      <c r="K42" s="111">
+      <c r="K42" s="111" t="n">
         <f t="shared" si="101"/>
         <v>57119.568359375</v>
       </c>
-      <c r="L42" s="111">
+      <c r="L42" s="111" t="n">
         <f t="shared" si="101"/>
         <v>65483.400390625</v>
       </c>
-      <c r="M42" s="111">
+      <c r="M42" s="111" t="n">
         <f t="shared" si="101"/>
         <v>59128.041015625</v>
       </c>
@@ -23994,43 +24007,43 @@
       <c r="C44" s="134">
         <v>1</v>
       </c>
-      <c r="D44" s="134">
+      <c r="D44" s="134" t="n">
         <f>D34-D42</f>
         <v>19678.759765625</v>
       </c>
-      <c r="E44" s="134">
+      <c r="E44" s="134" t="n">
         <f t="shared" ref="E44:M44" si="102">E34-E42</f>
         <v>18959.779296875</v>
       </c>
-      <c r="F44" s="134">
+      <c r="F44" s="134" t="n">
         <f t="shared" si="102"/>
         <v>17858.0888671875</v>
       </c>
-      <c r="G44" s="134">
+      <c r="G44" s="134" t="n">
         <f t="shared" si="102"/>
         <v>18790.0712890625</v>
       </c>
-      <c r="H44" s="134">
+      <c r="H44" s="134" t="n">
         <f t="shared" si="102"/>
         <v>16261.619140625</v>
       </c>
-      <c r="I44" s="134">
+      <c r="I44" s="134" t="n">
         <f t="shared" si="102"/>
         <v>14516.861328125</v>
       </c>
-      <c r="J44" s="134">
+      <c r="J44" s="134" t="n">
         <f t="shared" si="102"/>
         <v>15552.322265625</v>
       </c>
-      <c r="K44" s="134">
+      <c r="K44" s="134" t="n">
         <f t="shared" si="102"/>
         <v>20167.302734375</v>
       </c>
-      <c r="L44" s="134">
+      <c r="L44" s="134" t="n">
         <f t="shared" si="102"/>
         <v>23361.4921875</v>
       </c>
-      <c r="M44" s="134">
+      <c r="M44" s="134" t="n">
         <f t="shared" si="102"/>
         <v>22864.16015625</v>
       </c>
@@ -24094,40 +24107,40 @@
     </row>
     <row r="46" spans="2:36">
       <c r="B46" s="122" t="s">
-        <v>155</v>
-      </c>
-      <c r="C46" s="133">
-        <v>18822</v>
-      </c>
-      <c r="D46" s="133">
-        <v>17688</v>
-      </c>
-      <c r="E46" s="133">
-        <v>18772</v>
-      </c>
-      <c r="F46" s="133">
-        <v>17986</v>
-      </c>
-      <c r="G46" s="133">
-        <v>20907</v>
-      </c>
-      <c r="H46" s="133">
-        <v>25682</v>
-      </c>
-      <c r="I46" s="133">
-        <v>32350</v>
-      </c>
-      <c r="J46" s="133">
-        <v>33535</v>
-      </c>
-      <c r="K46" s="136">
-        <v>33597</v>
-      </c>
-      <c r="L46" s="133">
-        <v>36169</v>
-      </c>
-      <c r="M46" s="133">
-        <v>32338</v>
+        <v>158</v>
+      </c>
+      <c r="C46" s="133" t="n">
+        <v>18822.0</v>
+      </c>
+      <c r="D46" s="133" t="n">
+        <v>17688.0</v>
+      </c>
+      <c r="E46" s="133" t="n">
+        <v>18772.0</v>
+      </c>
+      <c r="F46" s="133" t="n">
+        <v>17986.0</v>
+      </c>
+      <c r="G46" s="133" t="n">
+        <v>20907.0</v>
+      </c>
+      <c r="H46" s="133" t="n">
+        <v>25682.0</v>
+      </c>
+      <c r="I46" s="133" t="n">
+        <v>32350.0</v>
+      </c>
+      <c r="J46" s="133" t="n">
+        <v>33535.0</v>
+      </c>
+      <c r="K46" s="136" t="n">
+        <v>33597.0</v>
+      </c>
+      <c r="L46" s="133" t="n">
+        <v>36169.0</v>
+      </c>
+      <c r="M46" s="133" t="n">
+        <v>32338.0</v>
       </c>
       <c r="Q46" s="107"/>
       <c r="R46" s="107"/>
@@ -24261,43 +24274,43 @@
         <v>57</v>
       </c>
       <c r="C50" s="113"/>
-      <c r="D50" s="126">
+      <c r="D50" s="126" t="n">
         <f t="shared" ref="D50:M50" si="103">D6/D3</f>
         <v>0.10568905718407791</v>
       </c>
-      <c r="E50" s="126">
+      <c r="E50" s="126" t="n">
         <f t="shared" si="103"/>
         <v>0.11386145491714761</v>
       </c>
-      <c r="F50" s="126">
+      <c r="F50" s="126" t="n">
         <f t="shared" si="103"/>
-        <v>9.2149721680965607E-2</v>
-      </c>
-      <c r="G50" s="126">
+        <v>0.09214972168096561</v>
+      </c>
+      <c r="G50" s="126" t="n">
         <f t="shared" si="103"/>
-        <v>9.8343842575720986E-2</v>
-      </c>
-      <c r="H50" s="126">
+        <v>0.09834384257572099</v>
+      </c>
+      <c r="H50" s="126" t="n">
         <f t="shared" si="103"/>
         <v>0.11268734479549018</v>
       </c>
-      <c r="I50" s="126">
+      <c r="I50" s="126" t="n">
         <f t="shared" si="103"/>
         <v>0.18416306851317202</v>
       </c>
-      <c r="J50" s="126">
+      <c r="J50" s="126" t="n">
         <f t="shared" si="103"/>
         <v>0.10821469505638397</v>
       </c>
-      <c r="K50" s="126">
+      <c r="K50" s="126" t="n">
         <f t="shared" si="103"/>
         <v>0.11002681357717713</v>
       </c>
-      <c r="L50" s="126">
+      <c r="L50" s="126" t="n">
         <f t="shared" si="103"/>
         <v>0.11534207050105566</v>
       </c>
-      <c r="M50" s="126">
+      <c r="M50" s="126" t="n">
         <f t="shared" si="103"/>
         <v>0.12721189182116752</v>
       </c>
@@ -24329,43 +24342,43 @@
         <v>58</v>
       </c>
       <c r="C51" s="113"/>
-      <c r="D51" s="126">
+      <c r="D51" s="126" t="n">
         <f t="shared" ref="D51:M51" si="104">D9/D3</f>
-        <v>0.17406665658785311</v>
-      </c>
-      <c r="E51" s="126">
+        <v>0.1740666565878531</v>
+      </c>
+      <c r="E51" s="126" t="n">
         <f t="shared" si="104"/>
         <v>0.19431811921852152</v>
       </c>
-      <c r="F51" s="126">
+      <c r="F51" s="126" t="n">
         <f t="shared" si="104"/>
-        <v>0.16566546300353704</v>
-      </c>
-      <c r="G51" s="126">
+        <v>1.0</v>
+      </c>
+      <c r="G51" s="126" t="n">
         <f t="shared" si="104"/>
         <v>0.17576310285255936</v>
       </c>
-      <c r="H51" s="126">
+      <c r="H51" s="126" t="n">
         <f t="shared" si="104"/>
         <v>0.19352124092964207</v>
       </c>
-      <c r="I51" s="126">
+      <c r="I51" s="126" t="n">
         <f t="shared" si="104"/>
-        <v>0.28013805646706469</v>
-      </c>
-      <c r="J51" s="126">
+        <v>0.2801380564670647</v>
+      </c>
+      <c r="J51" s="126" t="n">
         <f t="shared" si="104"/>
         <v>0.20565601267228434</v>
       </c>
-      <c r="K51" s="126">
+      <c r="K51" s="126" t="n">
         <f t="shared" si="104"/>
         <v>0.20347374466541412</v>
       </c>
-      <c r="L51" s="126">
+      <c r="L51" s="126" t="n">
         <f t="shared" si="104"/>
         <v>0.19954614117536848</v>
       </c>
-      <c r="M51" s="126">
+      <c r="M51" s="126" t="n">
         <f t="shared" si="104"/>
         <v>0.21142604279396668</v>
       </c>
@@ -24397,45 +24410,45 @@
         <v>59</v>
       </c>
       <c r="C52" s="113"/>
-      <c r="D52" s="126">
+      <c r="D52" s="126" t="n">
         <f t="shared" ref="D52:M52" si="105">D20/D3</f>
-        <v>5.8295857666679857E-2</v>
-      </c>
-      <c r="E52" s="126">
+        <v>0.05829585766667986</v>
+      </c>
+      <c r="E52" s="126" t="n">
         <f t="shared" si="105"/>
-        <v>4.8147136094772204E-2</v>
-      </c>
-      <c r="F52" s="126">
+        <v>0.048147136094772204</v>
+      </c>
+      <c r="F52" s="126" t="n">
         <f t="shared" si="105"/>
-        <v>8.1074649037241181E-2</v>
-      </c>
-      <c r="G52" s="126">
+        <v>0.08107464903724118</v>
+      </c>
+      <c r="G52" s="126" t="n">
         <f t="shared" si="105"/>
-        <v>8.2321583955477007E-2</v>
-      </c>
-      <c r="H52" s="126">
+        <v>0.082321583955477</v>
+      </c>
+      <c r="H52" s="126" t="n">
         <f t="shared" si="105"/>
-        <v>8.8200329940572475E-2</v>
-      </c>
-      <c r="I52" s="126">
+        <v>0.08820032994057247</v>
+      </c>
+      <c r="I52" s="126" t="n">
         <f t="shared" si="105"/>
-        <v>8.2411917766884293E-2</v>
-      </c>
-      <c r="J52" s="126">
+        <v>0.0824119177668843</v>
+      </c>
+      <c r="J52" s="126" t="n">
         <f t="shared" si="105"/>
         <v>0.11474193063121348</v>
       </c>
-      <c r="K52" s="126">
+      <c r="K52" s="126" t="n">
         <f t="shared" si="105"/>
         <v>0.14024364469411332</v>
       </c>
-      <c r="L52" s="126">
+      <c r="L52" s="126" t="n">
         <f t="shared" si="105"/>
         <v>0.10851538765280878</v>
       </c>
-      <c r="M52" s="126">
+      <c r="M52" s="126" t="n">
         <f t="shared" si="105"/>
-        <v>8.934650004304763E-2</v>
+        <v>0.08934650004304763</v>
       </c>
       <c r="O52" s="107"/>
       <c r="P52" s="107"/>
@@ -24547,45 +24560,45 @@
         <v>62</v>
       </c>
       <c r="C55" s="114"/>
-      <c r="D55" s="126">
+      <c r="D55" s="126" t="n">
         <f>D23/D20</f>
         <v>1.0311203319502074</v>
       </c>
-      <c r="E55" s="126">
+      <c r="E55" s="126" t="n">
         <f t="shared" ref="E55:M55" si="106">E23/E20</f>
         <v>1.3674193548387097</v>
       </c>
-      <c r="F55" s="126">
+      <c r="F55" s="126" t="n">
         <f t="shared" si="106"/>
-        <v>0.95913261050875731</v>
-      </c>
-      <c r="G55" s="126">
+        <v>0.9591326105087573</v>
+      </c>
+      <c r="G55" s="126" t="n">
         <f t="shared" si="106"/>
-        <v>0.83173677634319032</v>
-      </c>
-      <c r="H55" s="126">
+        <v>0.8317367763431903</v>
+      </c>
+      <c r="H55" s="126" t="n">
         <f t="shared" si="106"/>
-        <v>0.82651727357609706</v>
-      </c>
-      <c r="I55" s="126">
+        <v>0.8265172735760971</v>
+      </c>
+      <c r="I55" s="126" t="n">
         <f t="shared" si="106"/>
-        <v>0.96775493752519148</v>
-      </c>
-      <c r="J55" s="126">
+        <v>0.9677549375251915</v>
+      </c>
+      <c r="J55" s="126" t="n">
         <f t="shared" si="106"/>
-        <v>0.70568862275449107</v>
-      </c>
-      <c r="K55" s="126">
+        <v>0.7056886227544911</v>
+      </c>
+      <c r="K55" s="126" t="n">
         <f t="shared" si="106"/>
-        <v>0.60152596603494957</v>
-      </c>
-      <c r="L55" s="126">
+        <v>0.6015259660349496</v>
+      </c>
+      <c r="L55" s="126" t="n">
         <f t="shared" si="106"/>
-        <v>0.78776177038467254</v>
-      </c>
-      <c r="M55" s="126">
+        <v>0.7877617703846725</v>
+      </c>
+      <c r="M55" s="126" t="n">
         <f t="shared" si="106"/>
-        <v>0.80654288240495142</v>
+        <v>0.8065428824049514</v>
       </c>
       <c r="O55" s="107"/>
       <c r="P55" s="107"/>
@@ -24697,43 +24710,43 @@
         <v>64</v>
       </c>
       <c r="C58" s="113"/>
-      <c r="D58" s="112">
+      <c r="D58" s="112" t="n">
         <f>D42/D44</f>
         <v>2.0720883527161114</v>
       </c>
-      <c r="E58" s="112">
+      <c r="E58" s="112" t="n">
         <f t="shared" ref="E58:M58" si="107">E42/E44</f>
-        <v>2.3672458566947898</v>
-      </c>
-      <c r="F58" s="112">
+        <v>2.36724585669479</v>
+      </c>
+      <c r="F58" s="112" t="n">
         <f t="shared" si="107"/>
         <v>2.2519599645271917</v>
       </c>
-      <c r="G58" s="112">
+      <c r="G58" s="112" t="n">
         <f t="shared" si="107"/>
         <v>2.3232620618653894</v>
       </c>
-      <c r="H58" s="112">
+      <c r="H58" s="112" t="n">
         <f t="shared" si="107"/>
-        <v>3.1902426978594272</v>
-      </c>
-      <c r="I58" s="112">
+        <v>3.190242697859427</v>
+      </c>
+      <c r="I58" s="112" t="n">
         <f t="shared" si="107"/>
-        <v>3.8369643704996599</v>
-      </c>
-      <c r="J58" s="112">
+        <v>3.83696437049966</v>
+      </c>
+      <c r="J58" s="112" t="n">
         <f t="shared" si="107"/>
         <v>3.6670021019017334</v>
       </c>
-      <c r="K58" s="112">
+      <c r="K58" s="112" t="n">
         <f t="shared" si="107"/>
-        <v>2.8322859586976481</v>
-      </c>
-      <c r="L58" s="112">
+        <v>2.832285958697648</v>
+      </c>
+      <c r="L58" s="112" t="n">
         <f t="shared" si="107"/>
         <v>2.803048703612482</v>
       </c>
-      <c r="M58" s="112">
+      <c r="M58" s="112" t="n">
         <f t="shared" si="107"/>
         <v>2.5860578569933668</v>
       </c>
@@ -24765,45 +24778,45 @@
         <v>65</v>
       </c>
       <c r="C59" s="113"/>
-      <c r="D59" s="112">
+      <c r="D59" s="112" t="n">
         <f>D28/D36</f>
-        <v>0.69738803214565692</v>
-      </c>
-      <c r="E59" s="112">
+        <v>0.6973880321456569</v>
+      </c>
+      <c r="E59" s="112" t="n">
         <f t="shared" ref="E59:M59" si="108">E28/E36</f>
-        <v>0.62860170898843659</v>
-      </c>
-      <c r="F59" s="112">
+        <v>0.6286017089884366</v>
+      </c>
+      <c r="F59" s="112" t="n">
         <f t="shared" si="108"/>
-        <v>0.63369784801210438</v>
-      </c>
-      <c r="G59" s="112">
+        <v>0.6336978480121044</v>
+      </c>
+      <c r="G59" s="112" t="n">
         <f t="shared" si="108"/>
-        <v>0.67542305472445952</v>
-      </c>
-      <c r="H59" s="112">
+        <v>0.6754230547244595</v>
+      </c>
+      <c r="H59" s="112" t="n">
         <f t="shared" si="108"/>
-        <v>0.73275220378317973</v>
-      </c>
-      <c r="I59" s="112">
+        <v>0.7327522037831797</v>
+      </c>
+      <c r="I59" s="112" t="n">
         <f t="shared" si="108"/>
-        <v>0.78297595749062321</v>
-      </c>
-      <c r="J59" s="112">
+        <v>0.7829759574906232</v>
+      </c>
+      <c r="J59" s="112" t="n">
         <f t="shared" si="108"/>
-        <v>0.78320145334550773</v>
-      </c>
-      <c r="K59" s="112">
+        <v>0.7832014533455077</v>
+      </c>
+      <c r="K59" s="112" t="n">
         <f t="shared" si="108"/>
-        <v>0.78462512248423144</v>
-      </c>
-      <c r="L59" s="112">
+        <v>0.7846251224842314</v>
+      </c>
+      <c r="L59" s="112" t="n">
         <f t="shared" si="108"/>
-        <v>0.70227613018492718</v>
-      </c>
-      <c r="M59" s="112">
+        <v>0.7022761301849272</v>
+      </c>
+      <c r="M59" s="112" t="n">
         <f t="shared" si="108"/>
-        <v>0.75341145768022333</v>
+        <v>0.7534114576802233</v>
       </c>
       <c r="O59" s="107"/>
       <c r="P59" s="107"/>
@@ -24830,45 +24843,45 @@
     </row>
     <row r="60" spans="2:36">
       <c r="B60" s="122" t="s">
-        <v>157</v>
-      </c>
-      <c r="D60" s="112">
+        <v>160</v>
+      </c>
+      <c r="D60" s="112" t="n">
         <f>D46/D9</f>
-        <v>1.5362567810477821</v>
-      </c>
-      <c r="E60" s="112">
+        <v>1.536256781047782</v>
+      </c>
+      <c r="E60" s="112" t="n">
         <f t="shared" ref="E60:M60" si="109">E46/E9</f>
         <v>1.500396397555253</v>
       </c>
-      <c r="F60" s="112">
+      <c r="F60" s="112" t="n">
         <f t="shared" si="109"/>
-        <v>1.8353061224489795</v>
-      </c>
-      <c r="G60" s="112">
+        <v>0.30404683852873643</v>
+      </c>
+      <c r="G60" s="112" t="n">
         <f t="shared" si="109"/>
         <v>2.039180036716878</v>
       </c>
-      <c r="H60" s="112">
+      <c r="H60" s="112" t="n">
         <f t="shared" si="109"/>
         <v>2.1858025888324155</v>
       </c>
-      <c r="I60" s="112">
+      <c r="I60" s="112" t="n">
         <f t="shared" si="109"/>
-        <v>1.9179418438605991</v>
-      </c>
-      <c r="J60" s="112">
+        <v>1.917941843860599</v>
+      </c>
+      <c r="J60" s="112" t="n">
         <f t="shared" si="109"/>
         <v>2.8009321584806446</v>
       </c>
-      <c r="K60" s="112">
+      <c r="K60" s="112" t="n">
         <f t="shared" si="109"/>
         <v>2.8496957415748283</v>
       </c>
-      <c r="L60" s="112">
+      <c r="L60" s="112" t="n">
         <f t="shared" si="109"/>
         <v>2.9212981217415255</v>
       </c>
-      <c r="M60" s="112">
+      <c r="M60" s="112" t="n">
         <f t="shared" si="109"/>
         <v>2.416571285619749</v>
       </c>
@@ -24953,9 +24966,9 @@
         <v>73</v>
       </c>
       <c r="C63" s="113"/>
-      <c r="D63" s="121">
+      <c r="D63" s="121" t="n">
         <f>(M20/I20)^0.2 - 1</f>
-        <v>2.6491056537449653E-2</v>
+        <v>0.026491056537449653</v>
       </c>
       <c r="O63" s="107"/>
       <c r="P63" s="107"/>
@@ -24985,9 +24998,9 @@
         <v>83</v>
       </c>
       <c r="C64" s="113"/>
-      <c r="D64" s="121">
+      <c r="D64" s="121" t="n">
         <f>(M20/D20)^0.1 - 1</f>
-        <v>3.9033519891011226E-2</v>
+        <v>0.039033519891011226</v>
       </c>
     </row>
     <row r="65" spans="2:13">
@@ -24995,9 +25008,9 @@
         <v>74</v>
       </c>
       <c r="C65" s="114"/>
-      <c r="D65" s="121">
+      <c r="D65" s="121" t="n">
         <f>(M6/I6)^0.2 - 1</f>
-        <v>-6.200030150071667E-2</v>
+        <v>-0.06200030150071667</v>
       </c>
     </row>
     <row r="66" spans="2:13">
@@ -25005,9 +25018,9 @@
         <v>84</v>
       </c>
       <c r="C66" s="114"/>
-      <c r="D66" s="121">
+      <c r="D66" s="121" t="n">
         <f>(M6/D6)^0.1 - 1</f>
-        <v>1.4227407462441555E-2</v>
+        <v>0.014227407462441555</v>
       </c>
     </row>
     <row r="67" spans="2:13">
@@ -25015,9 +25028,9 @@
         <v>75</v>
       </c>
       <c r="C67" s="114"/>
-      <c r="D67" s="121">
+      <c r="D67" s="121" t="n">
         <f>(M3/I3)^0.2 - 1</f>
-        <v>1.0037887842590187E-2</v>
+        <v>0.010037887842590187</v>
       </c>
     </row>
     <row r="68" spans="2:13">
@@ -25025,9 +25038,9 @@
         <v>85</v>
       </c>
       <c r="C68" s="114"/>
-      <c r="D68" s="121">
+      <c r="D68" s="121" t="n">
         <f>(M3/D3)^0.1 - 1</f>
-        <v>-4.3984282464618607E-3</v>
+        <v>-0.004398428246461861</v>
       </c>
     </row>
     <row r="69" spans="2:13">
@@ -25035,9 +25048,9 @@
         <v>88</v>
       </c>
       <c r="C69" s="114"/>
-      <c r="D69" s="121">
+      <c r="D69" s="121" t="n">
         <f>(M9/I9)^0.2 - 1</f>
-        <v>-4.523841000667006E-2</v>
+        <v>-0.04523841000667006</v>
       </c>
     </row>
     <row r="70" spans="2:13">
@@ -25045,36 +25058,36 @@
         <v>89</v>
       </c>
       <c r="C70" s="114"/>
-      <c r="D70" s="121">
+      <c r="D70" s="121" t="n">
         <f>(M9/D9)^0.2 - 1</f>
-        <v>3.0527832848427305E-2</v>
+        <v>0.030527832848427305</v>
       </c>
     </row>
     <row r="71" spans="2:13">
       <c r="B71" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="D71" s="121">
+      <c r="D71" s="121" t="n">
         <f>(M23/I23)^0.2 - 1</f>
-        <v>-1.0245275929794073E-2</v>
+        <v>-0.010245275929794073</v>
       </c>
     </row>
     <row r="72" spans="2:13">
       <c r="B72" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="D72" s="121">
+      <c r="D72" s="121" t="n">
         <f>AVERAGE(I24:M24)</f>
-        <v>9.7123220295846635E-3</v>
+        <v>0.009712322029584664</v>
       </c>
     </row>
     <row r="73" spans="2:13">
       <c r="B73" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="D73" s="121">
+      <c r="D73" s="121" t="n">
         <f>AVERAGE(I55:M55)</f>
-        <v>0.77385483582085113</v>
+        <v>0.7738548358208511</v>
       </c>
     </row>
     <row r="75" spans="2:13" ht="17.5" thickBot="1">
@@ -25120,45 +25133,45 @@
       <c r="C76" s="110">
         <v>0</v>
       </c>
-      <c r="D76" s="110">
+      <c r="D76" s="110" t="n">
         <f t="shared" ref="D76:M76" si="110">100*D6/D34</f>
         <v>11.563729579742487</v>
       </c>
-      <c r="E76" s="110">
+      <c r="E76" s="110" t="n">
         <f t="shared" si="110"/>
         <v>11.483118818342064</v>
       </c>
-      <c r="F76" s="110">
+      <c r="F76" s="110" t="n">
         <f t="shared" si="110"/>
         <v>9.386592296933113</v>
       </c>
-      <c r="G76" s="110">
+      <c r="G76" s="110" t="n">
         <f t="shared" si="110"/>
-        <v>9.1867647112869832</v>
-      </c>
-      <c r="H76" s="110">
+        <v>9.186764711286983</v>
+      </c>
+      <c r="H76" s="110" t="n">
         <f t="shared" si="110"/>
         <v>10.040641202769557</v>
       </c>
-      <c r="I76" s="110">
+      <c r="I76" s="110" t="n">
         <f t="shared" si="110"/>
         <v>15.7915102065203</v>
       </c>
-      <c r="J76" s="110">
+      <c r="J76" s="110" t="n">
         <f t="shared" si="110"/>
-        <v>8.6797517907437136</v>
-      </c>
-      <c r="K76" s="110">
+        <v>8.679751790743714</v>
+      </c>
+      <c r="K76" s="110" t="n">
         <f t="shared" si="110"/>
         <v>8.24871765544348</v>
       </c>
-      <c r="L76" s="110">
+      <c r="L76" s="110" t="n">
         <f t="shared" si="110"/>
-        <v>8.0551302046436479</v>
-      </c>
-      <c r="M76" s="110">
+        <v>8.055130204643648</v>
+      </c>
+      <c r="M76" s="110" t="n">
         <f t="shared" si="110"/>
-        <v>9.8199715640828735</v>
+        <v>9.819971564082874</v>
       </c>
     </row>
     <row r="77" spans="2:13">
@@ -25168,43 +25181,43 @@
       <c r="C77" s="110">
         <v>0</v>
       </c>
-      <c r="D77" s="110">
+      <c r="D77" s="110" t="n">
         <f t="shared" ref="D77:M77" si="111">100*D6/D44</f>
-        <v>35.524798955885672</v>
-      </c>
-      <c r="E77" s="110">
+        <v>35.52479895588567</v>
+      </c>
+      <c r="E77" s="110" t="n">
         <f t="shared" si="111"/>
         <v>38.666484262996285</v>
       </c>
-      <c r="F77" s="110">
+      <c r="F77" s="110" t="n">
         <f t="shared" si="111"/>
         <v>30.524822352965817</v>
       </c>
-      <c r="G77" s="110">
+      <c r="G77" s="110" t="n">
         <f t="shared" si="111"/>
         <v>30.530026636303777</v>
       </c>
-      <c r="H77" s="110">
+      <c r="H77" s="110" t="n">
         <f t="shared" si="111"/>
-        <v>42.072723481731629</v>
-      </c>
-      <c r="I77" s="110">
+        <v>42.07272348173163</v>
+      </c>
+      <c r="I77" s="110" t="n">
         <f t="shared" si="111"/>
-        <v>76.382972225320415</v>
-      </c>
-      <c r="J77" s="110">
+        <v>76.38297222532042</v>
+      </c>
+      <c r="J77" s="110" t="n">
         <f t="shared" si="111"/>
-        <v>40.508419851386243</v>
-      </c>
-      <c r="K77" s="110">
+        <v>40.50841985138624</v>
+      </c>
+      <c r="K77" s="110" t="n">
         <f t="shared" si="111"/>
         <v>31.611444848217435</v>
       </c>
-      <c r="L77" s="110">
+      <c r="L77" s="110" t="n">
         <f t="shared" si="111"/>
         <v>30.634052482199774</v>
       </c>
-      <c r="M77" s="110">
+      <c r="M77" s="110" t="n">
         <f t="shared" si="111"/>
         <v>35.214986182830835</v>
       </c>
@@ -25213,37 +25226,37 @@
       <c r="B78" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="C78" s="110">
-        <v>0</v>
-      </c>
-      <c r="D78" s="40">
+      <c r="C78" s="110" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D78" s="40" t="n">
         <v>19.969999313354492</v>
       </c>
-      <c r="E78" s="40">
-        <v>21.409999847412109</v>
-      </c>
-      <c r="F78" s="40">
+      <c r="E78" s="40" t="n">
+        <v>21.40999984741211</v>
+      </c>
+      <c r="F78" s="40" t="n">
         <v>18.940000534057617</v>
       </c>
-      <c r="G78" s="40">
-        <v>18</v>
-      </c>
-      <c r="H78" s="40">
+      <c r="G78" s="40" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="H78" s="40" t="n">
         <v>18.399999618530273</v>
       </c>
-      <c r="I78" s="40">
-        <v>26.659999847412109</v>
-      </c>
-      <c r="J78" s="40">
-        <v>15.689999580383301</v>
-      </c>
-      <c r="K78" s="40">
-        <v>14.310000419616699</v>
-      </c>
-      <c r="L78" s="40">
+      <c r="I78" s="40" t="n">
+        <v>26.65999984741211</v>
+      </c>
+      <c r="J78" s="40" t="n">
+        <v>15.6899995803833</v>
+      </c>
+      <c r="K78" s="40" t="n">
+        <v>14.3100004196167</v>
+      </c>
+      <c r="L78" s="40" t="n">
         <v>14.229999542236328</v>
       </c>
-      <c r="M78" s="40">
+      <c r="M78" s="40" t="n">
         <v>17.079999923706055</v>
       </c>
     </row>
@@ -25287,37 +25300,37 @@
       <c r="B81" s="122" t="s">
         <v>147</v>
       </c>
-      <c r="C81" s="110">
-        <v>0</v>
-      </c>
-      <c r="D81" s="40">
+      <c r="C81" s="110" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D81" s="40" t="n">
         <v>18.190000534057617</v>
       </c>
-      <c r="E81" s="40">
+      <c r="E81" s="40" t="n">
         <v>18.489999771118164</v>
       </c>
-      <c r="F81" s="40">
-        <v>23.340000152587891</v>
-      </c>
-      <c r="G81" s="40">
+      <c r="F81" s="40" t="n">
+        <v>23.34000015258789</v>
+      </c>
+      <c r="G81" s="40" t="n">
         <v>22.25</v>
       </c>
-      <c r="H81" s="40">
-        <v>22.840000152587891</v>
-      </c>
-      <c r="I81" s="40">
+      <c r="H81" s="40" t="n">
+        <v>22.84000015258789</v>
+      </c>
+      <c r="I81" s="40" t="n">
         <v>21.049999237060547</v>
       </c>
-      <c r="J81" s="40">
+      <c r="J81" s="40" t="n">
         <v>14.539999961853027</v>
       </c>
-      <c r="K81" s="40">
+      <c r="K81" s="40" t="n">
         <v>21.809999465942383</v>
       </c>
-      <c r="L81" s="40">
+      <c r="L81" s="40" t="n">
         <v>23.059999465942383</v>
       </c>
-      <c r="M81" s="40">
+      <c r="M81" s="40" t="n">
         <v>20.899999618530273</v>
       </c>
     </row>
@@ -25325,37 +25338,37 @@
       <c r="B82" s="122" t="s">
         <v>148</v>
       </c>
-      <c r="C82" s="110">
-        <v>0</v>
-      </c>
-      <c r="D82" s="40">
+      <c r="C82" s="110" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D82" s="40" t="n">
         <v>13.609999656677246</v>
       </c>
-      <c r="E82" s="40">
-        <v>16.370000839233398</v>
-      </c>
-      <c r="F82" s="40">
-        <v>18.620000839233398</v>
-      </c>
-      <c r="G82" s="40">
+      <c r="E82" s="40" t="n">
+        <v>16.3700008392334</v>
+      </c>
+      <c r="F82" s="40" t="n">
+        <v>18.6200008392334</v>
+      </c>
+      <c r="G82" s="40" t="n">
         <v>15.930000305175781</v>
       </c>
-      <c r="H82" s="40">
-        <v>17.819999694824219</v>
-      </c>
-      <c r="I82" s="40">
+      <c r="H82" s="40" t="n">
+        <v>17.81999969482422</v>
+      </c>
+      <c r="I82" s="40" t="n">
         <v>16.780000686645508</v>
       </c>
-      <c r="J82" s="40">
-        <v>20.870000839233398</v>
-      </c>
-      <c r="K82" s="40">
+      <c r="J82" s="40" t="n">
+        <v>20.8700008392334</v>
+      </c>
+      <c r="K82" s="40" t="n">
         <v>13.949999809265137</v>
       </c>
-      <c r="L82" s="40">
+      <c r="L82" s="40" t="n">
         <v>14.569999694824219</v>
       </c>
-      <c r="M82" s="40">
+      <c r="M82" s="40" t="n">
         <v>15.270000457763672</v>
       </c>
     </row>
@@ -25363,8 +25376,8 @@
       <c r="B83" s="122" t="s">
         <v>153</v>
       </c>
-      <c r="C83" s="110">
-        <v>4.8000001907348633</v>
+      <c r="C83" s="110" t="n">
+        <v>4.800000190734863</v>
       </c>
     </row>
   </sheetData>

--- a/target/classes/companies/consumer_defense/Unilever/UL_Unilever.xlsx
+++ b/target/classes/companies/consumer_defense/Unilever/UL_Unilever.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D2C41D-A74C-45FB-8ED9-E98810C63079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A449CDF3-4847-49B3-B1C1-32D83E004718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Valuation Metrics" sheetId="5" r:id="rId1"/>
@@ -18693,7 +18693,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:V47"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="75" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="75" workbookViewId="0">
       <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
@@ -20123,8 +20123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B3:L74"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="82" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="82" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -20201,7 +20201,7 @@
         <v>100</v>
       </c>
       <c r="C10" s="67" t="n">
-        <v>0.024800000712275505</v>
+        <v>0.02500000037252903</v>
       </c>
     </row>
     <row r="11" spans="2:12">
@@ -21054,45 +21054,42 @@
       <c r="B45" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C45" s="21" t="n">
-        <f>L25*(1+C46)</f>
-        <v>13713.637425156567</v>
-      </c>
-      <c r="D45" s="21" t="n">
-        <f>C45*(1+D46)</f>
-        <v>14053.735643068434</v>
-      </c>
-      <c r="E45" s="21" t="n">
-        <f t="shared" ref="E45:L45" si="8">D45*(1+E46)</f>
-        <v>14402.26829702669</v>
+      <c r="C45" s="60" t="n">
+        <v>12109.0</v>
+      </c>
+      <c r="D45" s="60" t="n">
+        <v>12833.0</v>
+      </c>
+      <c r="E45" s="60" t="n">
+        <v>13361.0</v>
       </c>
       <c r="F45" s="21" t="n">
-        <f t="shared" si="8"/>
-        <v>14759.44456105141</v>
+        <f t="shared" ref="E45:L45" si="8">E45*(1+F46)</f>
+        <v>13695.025004977373</v>
       </c>
       <c r="G45" s="21" t="n">
         <f t="shared" si="8"/>
-        <v>15125.478796678331</v>
+        <v>14037.400635203643</v>
       </c>
       <c r="H45" s="21" t="n">
         <f t="shared" si="8"/>
-        <v>15500.590681609498</v>
+        <v>14388.335656313044</v>
       </c>
       <c r="I45" s="21" t="n">
         <f t="shared" si="8"/>
-        <v>15885.005341554177</v>
+        <v>14748.044053080912</v>
       </c>
       <c r="J45" s="21" t="n">
         <f t="shared" si="8"/>
-        <v>16278.953485339316</v>
+        <v>15116.745159902011</v>
       </c>
       <c r="K45" s="21" t="n">
         <f t="shared" si="8"/>
-        <v>16682.67154337089</v>
+        <v>15494.66379453099</v>
       </c>
       <c r="L45" s="21" t="n">
         <f t="shared" si="8"/>
-        <v>17096.40180952923</v>
+        <v>15882.030395166503</v>
       </c>
     </row>
     <row r="46" spans="2:12">
@@ -21101,43 +21098,43 @@
       </c>
       <c r="C46" s="20" t="n">
         <f>C10</f>
-        <v>0.024800000712275505</v>
+        <v>0.02500000037252903</v>
       </c>
       <c r="D46" s="20" t="n">
         <f>C10</f>
-        <v>0.024800000712275505</v>
+        <v>0.02500000037252903</v>
       </c>
       <c r="E46" s="20" t="n">
         <f>C10</f>
-        <v>0.024800000712275505</v>
+        <v>0.02500000037252903</v>
       </c>
       <c r="F46" s="20" t="n">
         <f>C10</f>
-        <v>0.024800000712275505</v>
+        <v>0.02500000037252903</v>
       </c>
       <c r="G46" s="20" t="n">
         <f>C10</f>
-        <v>0.024800000712275505</v>
+        <v>0.02500000037252903</v>
       </c>
       <c r="H46" s="20" t="n">
         <f>C10</f>
-        <v>0.024800000712275505</v>
+        <v>0.02500000037252903</v>
       </c>
       <c r="I46" s="20" t="n">
         <f>C10</f>
-        <v>0.024800000712275505</v>
+        <v>0.02500000037252903</v>
       </c>
       <c r="J46" s="20" t="n">
         <f>C10</f>
-        <v>0.024800000712275505</v>
+        <v>0.02500000037252903</v>
       </c>
       <c r="K46" s="20" t="n">
         <f>C10</f>
-        <v>0.024800000712275505</v>
+        <v>0.02500000037252903</v>
       </c>
       <c r="L46" s="20" t="n">
         <f>C10</f>
-        <v>0.024800000712275505</v>
+        <v>0.02500000037252903</v>
       </c>
     </row>
     <row r="48" spans="2:12" ht="20" thickBot="1">
@@ -21434,7 +21431,7 @@
       </c>
       <c r="C69" s="25" t="n">
         <f>L45*C9</f>
-        <v>232169.13526905538</v>
+        <v>215677.97155465905</v>
       </c>
     </row>
     <row r="70" spans="2:12" ht="15" thickBot="1">
@@ -21443,7 +21440,7 @@
       </c>
       <c r="C70" s="23" t="n">
         <f>C69/C55</f>
-        <v>158436.94610461732</v>
+        <v>147183.04013820944</v>
       </c>
     </row>
     <row r="71" spans="2:12" ht="15" thickTop="1">
@@ -21456,7 +21453,7 @@
       </c>
       <c r="C72" s="72" t="n">
         <f>SUM(C53:L53)+C70</f>
-        <v>214527.06116366776</v>
+        <v>203273.15519725988</v>
       </c>
     </row>
     <row r="73" spans="2:12" ht="15" thickTop="1"/>
@@ -21466,7 +21463,7 @@
       </c>
       <c r="C74" s="70" t="n">
         <f>C72/(C11/1000000)</f>
-        <v>85.46894431220842</v>
+        <v>80.98531666579261</v>
       </c>
     </row>
   </sheetData>
@@ -21562,7 +21559,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
